--- a/parser/public/data/TitulosYTemasSegunCatagorias.xlsx
+++ b/parser/public/data/TitulosYTemasSegunCatagorias.xlsx
@@ -18843,39 +18843,48 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -18886,21 +18895,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18913,63 +18934,51 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18979,16 +18988,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="109" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -19350,7 +19350,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="502">
+      <c r="A2" s="500">
         <v>1</v>
       </c>
       <c r="B2" s="336" t="s">
@@ -19391,7 +19391,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="500"/>
+      <c r="A3" s="498"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -19418,7 +19418,7 @@
       <c r="M3" s="304"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="500"/>
+      <c r="A4" s="498"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -19441,7 +19441,7 @@
       <c r="M4" s="304"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="500"/>
+      <c r="A5" s="498"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -19460,7 +19460,7 @@
       <c r="M5" s="304"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="500"/>
+      <c r="A6" s="498"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -19479,7 +19479,7 @@
       <c r="M6" s="304"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="500"/>
+      <c r="A7" s="498"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -19496,7 +19496,7 @@
       <c r="M7" s="304"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="501"/>
+      <c r="A8" s="499"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -19513,7 +19513,7 @@
       <c r="M8" s="307"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="499">
+      <c r="A9" s="497">
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -19552,7 +19552,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="500"/>
+      <c r="A10" s="498"/>
       <c r="B10" s="334" t="s">
         <v>46</v>
       </c>
@@ -19585,7 +19585,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="500"/>
+      <c r="A11" s="498"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -19610,7 +19610,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="500"/>
+      <c r="A12" s="498"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -19633,7 +19633,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="500"/>
+      <c r="A13" s="498"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -19650,7 +19650,7 @@
       <c r="M13" s="304"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="500"/>
+      <c r="A14" s="498"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -19667,7 +19667,7 @@
       <c r="M14" s="304"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="500"/>
+      <c r="A15" s="498"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -19684,7 +19684,7 @@
       <c r="M15" s="312"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="500"/>
+      <c r="A16" s="498"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -19701,7 +19701,7 @@
       <c r="M16" s="307"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="499">
+      <c r="A17" s="497">
         <v>4</v>
       </c>
       <c r="B17" s="335" t="s">
@@ -19738,7 +19738,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="500"/>
+      <c r="A18" s="498"/>
       <c r="B18" s="334" t="s">
         <v>46</v>
       </c>
@@ -19763,7 +19763,7 @@
       <c r="M18" s="304"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="500"/>
+      <c r="A19" s="498"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -19786,7 +19786,7 @@
       <c r="M19" s="304"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="500"/>
+      <c r="A20" s="498"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -19809,7 +19809,7 @@
       <c r="M20" s="304"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="500"/>
+      <c r="A21" s="498"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -19830,7 +19830,7 @@
       <c r="M21" s="304"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="500"/>
+      <c r="A22" s="498"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -19851,7 +19851,7 @@
       <c r="M22" s="304"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="500"/>
+      <c r="A23" s="498"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -19870,7 +19870,7 @@
       <c r="M23" s="312"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="501"/>
+      <c r="A24" s="499"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -19889,7 +19889,7 @@
       <c r="M24" s="307"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="499">
+      <c r="A25" s="497">
         <v>5</v>
       </c>
       <c r="B25" s="10"/>
@@ -19928,7 +19928,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="500"/>
+      <c r="A26" s="498"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -19955,7 +19955,7 @@
       <c r="M26" s="304"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="500"/>
+      <c r="A27" s="498"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -19980,7 +19980,7 @@
       <c r="M27" s="304"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="500"/>
+      <c r="A28" s="498"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -20001,7 +20001,7 @@
       <c r="M28" s="312"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="500"/>
+      <c r="A29" s="498"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -20018,7 +20018,7 @@
       <c r="M29" s="312"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="501"/>
+      <c r="A30" s="499"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -20037,7 +20037,7 @@
       <c r="M30" s="307"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="499">
+      <c r="A31" s="497">
         <v>6</v>
       </c>
       <c r="B31" s="10"/>
@@ -20074,7 +20074,7 @@
       <c r="M31" s="309"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="500"/>
+      <c r="A32" s="498"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -20101,7 +20101,7 @@
       <c r="M32" s="304"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="500"/>
+      <c r="A33" s="498"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -20128,7 +20128,7 @@
       <c r="M33" s="304"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="500"/>
+      <c r="A34" s="498"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -20151,7 +20151,7 @@
       <c r="M34" s="304"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="500"/>
+      <c r="A35" s="498"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -20170,7 +20170,7 @@
       <c r="M35" s="304"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="500"/>
+      <c r="A36" s="498"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -20187,7 +20187,7 @@
       <c r="M36" s="312"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="501"/>
+      <c r="A37" s="499"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -20204,7 +20204,7 @@
       <c r="M37" s="307"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="499" t="s">
+      <c r="A38" s="497" t="s">
         <v>2341</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -20235,7 +20235,7 @@
       <c r="M38" s="309"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="500"/>
+      <c r="A39" s="498"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
@@ -20264,7 +20264,7 @@
       <c r="M39" s="304"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="500"/>
+      <c r="A40" s="498"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
@@ -20293,7 +20293,7 @@
       <c r="M40" s="304"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="500"/>
+      <c r="A41" s="498"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -20310,7 +20310,7 @@
       <c r="M41" s="304"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="500"/>
+      <c r="A42" s="498"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
@@ -20335,7 +20335,7 @@
       <c r="M42" s="304"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="500"/>
+      <c r="A43" s="498"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -20354,7 +20354,7 @@
       <c r="M43" s="304"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="501"/>
+      <c r="A44" s="499"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -20373,7 +20373,7 @@
       <c r="M44" s="307"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="499" t="s">
+      <c r="A45" s="497" t="s">
         <v>2342</v>
       </c>
       <c r="B45" s="335" t="s">
@@ -20408,7 +20408,7 @@
       <c r="M45" s="309"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="500"/>
+      <c r="A46" s="498"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -20435,7 +20435,7 @@
       <c r="M46" s="304"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="500"/>
+      <c r="A47" s="498"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -20456,7 +20456,7 @@
       <c r="M47" s="304"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="500"/>
+      <c r="A48" s="498"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -20475,7 +20475,7 @@
       <c r="M48" s="304"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="500"/>
+      <c r="A49" s="498"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -20494,7 +20494,7 @@
       <c r="M49" s="304"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="500"/>
+      <c r="A50" s="498"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -20509,7 +20509,7 @@
       <c r="M50" s="304"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="501"/>
+      <c r="A51" s="499"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -20528,7 +20528,7 @@
       <c r="M51" s="307"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="499">
+      <c r="A52" s="497">
         <v>12</v>
       </c>
       <c r="B52" s="335" t="s">
@@ -20544,10 +20544,10 @@
       <c r="F52" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G52" s="497" t="s">
+      <c r="G52" s="501" t="s">
         <v>175</v>
       </c>
-      <c r="H52" s="498"/>
+      <c r="H52" s="502"/>
       <c r="I52" s="315" t="s">
         <v>176</v>
       </c>
@@ -20565,7 +20565,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="500"/>
+      <c r="A53" s="498"/>
       <c r="B53" s="4" t="s">
         <v>181</v>
       </c>
@@ -20596,7 +20596,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="500"/>
+      <c r="A54" s="498"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -20619,7 +20619,7 @@
       <c r="M54" s="304"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="500"/>
+      <c r="A55" s="498"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -20642,7 +20642,7 @@
       <c r="M55" s="304"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="500"/>
+      <c r="A56" s="498"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -20665,7 +20665,7 @@
       <c r="M56" s="304"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="500"/>
+      <c r="A57" s="498"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -20684,7 +20684,7 @@
       <c r="M57" s="307"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="502">
+      <c r="A58" s="500">
         <v>13</v>
       </c>
       <c r="B58" s="335" t="s">
@@ -20719,7 +20719,7 @@
       <c r="M58" s="309"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="500"/>
+      <c r="A59" s="498"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -20738,7 +20738,7 @@
       <c r="M59" s="309"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="500"/>
+      <c r="A60" s="498"/>
       <c r="B60" s="4" t="s">
         <v>2365</v>
       </c>
@@ -20763,7 +20763,7 @@
       <c r="M60" s="304"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="500"/>
+      <c r="A61" s="498"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
         <v>2585</v>
@@ -20788,7 +20788,7 @@
       <c r="M61" s="304"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="500"/>
+      <c r="A62" s="498"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -20809,7 +20809,7 @@
       <c r="M62" s="304"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="500"/>
+      <c r="A63" s="498"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -20826,7 +20826,7 @@
       <c r="M63" s="304"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="500"/>
+      <c r="A64" s="498"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -20843,7 +20843,7 @@
       <c r="M64" s="304"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="500"/>
+      <c r="A65" s="498"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -20860,7 +20860,7 @@
       <c r="M65" s="304"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="501"/>
+      <c r="A66" s="499"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -20877,7 +20877,7 @@
       <c r="M66" s="307"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="499">
+      <c r="A67" s="497">
         <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -20912,7 +20912,7 @@
       <c r="M67" s="309"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="500"/>
+      <c r="A68" s="498"/>
       <c r="B68" s="334" t="s">
         <v>225</v>
       </c>
@@ -20939,7 +20939,7 @@
       <c r="M68" s="304"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="500"/>
+      <c r="A69" s="498"/>
       <c r="B69" s="4" t="s">
         <v>2364</v>
       </c>
@@ -20966,7 +20966,7 @@
       <c r="M69" s="304"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="500"/>
+      <c r="A70" s="498"/>
       <c r="B70" s="334" t="s">
         <v>234</v>
       </c>
@@ -20987,7 +20987,7 @@
       <c r="M70" s="304"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="500"/>
+      <c r="A71" s="498"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -21006,7 +21006,7 @@
       <c r="M71" s="304"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="500"/>
+      <c r="A72" s="498"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -21025,7 +21025,7 @@
       <c r="M72" s="304"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="501"/>
+      <c r="A73" s="499"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -21044,7 +21044,7 @@
       <c r="M73" s="307"/>
     </row>
     <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="499">
+      <c r="A74" s="497">
         <v>15</v>
       </c>
       <c r="B74" s="335" t="s">
@@ -21083,7 +21083,7 @@
       <c r="M74" s="309"/>
     </row>
     <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="500"/>
+      <c r="A75" s="498"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
         <v>249</v>
@@ -21112,7 +21112,7 @@
       <c r="M75" s="304"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="500"/>
+      <c r="A76" s="498"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -21139,7 +21139,7 @@
       <c r="M76" s="304"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="500"/>
+      <c r="A77" s="498"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -21160,7 +21160,7 @@
       <c r="M77" s="304"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="500"/>
+      <c r="A78" s="498"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -21179,7 +21179,7 @@
       <c r="M78" s="304"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="500"/>
+      <c r="A79" s="498"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -21196,7 +21196,7 @@
       <c r="M79" s="304"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="500"/>
+      <c r="A80" s="498"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -21211,7 +21211,7 @@
       <c r="M80" s="312"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="500"/>
+      <c r="A81" s="498"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -21230,7 +21230,7 @@
       <c r="M81" s="307"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="502">
+      <c r="A82" s="500">
         <v>16</v>
       </c>
       <c r="B82" s="10"/>
@@ -21261,7 +21261,7 @@
       <c r="M82" s="309"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="500"/>
+      <c r="A83" s="498"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -21286,7 +21286,7 @@
       <c r="M83" s="319"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="500"/>
+      <c r="A84" s="498"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -21311,7 +21311,7 @@
       <c r="M84" s="304"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="500"/>
+      <c r="A85" s="498"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -21334,7 +21334,7 @@
       <c r="M85" s="304"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="500"/>
+      <c r="A86" s="498"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -21353,7 +21353,7 @@
       <c r="M86" s="304"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="500"/>
+      <c r="A87" s="498"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -21372,7 +21372,7 @@
       <c r="M87" s="304"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="501"/>
+      <c r="A88" s="499"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -21387,7 +21387,7 @@
       <c r="M88" s="307"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="499">
+      <c r="A89" s="497">
         <v>17</v>
       </c>
       <c r="B89" s="337" t="s">
@@ -21420,7 +21420,7 @@
       <c r="M89" s="309"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="500"/>
+      <c r="A90" s="498"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
@@ -21451,7 +21451,7 @@
       <c r="M90" s="304"/>
     </row>
     <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="500"/>
+      <c r="A91" s="498"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -21480,7 +21480,7 @@
       <c r="M91" s="304"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="500"/>
+      <c r="A92" s="498"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -21505,7 +21505,7 @@
       <c r="M92" s="304"/>
     </row>
     <row r="93" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="501"/>
+      <c r="A93" s="499"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -21522,7 +21522,7 @@
       <c r="M93" s="307"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="499">
+      <c r="A94" s="497">
         <v>18</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -21557,7 +21557,7 @@
       <c r="M94" s="309"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="500"/>
+      <c r="A95" s="498"/>
       <c r="B95" s="4" t="s">
         <v>2362</v>
       </c>
@@ -21584,7 +21584,7 @@
       <c r="M95" s="304"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="500"/>
+      <c r="A96" s="498"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -21611,7 +21611,7 @@
       <c r="M96" s="304"/>
     </row>
     <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="500"/>
+      <c r="A97" s="498"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -21630,7 +21630,7 @@
       <c r="M97" s="304"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="500"/>
+      <c r="A98" s="498"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -21651,7 +21651,7 @@
       <c r="M98" s="304"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="500"/>
+      <c r="A99" s="498"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -21670,7 +21670,7 @@
       <c r="M99" s="304"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="500"/>
+      <c r="A100" s="498"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -21689,7 +21689,7 @@
       <c r="M100" s="304"/>
     </row>
     <row r="101" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="501"/>
+      <c r="A101" s="499"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -21706,7 +21706,7 @@
       <c r="M101" s="307"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="499">
+      <c r="A102" s="497">
         <v>19</v>
       </c>
       <c r="B102" s="10"/>
@@ -21741,7 +21741,7 @@
       <c r="M102" s="309"/>
     </row>
     <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="500"/>
+      <c r="A103" s="498"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4" t="s">
         <v>342</v>
@@ -21772,7 +21772,7 @@
       <c r="M103" s="304"/>
     </row>
     <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="500"/>
+      <c r="A104" s="498"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4" t="s">
         <v>349</v>
@@ -21799,7 +21799,7 @@
       <c r="M104" s="304"/>
     </row>
     <row r="105" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="501"/>
+      <c r="A105" s="499"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -21820,7 +21820,7 @@
       <c r="M105" s="307"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="499">
+      <c r="A106" s="497">
         <v>20</v>
       </c>
       <c r="B106" s="10"/>
@@ -21857,7 +21857,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="500"/>
+      <c r="A107" s="498"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
@@ -21886,7 +21886,7 @@
       <c r="M107" s="304"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="500"/>
+      <c r="A108" s="498"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
@@ -21915,7 +21915,7 @@
       <c r="M108" s="304"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="500"/>
+      <c r="A109" s="498"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
@@ -21938,7 +21938,7 @@
       <c r="M109" s="304"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="500"/>
+      <c r="A110" s="498"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -21955,7 +21955,7 @@
       <c r="M110" s="304"/>
     </row>
     <row r="111" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="501"/>
+      <c r="A111" s="499"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -21972,7 +21972,7 @@
       <c r="M111" s="307"/>
     </row>
     <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="499">
+      <c r="A112" s="497">
         <v>21</v>
       </c>
       <c r="B112" s="10" t="s">
@@ -22005,7 +22005,7 @@
       <c r="M112" s="309"/>
     </row>
     <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="500"/>
+      <c r="A113" s="498"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
@@ -22032,7 +22032,7 @@
       <c r="M113" s="304"/>
     </row>
     <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="500"/>
+      <c r="A114" s="498"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -22055,7 +22055,7 @@
       <c r="M114" s="304"/>
     </row>
     <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="500"/>
+      <c r="A115" s="498"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -22074,7 +22074,7 @@
       <c r="M115" s="304"/>
     </row>
     <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="500"/>
+      <c r="A116" s="498"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -22093,7 +22093,7 @@
       <c r="M116" s="304"/>
     </row>
     <row r="117" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="501"/>
+      <c r="A117" s="499"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -22108,7 +22108,7 @@
       <c r="M117" s="307"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="499">
+      <c r="A118" s="497">
         <v>22</v>
       </c>
       <c r="B118" s="10"/>
@@ -22143,7 +22143,7 @@
       <c r="M118" s="309"/>
     </row>
     <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="500"/>
+      <c r="A119" s="498"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
@@ -22170,7 +22170,7 @@
       <c r="M119" s="304"/>
     </row>
     <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="500"/>
+      <c r="A120" s="498"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -22197,7 +22197,7 @@
       <c r="M120" s="304"/>
     </row>
     <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="500"/>
+      <c r="A121" s="498"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -22214,7 +22214,7 @@
       <c r="M121" s="304"/>
     </row>
     <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="500"/>
+      <c r="A122" s="498"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -22237,7 +22237,7 @@
       <c r="M122" s="304"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="501"/>
+      <c r="A123" s="499"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -22254,7 +22254,7 @@
       <c r="M123" s="307"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="499" t="s">
+      <c r="A124" s="497" t="s">
         <v>2343</v>
       </c>
       <c r="B124" s="335" t="s">
@@ -22289,7 +22289,7 @@
       <c r="M124" s="309"/>
     </row>
     <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="500"/>
+      <c r="A125" s="498"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4" t="s">
         <v>431</v>
@@ -22322,7 +22322,7 @@
       <c r="M125" s="304"/>
     </row>
     <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="500"/>
+      <c r="A126" s="498"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4" t="s">
         <v>440</v>
@@ -22349,7 +22349,7 @@
       <c r="M126" s="304"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="500"/>
+      <c r="A127" s="498"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="10"/>
@@ -22366,7 +22366,7 @@
       <c r="M127" s="304"/>
     </row>
     <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="500"/>
+      <c r="A128" s="498"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4" t="s">
         <v>447</v>
@@ -22393,7 +22393,7 @@
       <c r="M128" s="304"/>
     </row>
     <row r="129" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="500"/>
+      <c r="A129" s="498"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -22412,7 +22412,7 @@
       <c r="M129" s="304"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="500"/>
+      <c r="A130" s="498"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -22429,7 +22429,7 @@
       <c r="M130" s="304"/>
     </row>
     <row r="131" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="501"/>
+      <c r="A131" s="499"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -22446,7 +22446,7 @@
       <c r="M131" s="307"/>
     </row>
     <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="499">
+      <c r="A132" s="497">
         <v>25</v>
       </c>
       <c r="B132" s="17" t="s">
@@ -22483,7 +22483,7 @@
       <c r="M132" s="309"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="500"/>
+      <c r="A133" s="498"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4" t="s">
         <v>464</v>
@@ -22514,7 +22514,7 @@
       <c r="M133" s="304"/>
     </row>
     <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="500"/>
+      <c r="A134" s="498"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4" t="s">
         <v>2586</v>
@@ -22539,7 +22539,7 @@
       <c r="M134" s="304"/>
     </row>
     <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="500"/>
+      <c r="A135" s="498"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -22558,7 +22558,7 @@
       <c r="M135" s="304"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="500"/>
+      <c r="A136" s="498"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -22577,7 +22577,7 @@
       <c r="M136" s="304"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="501"/>
+      <c r="A137" s="499"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -22592,7 +22592,7 @@
       <c r="M137" s="307"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="499">
+      <c r="A138" s="497">
         <v>26</v>
       </c>
       <c r="B138" s="10"/>
@@ -22629,7 +22629,7 @@
       </c>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="500"/>
+      <c r="A139" s="498"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -22656,7 +22656,7 @@
       </c>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="500"/>
+      <c r="A140" s="498"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -22679,7 +22679,7 @@
       <c r="M140" s="304"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="500"/>
+      <c r="A141" s="498"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -22700,7 +22700,7 @@
       <c r="M141" s="304"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="500"/>
+      <c r="A142" s="498"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -22719,7 +22719,7 @@
       <c r="M142" s="304"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="501"/>
+      <c r="A143" s="499"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -22738,7 +22738,7 @@
       <c r="M143" s="307"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="499">
+      <c r="A144" s="497">
         <v>27</v>
       </c>
       <c r="B144" s="10"/>
@@ -22771,7 +22771,7 @@
       <c r="M144" s="309"/>
     </row>
     <row r="145" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="500"/>
+      <c r="A145" s="498"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -22798,7 +22798,7 @@
       <c r="M145" s="304"/>
     </row>
     <row r="146" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="500"/>
+      <c r="A146" s="498"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -22823,7 +22823,7 @@
       <c r="M146" s="304"/>
     </row>
     <row r="147" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="500"/>
+      <c r="A147" s="498"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -22844,7 +22844,7 @@
       <c r="M147" s="304"/>
     </row>
     <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="500"/>
+      <c r="A148" s="498"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -22859,7 +22859,7 @@
       <c r="M148" s="304"/>
     </row>
     <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="500"/>
+      <c r="A149" s="498"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -22876,7 +22876,7 @@
       <c r="M149" s="304"/>
     </row>
     <row r="150" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="501"/>
+      <c r="A150" s="499"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -22894,6 +22894,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A58:A66"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A74:A81"/>
     <mergeCell ref="A138:A143"/>
     <mergeCell ref="A144:A150"/>
     <mergeCell ref="A2:A8"/>
@@ -22908,15 +22917,6 @@
     <mergeCell ref="A124:A131"/>
     <mergeCell ref="A112:A117"/>
     <mergeCell ref="A38:A44"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A58:A66"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="A74:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23017,7 +23017,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="531">
+      <c r="A2" s="532">
         <v>1</v>
       </c>
       <c r="B2" s="367"/>
@@ -23054,7 +23054,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="529"/>
+      <c r="A3" s="530"/>
       <c r="B3" s="371"/>
       <c r="C3" s="368" t="s">
         <v>2496</v>
@@ -23081,7 +23081,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="529"/>
+      <c r="A4" s="530"/>
       <c r="B4" s="371"/>
       <c r="C4" s="369"/>
       <c r="D4" s="369"/>
@@ -23104,7 +23104,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="529"/>
+      <c r="A5" s="530"/>
       <c r="B5" s="371"/>
       <c r="C5" s="369"/>
       <c r="D5" s="369"/>
@@ -23125,7 +23125,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="529"/>
+      <c r="A6" s="530"/>
       <c r="B6" s="376"/>
       <c r="C6" s="372"/>
       <c r="D6" s="372"/>
@@ -23142,7 +23142,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="530"/>
+      <c r="A7" s="542"/>
       <c r="B7" s="380"/>
       <c r="C7" s="381"/>
       <c r="D7" s="381"/>
@@ -23194,7 +23194,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="529"/>
+      <c r="A9" s="530"/>
       <c r="B9" s="371"/>
       <c r="C9" s="369" t="s">
         <v>1862</v>
@@ -23221,7 +23221,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="529"/>
+      <c r="A10" s="530"/>
       <c r="B10" s="371"/>
       <c r="C10" s="369"/>
       <c r="D10" s="369"/>
@@ -23238,7 +23238,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="529"/>
+      <c r="A11" s="530"/>
       <c r="B11" s="371"/>
       <c r="C11" s="369" t="s">
         <v>1867</v>
@@ -23259,7 +23259,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="530"/>
+      <c r="A12" s="542"/>
       <c r="B12" s="376"/>
       <c r="C12" s="372"/>
       <c r="D12" s="372"/>
@@ -23276,7 +23276,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="532">
+      <c r="A13" s="539">
         <v>3</v>
       </c>
       <c r="B13" s="367"/>
@@ -23305,7 +23305,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="533"/>
+      <c r="A14" s="540"/>
       <c r="B14" s="371"/>
       <c r="C14" s="369"/>
       <c r="D14" s="369"/>
@@ -23332,7 +23332,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="533"/>
+      <c r="A15" s="540"/>
       <c r="B15" s="371"/>
       <c r="C15" s="369"/>
       <c r="D15" s="369"/>
@@ -23353,7 +23353,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="534"/>
+      <c r="A16" s="546"/>
       <c r="B16" s="376"/>
       <c r="C16" s="372"/>
       <c r="D16" s="372"/>
@@ -23370,7 +23370,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="535">
+      <c r="A17" s="534">
         <v>4</v>
       </c>
       <c r="B17" s="388" t="s">
@@ -23405,7 +23405,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="536"/>
+      <c r="A18" s="535"/>
       <c r="B18" s="394" t="s">
         <v>1890</v>
       </c>
@@ -23432,7 +23432,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="536"/>
+      <c r="A19" s="535"/>
       <c r="B19" s="371"/>
       <c r="C19" s="369"/>
       <c r="D19" s="369"/>
@@ -23451,7 +23451,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="537"/>
+      <c r="A20" s="536"/>
       <c r="B20" s="399"/>
       <c r="C20" s="400"/>
       <c r="D20" s="400"/>
@@ -23468,7 +23468,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="531">
+      <c r="A21" s="532">
         <v>5</v>
       </c>
       <c r="B21" s="394"/>
@@ -23503,7 +23503,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="529"/>
+      <c r="A22" s="530"/>
       <c r="B22" s="394"/>
       <c r="C22" s="387"/>
       <c r="D22" s="387"/>
@@ -23526,7 +23526,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="529"/>
+      <c r="A23" s="530"/>
       <c r="B23" s="371"/>
       <c r="C23" s="369"/>
       <c r="D23" s="369"/>
@@ -23547,7 +23547,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="529"/>
+      <c r="A24" s="530"/>
       <c r="B24" s="376"/>
       <c r="C24" s="372"/>
       <c r="D24" s="372"/>
@@ -23566,7 +23566,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="529"/>
+      <c r="A25" s="530"/>
       <c r="B25" s="376"/>
       <c r="C25" s="372"/>
       <c r="D25" s="372"/>
@@ -23585,7 +23585,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="530"/>
+      <c r="A26" s="542"/>
       <c r="B26" s="380"/>
       <c r="C26" s="381"/>
       <c r="D26" s="381"/>
@@ -23635,7 +23635,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="529"/>
+      <c r="A28" s="530"/>
       <c r="B28" s="371"/>
       <c r="C28" s="369"/>
       <c r="D28" s="408"/>
@@ -23660,7 +23660,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="529"/>
+      <c r="A29" s="530"/>
       <c r="B29" s="371"/>
       <c r="C29" s="369"/>
       <c r="D29" s="408"/>
@@ -23681,7 +23681,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="529"/>
+      <c r="A30" s="530"/>
       <c r="B30" s="371"/>
       <c r="C30" s="369"/>
       <c r="D30" s="408"/>
@@ -23702,7 +23702,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="530"/>
+      <c r="A31" s="542"/>
       <c r="B31" s="376"/>
       <c r="C31" s="372"/>
       <c r="D31" s="412"/>
@@ -23721,7 +23721,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="532">
+      <c r="A32" s="539">
         <v>7</v>
       </c>
       <c r="B32" s="368" t="s">
@@ -23758,7 +23758,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="533"/>
+      <c r="A33" s="540"/>
       <c r="B33" s="371"/>
       <c r="C33" s="369"/>
       <c r="D33" s="369" t="s">
@@ -23787,7 +23787,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="533"/>
+      <c r="A34" s="540"/>
       <c r="B34" s="376"/>
       <c r="C34" s="372"/>
       <c r="D34" s="372"/>
@@ -23806,7 +23806,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="533"/>
+      <c r="A35" s="540"/>
       <c r="B35" s="376"/>
       <c r="C35" s="372"/>
       <c r="D35" s="372" t="s">
@@ -23829,7 +23829,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="533"/>
+      <c r="A36" s="540"/>
       <c r="B36" s="376"/>
       <c r="C36" s="372"/>
       <c r="D36" s="372"/>
@@ -23848,7 +23848,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="538"/>
+      <c r="A37" s="541"/>
       <c r="B37" s="376"/>
       <c r="C37" s="372"/>
       <c r="D37" s="372" t="s">
@@ -23900,7 +23900,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="529"/>
+      <c r="A39" s="530"/>
       <c r="B39" s="371"/>
       <c r="C39" s="369"/>
       <c r="D39" s="369" t="s">
@@ -23927,7 +23927,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="529"/>
+      <c r="A40" s="530"/>
       <c r="B40" s="371"/>
       <c r="C40" s="369"/>
       <c r="D40" s="369"/>
@@ -23948,7 +23948,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="529"/>
+      <c r="A41" s="530"/>
       <c r="B41" s="376"/>
       <c r="C41" s="372"/>
       <c r="D41" s="372"/>
@@ -23969,7 +23969,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="530"/>
+      <c r="A42" s="542"/>
       <c r="B42" s="380"/>
       <c r="C42" s="381"/>
       <c r="D42" s="381"/>
@@ -24021,7 +24021,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="529"/>
+      <c r="A44" s="530"/>
       <c r="B44" s="371"/>
       <c r="D44" s="384" t="s">
         <v>1954</v>
@@ -24047,7 +24047,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="529"/>
+      <c r="A45" s="530"/>
       <c r="B45" s="376"/>
       <c r="C45" s="372"/>
       <c r="D45" s="372"/>
@@ -24064,7 +24064,7 @@
       <c r="M45" s="372"/>
     </row>
     <row r="46" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="529"/>
+      <c r="A46" s="530"/>
       <c r="B46" s="376"/>
       <c r="C46" s="372"/>
       <c r="D46" s="372"/>
@@ -24081,7 +24081,7 @@
       <c r="M46" s="372"/>
     </row>
     <row r="47" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="530"/>
+      <c r="A47" s="542"/>
       <c r="B47" s="380"/>
       <c r="C47" s="381"/>
       <c r="D47" s="381"/>
@@ -24129,7 +24129,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="529"/>
+      <c r="A49" s="530"/>
       <c r="B49" s="371"/>
       <c r="C49" s="369"/>
       <c r="D49" s="369"/>
@@ -24152,7 +24152,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="529"/>
+      <c r="A50" s="530"/>
       <c r="B50" s="376"/>
       <c r="C50" s="372"/>
       <c r="D50" s="372"/>
@@ -24173,7 +24173,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="529"/>
+      <c r="A51" s="530"/>
       <c r="B51" s="376"/>
       <c r="C51" s="372"/>
       <c r="D51" s="372"/>
@@ -24190,7 +24190,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="529"/>
+      <c r="A52" s="530"/>
       <c r="B52" s="376"/>
       <c r="C52" s="372"/>
       <c r="D52" s="372"/>
@@ -24211,7 +24211,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="530"/>
+      <c r="A53" s="542"/>
       <c r="B53" s="380"/>
       <c r="C53" s="381"/>
       <c r="D53" s="381"/>
@@ -24267,7 +24267,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="529"/>
+      <c r="A55" s="530"/>
       <c r="B55" s="371"/>
       <c r="C55" s="369"/>
       <c r="D55" s="369" t="s">
@@ -24290,7 +24290,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="529"/>
+      <c r="A56" s="530"/>
       <c r="B56" s="371"/>
       <c r="C56" s="369"/>
       <c r="D56" s="369"/>
@@ -24311,7 +24311,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="529"/>
+      <c r="A57" s="530"/>
       <c r="B57" s="371"/>
       <c r="C57" s="369"/>
       <c r="D57" s="369"/>
@@ -24330,7 +24330,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="530"/>
+      <c r="A58" s="542"/>
       <c r="B58" s="380"/>
       <c r="C58" s="381"/>
       <c r="D58" s="381"/>
@@ -24380,7 +24380,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="529"/>
+      <c r="A60" s="530"/>
       <c r="B60" s="371"/>
       <c r="C60" s="369"/>
       <c r="D60" s="369"/>
@@ -24407,7 +24407,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="529"/>
+      <c r="A61" s="530"/>
       <c r="B61" s="371"/>
       <c r="C61" s="369"/>
       <c r="D61" s="369"/>
@@ -24432,7 +24432,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="529"/>
+      <c r="A62" s="530"/>
       <c r="B62" s="371"/>
       <c r="C62" s="369"/>
       <c r="D62" s="369"/>
@@ -24451,7 +24451,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="529"/>
+      <c r="A63" s="530"/>
       <c r="B63" s="371"/>
       <c r="C63" s="369"/>
       <c r="D63" s="369"/>
@@ -24470,7 +24470,7 @@
       <c r="M63" s="369"/>
     </row>
     <row r="64" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="530"/>
+      <c r="A64" s="542"/>
       <c r="B64" s="380"/>
       <c r="C64" s="381"/>
       <c r="D64" s="381"/>
@@ -24520,7 +24520,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="529"/>
+      <c r="A66" s="530"/>
       <c r="B66" s="371"/>
       <c r="C66" s="373" t="s">
         <v>1995</v>
@@ -24543,7 +24543,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="529"/>
+      <c r="A67" s="530"/>
       <c r="B67" s="371"/>
       <c r="C67" s="369"/>
       <c r="D67" s="369"/>
@@ -24562,7 +24562,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="529"/>
+      <c r="A68" s="530"/>
       <c r="B68" s="376"/>
       <c r="C68" s="372"/>
       <c r="D68" s="372"/>
@@ -24579,7 +24579,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="539"/>
+      <c r="A69" s="533"/>
       <c r="B69" s="380"/>
       <c r="C69" s="381"/>
       <c r="D69" s="381"/>
@@ -24596,7 +24596,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="540">
+      <c r="A70" s="543">
         <v>17</v>
       </c>
       <c r="B70" s="393"/>
@@ -24629,7 +24629,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="541"/>
+      <c r="A71" s="544"/>
       <c r="B71" s="398"/>
       <c r="C71" s="369"/>
       <c r="D71" s="369"/>
@@ -24654,7 +24654,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="541"/>
+      <c r="A72" s="544"/>
       <c r="B72" s="398"/>
       <c r="C72" s="369"/>
       <c r="D72" s="369"/>
@@ -24673,7 +24673,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="541"/>
+      <c r="A73" s="544"/>
       <c r="B73" s="403"/>
       <c r="C73" s="372"/>
       <c r="D73" s="372"/>
@@ -24690,7 +24690,7 @@
       <c r="M73" s="372"/>
     </row>
     <row r="74" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="541"/>
+      <c r="A74" s="544"/>
       <c r="B74" s="403"/>
       <c r="C74" s="372"/>
       <c r="D74" s="372"/>
@@ -24707,7 +24707,7 @@
       <c r="M74" s="372"/>
     </row>
     <row r="75" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="542"/>
+      <c r="A75" s="545"/>
       <c r="B75" s="424"/>
       <c r="C75" s="381"/>
       <c r="D75" s="381"/>
@@ -24724,7 +24724,7 @@
       <c r="M75" s="381"/>
     </row>
     <row r="76" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="531">
+      <c r="A76" s="532">
         <v>18</v>
       </c>
       <c r="B76" s="367"/>
@@ -24757,7 +24757,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="529"/>
+      <c r="A77" s="530"/>
       <c r="B77" s="371"/>
       <c r="C77" s="368" t="s">
         <v>2012</v>
@@ -24782,7 +24782,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="529"/>
+      <c r="A78" s="530"/>
       <c r="B78" s="371"/>
       <c r="C78" s="369"/>
       <c r="D78" s="369"/>
@@ -24803,7 +24803,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="529"/>
+      <c r="A79" s="530"/>
       <c r="B79" s="371"/>
       <c r="C79" s="369"/>
       <c r="D79" s="369"/>
@@ -24822,7 +24822,7 @@
       <c r="M79" s="369"/>
     </row>
     <row r="80" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="529"/>
+      <c r="A80" s="530"/>
       <c r="B80" s="376"/>
       <c r="C80" s="372"/>
       <c r="D80" s="372"/>
@@ -24839,7 +24839,7 @@
       <c r="M80" s="372"/>
     </row>
     <row r="81" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="530"/>
+      <c r="A81" s="542"/>
       <c r="B81" s="380"/>
       <c r="C81" s="381"/>
       <c r="D81" s="381"/>
@@ -24891,7 +24891,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="529"/>
+      <c r="A83" s="530"/>
       <c r="B83" s="371"/>
       <c r="C83" s="369"/>
       <c r="D83" s="369" t="s">
@@ -24918,7 +24918,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="529"/>
+      <c r="A84" s="530"/>
       <c r="B84" s="371"/>
       <c r="C84" s="369"/>
       <c r="D84" s="369" t="s">
@@ -24943,7 +24943,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="529"/>
+      <c r="A85" s="530"/>
       <c r="B85" s="371"/>
       <c r="C85" s="369"/>
       <c r="D85" s="369" t="s">
@@ -24964,7 +24964,7 @@
       <c r="M85" s="369"/>
     </row>
     <row r="86" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="529"/>
+      <c r="A86" s="530"/>
       <c r="B86" s="376"/>
       <c r="C86" s="372"/>
       <c r="D86" s="372" t="s">
@@ -24983,7 +24983,7 @@
       <c r="M86" s="372"/>
     </row>
     <row r="87" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="530"/>
+      <c r="A87" s="542"/>
       <c r="B87" s="380"/>
       <c r="C87" s="381"/>
       <c r="D87" s="381" t="s">
@@ -25035,7 +25035,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="529"/>
+      <c r="A89" s="530"/>
       <c r="B89" s="371"/>
       <c r="C89" s="369"/>
       <c r="D89" s="369"/>
@@ -25060,7 +25060,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="529"/>
+      <c r="A90" s="530"/>
       <c r="B90" s="371"/>
       <c r="C90" s="369"/>
       <c r="D90" s="369"/>
@@ -25079,7 +25079,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="529"/>
+      <c r="A91" s="530"/>
       <c r="B91" s="371"/>
       <c r="C91" s="369"/>
       <c r="D91" s="369"/>
@@ -25096,7 +25096,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="529"/>
+      <c r="A92" s="530"/>
       <c r="B92" s="371"/>
       <c r="C92" s="369"/>
       <c r="D92" s="369"/>
@@ -25115,7 +25115,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="529"/>
+      <c r="A93" s="530"/>
       <c r="B93" s="376"/>
       <c r="C93" s="372"/>
       <c r="D93" s="372"/>
@@ -25132,7 +25132,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="539"/>
+      <c r="A94" s="533"/>
       <c r="B94" s="376"/>
       <c r="C94" s="372"/>
       <c r="D94" s="372"/>
@@ -25151,7 +25151,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="535">
+      <c r="A95" s="534">
         <v>22</v>
       </c>
       <c r="B95" s="388"/>
@@ -25186,7 +25186,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="536"/>
+      <c r="A96" s="535"/>
       <c r="B96" s="371"/>
       <c r="C96" s="369"/>
       <c r="D96" s="369"/>
@@ -25213,7 +25213,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="536"/>
+      <c r="A97" s="535"/>
       <c r="B97" s="371"/>
       <c r="C97" s="369"/>
       <c r="D97" s="369"/>
@@ -25240,7 +25240,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="536"/>
+      <c r="A98" s="535"/>
       <c r="B98" s="371"/>
       <c r="C98" s="369"/>
       <c r="D98" s="369"/>
@@ -25263,7 +25263,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="537"/>
+      <c r="A99" s="536"/>
       <c r="B99" s="399"/>
       <c r="C99" s="400"/>
       <c r="D99" s="400"/>
@@ -25282,7 +25282,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="531">
+      <c r="A100" s="532">
         <v>23</v>
       </c>
       <c r="B100" s="394"/>
@@ -25317,7 +25317,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="529"/>
+      <c r="A101" s="530"/>
       <c r="B101" s="371"/>
       <c r="C101" s="373" t="s">
         <v>2059</v>
@@ -25342,7 +25342,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="529"/>
+      <c r="A102" s="530"/>
       <c r="B102" s="371"/>
       <c r="C102" s="369"/>
       <c r="D102" s="369"/>
@@ -25365,7 +25365,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="529"/>
+      <c r="A103" s="530"/>
       <c r="B103" s="371"/>
       <c r="C103" s="369"/>
       <c r="D103" s="369"/>
@@ -25384,7 +25384,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="539"/>
+      <c r="A104" s="533"/>
       <c r="B104" s="376"/>
       <c r="C104" s="372"/>
       <c r="D104" s="372"/>
@@ -25401,7 +25401,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="535">
+      <c r="A105" s="534">
         <v>28</v>
       </c>
       <c r="B105" s="388"/>
@@ -25432,7 +25432,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="536"/>
+      <c r="A106" s="535"/>
       <c r="B106" s="394"/>
       <c r="C106" s="387"/>
       <c r="D106" s="387"/>
@@ -25457,7 +25457,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="536"/>
+      <c r="A107" s="535"/>
       <c r="B107" s="394"/>
       <c r="C107" s="387"/>
       <c r="D107" s="387"/>
@@ -25478,7 +25478,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="536"/>
+      <c r="A108" s="535"/>
       <c r="B108" s="371"/>
       <c r="C108" s="369"/>
       <c r="D108" s="369"/>
@@ -25495,7 +25495,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="537"/>
+      <c r="A109" s="536"/>
       <c r="B109" s="399"/>
       <c r="C109" s="400"/>
       <c r="D109" s="400"/>
@@ -25510,7 +25510,7 @@
       <c r="M109" s="372"/>
     </row>
     <row r="110" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="535">
+      <c r="A110" s="534">
         <v>29</v>
       </c>
       <c r="B110" s="428" t="s">
@@ -25541,7 +25541,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="544"/>
+      <c r="A111" s="537"/>
       <c r="B111" s="433" t="s">
         <v>2564</v>
       </c>
@@ -25566,7 +25566,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="545"/>
+      <c r="A112" s="538"/>
       <c r="B112" s="434"/>
       <c r="C112" s="400"/>
       <c r="D112" s="435" t="s">
@@ -25585,7 +25585,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="535">
+      <c r="A113" s="534">
         <v>30</v>
       </c>
       <c r="B113" s="437"/>
@@ -25616,7 +25616,7 @@
       </c>
     </row>
     <row r="114" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="544"/>
+      <c r="A114" s="537"/>
       <c r="B114" s="398"/>
       <c r="C114" s="473" t="s">
         <v>2100</v>
@@ -25637,7 +25637,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="545"/>
+      <c r="A115" s="538"/>
       <c r="B115" s="434"/>
       <c r="C115" s="400"/>
       <c r="D115" s="400"/>
@@ -25727,7 +25727,7 @@
       </c>
     </row>
     <row r="119" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="543"/>
+      <c r="A119" s="529"/>
       <c r="B119" s="398"/>
       <c r="C119" s="369"/>
       <c r="D119" s="369"/>
@@ -25746,7 +25746,7 @@
       </c>
     </row>
     <row r="120" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="543"/>
+      <c r="A120" s="529"/>
       <c r="B120" s="398"/>
       <c r="C120" s="369"/>
       <c r="D120" s="369"/>
@@ -25763,7 +25763,7 @@
       </c>
     </row>
     <row r="121" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="546"/>
+      <c r="A121" s="531"/>
       <c r="B121" s="424"/>
       <c r="C121" s="381"/>
       <c r="D121" s="381"/>
@@ -25809,7 +25809,7 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="543"/>
+      <c r="A123" s="529"/>
       <c r="B123" s="398"/>
       <c r="C123" s="369"/>
       <c r="D123" s="482" t="s">
@@ -25830,7 +25830,7 @@
       <c r="M123" s="369"/>
     </row>
     <row r="124" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="543"/>
+      <c r="A124" s="529"/>
       <c r="B124" s="398"/>
       <c r="C124" s="369"/>
       <c r="D124" s="369"/>
@@ -25847,7 +25847,7 @@
       <c r="M124" s="369"/>
     </row>
     <row r="125" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="543"/>
+      <c r="A125" s="529"/>
       <c r="B125" s="398"/>
       <c r="C125" s="369"/>
       <c r="D125" s="369"/>
@@ -25864,7 +25864,7 @@
       <c r="M125" s="369"/>
     </row>
     <row r="126" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="543"/>
+      <c r="A126" s="529"/>
       <c r="B126" s="398"/>
       <c r="C126" s="369"/>
       <c r="D126" s="369"/>
@@ -25881,7 +25881,7 @@
       <c r="M126" s="369"/>
     </row>
     <row r="127" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="546"/>
+      <c r="A127" s="531"/>
       <c r="B127" s="424"/>
       <c r="C127" s="381"/>
       <c r="D127" s="381"/>
@@ -25944,7 +25944,7 @@
       <c r="M129" s="387"/>
     </row>
     <row r="130" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="546"/>
+      <c r="A130" s="531"/>
       <c r="B130" s="424"/>
       <c r="C130" s="381"/>
       <c r="D130" s="381"/>
@@ -26003,7 +26003,7 @@
       </c>
     </row>
     <row r="133" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="543"/>
+      <c r="A133" s="529"/>
       <c r="B133" s="398"/>
       <c r="C133" s="369"/>
       <c r="D133" s="369"/>
@@ -26020,7 +26020,7 @@
       </c>
     </row>
     <row r="134" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="543"/>
+      <c r="A134" s="529"/>
       <c r="B134" s="398"/>
       <c r="C134" s="369"/>
       <c r="D134" s="369"/>
@@ -26037,7 +26037,7 @@
       </c>
     </row>
     <row r="135" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="546"/>
+      <c r="A135" s="531"/>
       <c r="B135" s="424"/>
       <c r="C135" s="381"/>
       <c r="D135" s="381"/>
@@ -26190,7 +26190,7 @@
       </c>
     </row>
     <row r="142" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="546"/>
+      <c r="A142" s="531"/>
       <c r="B142" s="424"/>
       <c r="C142" s="381"/>
       <c r="D142" s="446" t="s">
@@ -26259,7 +26259,7 @@
       </c>
     </row>
     <row r="145" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="543"/>
+      <c r="A145" s="529"/>
       <c r="B145" s="398"/>
       <c r="C145" s="369"/>
       <c r="D145" s="369"/>
@@ -26278,7 +26278,7 @@
       </c>
     </row>
     <row r="146" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="543"/>
+      <c r="A146" s="529"/>
       <c r="B146" s="398"/>
       <c r="C146" s="369"/>
       <c r="D146" s="369"/>
@@ -26297,7 +26297,7 @@
       </c>
     </row>
     <row r="147" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="543"/>
+      <c r="A147" s="529"/>
       <c r="B147" s="398"/>
       <c r="C147" s="369"/>
       <c r="D147" s="369"/>
@@ -26316,7 +26316,7 @@
       </c>
     </row>
     <row r="148" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="543"/>
+      <c r="A148" s="529"/>
       <c r="B148" s="398"/>
       <c r="C148" s="369"/>
       <c r="D148" s="369"/>
@@ -26335,7 +26335,7 @@
       </c>
     </row>
     <row r="149" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="543"/>
+      <c r="A149" s="529"/>
       <c r="B149" s="398"/>
       <c r="C149" s="369"/>
       <c r="D149" s="369"/>
@@ -26352,7 +26352,7 @@
       </c>
     </row>
     <row r="150" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="546"/>
+      <c r="A150" s="531"/>
       <c r="B150" s="424"/>
       <c r="C150" s="381"/>
       <c r="D150" s="381"/>
@@ -26423,7 +26423,7 @@
       </c>
     </row>
     <row r="153" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="543"/>
+      <c r="A153" s="529"/>
       <c r="B153" s="398"/>
       <c r="C153" s="369"/>
       <c r="D153" s="168" t="s">
@@ -26446,7 +26446,7 @@
       </c>
     </row>
     <row r="154" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="546"/>
+      <c r="A154" s="531"/>
       <c r="B154" s="424"/>
       <c r="C154" s="381"/>
       <c r="D154" s="462" t="s">
@@ -26528,7 +26528,7 @@
       </c>
     </row>
     <row r="158" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="543"/>
+      <c r="A158" s="529"/>
       <c r="B158" s="398"/>
       <c r="C158" s="369"/>
       <c r="D158" s="369"/>
@@ -26549,7 +26549,7 @@
       </c>
     </row>
     <row r="159" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="543"/>
+      <c r="A159" s="529"/>
       <c r="B159" s="398"/>
       <c r="C159" s="369"/>
       <c r="D159" s="369"/>
@@ -26568,7 +26568,7 @@
       </c>
     </row>
     <row r="160" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="543"/>
+      <c r="A160" s="529"/>
       <c r="B160" s="398"/>
       <c r="C160" s="369"/>
       <c r="D160" s="369"/>
@@ -26585,7 +26585,7 @@
       </c>
     </row>
     <row r="161" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="543"/>
+      <c r="A161" s="529"/>
       <c r="B161" s="398"/>
       <c r="C161" s="369"/>
       <c r="D161" s="369"/>
@@ -26602,7 +26602,7 @@
       </c>
     </row>
     <row r="162" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="543"/>
+      <c r="A162" s="529"/>
       <c r="B162" s="398"/>
       <c r="C162" s="369"/>
       <c r="D162" s="369"/>
@@ -26619,7 +26619,7 @@
       </c>
     </row>
     <row r="163" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="543"/>
+      <c r="A163" s="529"/>
       <c r="B163" s="424"/>
       <c r="C163" s="381"/>
       <c r="D163" s="381"/>
@@ -26667,7 +26667,7 @@
       </c>
     </row>
     <row r="165" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="543"/>
+      <c r="A165" s="529"/>
       <c r="B165" s="463" t="s">
         <v>2212</v>
       </c>
@@ -26692,7 +26692,7 @@
       </c>
     </row>
     <row r="166" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="543"/>
+      <c r="A166" s="529"/>
       <c r="B166" s="398"/>
       <c r="C166" s="369"/>
       <c r="D166" s="369"/>
@@ -26713,7 +26713,7 @@
       </c>
     </row>
     <row r="167" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="543"/>
+      <c r="A167" s="529"/>
       <c r="B167" s="398"/>
       <c r="C167" s="369"/>
       <c r="D167" s="369"/>
@@ -26732,7 +26732,7 @@
       </c>
     </row>
     <row r="168" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="543"/>
+      <c r="A168" s="529"/>
       <c r="B168" s="398"/>
       <c r="C168" s="369"/>
       <c r="D168" s="369"/>
@@ -26772,7 +26772,7 @@
       <c r="M169" s="454"/>
     </row>
     <row r="170" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="529">
+      <c r="A170" s="530">
         <v>82</v>
       </c>
       <c r="B170" s="396"/>
@@ -26799,7 +26799,7 @@
       <c r="M170" s="387"/>
     </row>
     <row r="171" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="543"/>
+      <c r="A171" s="529"/>
       <c r="B171" s="398"/>
       <c r="C171" s="369"/>
       <c r="D171" s="369"/>
@@ -26818,7 +26818,7 @@
       <c r="M171" s="369"/>
     </row>
     <row r="172" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="543"/>
+      <c r="A172" s="529"/>
       <c r="B172" s="398"/>
       <c r="C172" s="369"/>
       <c r="D172" s="369"/>
@@ -26919,7 +26919,7 @@
       <c r="M176" s="387"/>
     </row>
     <row r="177" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="543"/>
+      <c r="A177" s="529"/>
       <c r="B177" s="462" t="s">
         <v>2239</v>
       </c>
@@ -26969,7 +26969,7 @@
       </c>
     </row>
     <row r="179" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="543"/>
+      <c r="A179" s="529"/>
       <c r="B179" s="398"/>
       <c r="C179" s="369"/>
       <c r="D179" s="369"/>
@@ -26990,7 +26990,7 @@
       </c>
     </row>
     <row r="180" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="543"/>
+      <c r="A180" s="529"/>
       <c r="B180" s="398"/>
       <c r="C180" s="369"/>
       <c r="D180" s="369"/>
@@ -27009,7 +27009,7 @@
       </c>
     </row>
     <row r="181" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="543"/>
+      <c r="A181" s="529"/>
       <c r="B181" s="398"/>
       <c r="C181" s="369"/>
       <c r="D181" s="369"/>
@@ -27026,7 +27026,7 @@
       <c r="M181" s="369"/>
     </row>
     <row r="182" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="543"/>
+      <c r="A182" s="529"/>
       <c r="B182" s="398"/>
       <c r="C182" s="369"/>
       <c r="D182" s="369"/>
@@ -27043,7 +27043,7 @@
       <c r="M182" s="369"/>
     </row>
     <row r="183" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="543"/>
+      <c r="A183" s="529"/>
       <c r="B183" s="398"/>
       <c r="C183" s="369"/>
       <c r="D183" s="369"/>
@@ -27060,7 +27060,7 @@
       <c r="M183" s="369"/>
     </row>
     <row r="184" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="546"/>
+      <c r="A184" s="531"/>
       <c r="B184" s="398"/>
       <c r="C184" s="369"/>
       <c r="D184" s="369"/>
@@ -27100,7 +27100,7 @@
       <c r="M185" s="454"/>
     </row>
     <row r="186" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="529">
+      <c r="A186" s="530">
         <v>94</v>
       </c>
       <c r="B186" s="396"/>
@@ -27119,7 +27119,7 @@
       <c r="M186" s="387"/>
     </row>
     <row r="187" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="546"/>
+      <c r="A187" s="531"/>
       <c r="B187" s="424"/>
       <c r="C187" s="381"/>
       <c r="D187" s="381"/>
@@ -27159,7 +27159,7 @@
       <c r="M188" s="387"/>
     </row>
     <row r="189" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="546"/>
+      <c r="A189" s="531"/>
       <c r="B189" s="465" t="s">
         <v>2262</v>
       </c>
@@ -27226,7 +27226,7 @@
       </c>
     </row>
     <row r="192" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="543"/>
+      <c r="A192" s="529"/>
       <c r="B192" s="398"/>
       <c r="C192" s="369"/>
       <c r="D192" s="369"/>
@@ -27249,7 +27249,7 @@
       </c>
     </row>
     <row r="193" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="543"/>
+      <c r="A193" s="529"/>
       <c r="B193" s="398"/>
       <c r="C193" s="369"/>
       <c r="D193" s="369"/>
@@ -27266,7 +27266,7 @@
       <c r="M193" s="369"/>
     </row>
     <row r="194" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="543"/>
+      <c r="A194" s="529"/>
       <c r="B194" s="398"/>
       <c r="C194" s="369"/>
       <c r="D194" s="369"/>
@@ -27354,7 +27354,7 @@
       </c>
     </row>
     <row r="198" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="543"/>
+      <c r="A198" s="529"/>
       <c r="B198" s="398"/>
       <c r="C198" s="369"/>
       <c r="D198" s="487" t="s">
@@ -27480,7 +27480,7 @@
       </c>
     </row>
     <row r="204" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="543"/>
+      <c r="A204" s="529"/>
       <c r="B204" s="398"/>
       <c r="C204" s="369"/>
       <c r="D204" s="369"/>
@@ -27499,7 +27499,7 @@
       </c>
     </row>
     <row r="205" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="543"/>
+      <c r="A205" s="529"/>
       <c r="B205" s="398"/>
       <c r="C205" s="369"/>
       <c r="D205" s="369"/>
@@ -27516,7 +27516,7 @@
       <c r="M205" s="369"/>
     </row>
     <row r="206" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="543"/>
+      <c r="A206" s="529"/>
       <c r="B206" s="398"/>
       <c r="C206" s="369"/>
       <c r="D206" s="369"/>
@@ -27533,7 +27533,7 @@
       <c r="M206" s="369"/>
     </row>
     <row r="207" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="543"/>
+      <c r="A207" s="529"/>
       <c r="B207" s="398"/>
       <c r="C207" s="369"/>
       <c r="D207" s="369"/>
@@ -27550,7 +27550,7 @@
       <c r="M207" s="369"/>
     </row>
     <row r="208" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="543"/>
+      <c r="A208" s="529"/>
       <c r="B208" s="398"/>
       <c r="C208" s="369"/>
       <c r="D208" s="369"/>
@@ -27567,7 +27567,7 @@
       <c r="M208" s="369"/>
     </row>
     <row r="209" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="543"/>
+      <c r="A209" s="529"/>
       <c r="B209" s="398"/>
       <c r="C209" s="369"/>
       <c r="D209" s="369"/>
@@ -27584,7 +27584,7 @@
       <c r="M209" s="369"/>
     </row>
     <row r="210" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="543"/>
+      <c r="A210" s="529"/>
       <c r="B210" s="424"/>
       <c r="C210" s="381"/>
       <c r="D210" s="381"/>
@@ -27632,7 +27632,7 @@
       </c>
     </row>
     <row r="212" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="543"/>
+      <c r="A212" s="529"/>
       <c r="B212" s="398"/>
       <c r="C212" s="369"/>
       <c r="D212" s="369"/>
@@ -27655,7 +27655,7 @@
       </c>
     </row>
     <row r="213" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="543"/>
+      <c r="A213" s="529"/>
       <c r="B213" s="398"/>
       <c r="C213" s="369"/>
       <c r="D213" s="369"/>
@@ -27676,7 +27676,7 @@
       </c>
     </row>
     <row r="214" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="543"/>
+      <c r="A214" s="529"/>
       <c r="B214" s="398"/>
       <c r="C214" s="369"/>
       <c r="D214" s="369"/>
@@ -27751,16 +27751,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A191:A194"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A203:A210"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A178:A184"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A95:A99"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A88:A94"/>
     <mergeCell ref="A157:A163"/>
     <mergeCell ref="A100:A104"/>
     <mergeCell ref="A105:A109"/>
@@ -27773,24 +27781,16 @@
     <mergeCell ref="A141:A142"/>
     <mergeCell ref="A144:A150"/>
     <mergeCell ref="A152:A154"/>
-    <mergeCell ref="A95:A99"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A191:A194"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A203:A210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A178:A184"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27905,7 +27905,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27963,7 +27963,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="503">
+      <c r="A2" s="506">
         <v>1</v>
       </c>
       <c r="B2" s="177" t="s">
@@ -28000,7 +28000,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="506"/>
+      <c r="A3" s="507"/>
       <c r="B3" s="184" t="s">
         <v>640</v>
       </c>
@@ -28029,7 +28029,7 @@
       <c r="M3" s="164"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="506"/>
+      <c r="A4" s="507"/>
       <c r="B4" s="189" t="s">
         <v>2610</v>
       </c>
@@ -28052,7 +28052,7 @@
       <c r="M4" s="164"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="506"/>
+      <c r="A5" s="507"/>
       <c r="B5" s="184" t="s">
         <v>651</v>
       </c>
@@ -28071,7 +28071,7 @@
       <c r="M5" s="167"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="506"/>
+      <c r="A6" s="507"/>
       <c r="B6" s="192" t="s">
         <v>653</v>
       </c>
@@ -28088,7 +28088,7 @@
       <c r="M6" s="167"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="506"/>
+      <c r="A7" s="507"/>
       <c r="B7" s="189" t="s">
         <v>2613</v>
       </c>
@@ -28105,7 +28105,7 @@
       <c r="M7" s="167"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="507"/>
+      <c r="A8" s="508"/>
       <c r="B8" s="193" t="s">
         <v>2611</v>
       </c>
@@ -28122,7 +28122,7 @@
       <c r="M8" s="194"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="503">
+      <c r="A9" s="506">
         <v>2</v>
       </c>
       <c r="B9" s="195" t="s">
@@ -28287,7 +28287,7 @@
       <c r="M15" s="205"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="503">
+      <c r="A16" s="506">
         <v>3</v>
       </c>
       <c r="B16" s="184" t="s">
@@ -28520,7 +28520,7 @@
       <c r="M26" s="218"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="503">
+      <c r="A27" s="506">
         <v>4</v>
       </c>
       <c r="B27" s="221" t="s">
@@ -28647,7 +28647,7 @@
       <c r="M31" s="167"/>
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="503">
+      <c r="A32" s="506">
         <v>5</v>
       </c>
       <c r="B32" s="224" t="s">
@@ -28797,7 +28797,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="503">
+      <c r="A38" s="506">
         <v>6</v>
       </c>
       <c r="B38" s="236" t="s">
@@ -28918,7 +28918,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="503">
+      <c r="A43" s="506">
         <v>7</v>
       </c>
       <c r="B43" s="242" t="s">
@@ -29055,7 +29055,7 @@
       <c r="M47" s="218"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="503">
+      <c r="A48" s="506">
         <v>8</v>
       </c>
       <c r="B48" s="224" t="s">
@@ -29178,7 +29178,7 @@
       <c r="M52" s="257"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="503">
+      <c r="A53" s="506">
         <v>9</v>
       </c>
       <c r="B53" s="259" t="s">
@@ -29282,7 +29282,7 @@
       <c r="M56" s="218"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="503">
+      <c r="A57" s="506">
         <v>10</v>
       </c>
       <c r="B57" s="184" t="s">
@@ -29388,7 +29388,7 @@
       <c r="M60" s="218"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="503">
+      <c r="A61" s="506">
         <v>11</v>
       </c>
       <c r="B61" s="267" t="s">
@@ -29519,7 +29519,7 @@
       <c r="M65" s="218"/>
     </row>
     <row r="66" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="508">
+      <c r="A66" s="503">
         <v>12</v>
       </c>
       <c r="B66" s="272" t="s">
@@ -29631,7 +29631,7 @@
       <c r="M69" s="218"/>
     </row>
     <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="508">
+      <c r="A70" s="503">
         <v>13</v>
       </c>
       <c r="B70" s="276" t="s">
@@ -29777,7 +29777,7 @@
       <c r="M75" s="218"/>
     </row>
     <row r="76" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="508">
+      <c r="A76" s="503">
         <v>14</v>
       </c>
       <c r="B76" s="177" t="s">
@@ -29912,7 +29912,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="508">
+      <c r="A81" s="503">
         <v>15</v>
       </c>
       <c r="B81" s="278" t="s">
@@ -30016,7 +30016,7 @@
       <c r="M84" s="217"/>
     </row>
     <row r="85" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="508">
+      <c r="A85" s="503">
         <v>16</v>
       </c>
       <c r="B85" s="280"/>
@@ -30129,7 +30129,7 @@
       <c r="M89" s="218"/>
     </row>
     <row r="90" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="508">
+      <c r="A90" s="503">
         <v>17</v>
       </c>
       <c r="B90" s="281" t="s">
@@ -30227,7 +30227,7 @@
       <c r="M93" s="218"/>
     </row>
     <row r="94" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="508">
+      <c r="A94" s="503">
         <v>18</v>
       </c>
       <c r="B94" s="278" t="s">
@@ -30342,7 +30342,7 @@
       <c r="M98" s="218"/>
     </row>
     <row r="99" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="508">
+      <c r="A99" s="503">
         <v>19</v>
       </c>
       <c r="B99" s="278" t="s">
@@ -30451,6 +30451,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A89"/>
     <mergeCell ref="A99:A102"/>
     <mergeCell ref="A70:A75"/>
     <mergeCell ref="A94:A98"/>
@@ -30460,16 +30470,6 @@
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="A61:A65"/>
     <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A26"/>
-    <mergeCell ref="A32:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30597,7 +30597,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="509">
+      <c r="A2" s="512">
         <v>3</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -30639,7 +30639,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="510"/>
+      <c r="A3" s="513"/>
       <c r="B3" s="65" t="s">
         <v>1076</v>
       </c>
@@ -30677,7 +30677,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="510"/>
+      <c r="A4" s="513"/>
       <c r="B4" s="65"/>
       <c r="C4" s="66"/>
       <c r="D4" s="66" t="s">
@@ -30705,7 +30705,7 @@
       <c r="N4" s="66"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="510"/>
+      <c r="A5" s="513"/>
       <c r="B5" s="65"/>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
@@ -30725,7 +30725,7 @@
       <c r="N5" s="66"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="510"/>
+      <c r="A6" s="513"/>
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
       <c r="D6" s="66"/>
@@ -30745,7 +30745,7 @@
       <c r="N6" s="66"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="511"/>
+      <c r="A7" s="514"/>
       <c r="B7" s="71"/>
       <c r="C7" s="72"/>
       <c r="D7" s="72"/>
@@ -30763,7 +30763,7 @@
       <c r="N7" s="72"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="509">
+      <c r="A8" s="512">
         <v>4</v>
       </c>
       <c r="B8" s="73" t="s">
@@ -30797,7 +30797,7 @@
       <c r="N8" s="75"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="510"/>
+      <c r="A9" s="513"/>
       <c r="B9" s="78" t="s">
         <v>1105</v>
       </c>
@@ -30827,7 +30827,7 @@
       <c r="N9" s="66"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="510"/>
+      <c r="A10" s="513"/>
       <c r="B10" s="65" t="s">
         <v>1112</v>
       </c>
@@ -30849,7 +30849,7 @@
       <c r="N10" s="76"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="510"/>
+      <c r="A11" s="513"/>
       <c r="B11" s="65"/>
       <c r="C11" s="66"/>
       <c r="D11" s="66"/>
@@ -30867,7 +30867,7 @@
       <c r="N11" s="66"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="510"/>
+      <c r="A12" s="513"/>
       <c r="B12" s="65"/>
       <c r="C12" s="66"/>
       <c r="D12" s="66"/>
@@ -30885,7 +30885,7 @@
       <c r="N12" s="66"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="510"/>
+      <c r="A13" s="513"/>
       <c r="B13" s="70"/>
       <c r="C13" s="81"/>
       <c r="D13" s="66"/>
@@ -30903,7 +30903,7 @@
       <c r="N13" s="66"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="511"/>
+      <c r="A14" s="514"/>
       <c r="B14" s="71"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72"/>
@@ -30921,7 +30921,7 @@
       <c r="N14" s="72"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="509">
+      <c r="A15" s="512">
         <v>5</v>
       </c>
       <c r="B15" s="84" t="s">
@@ -30961,7 +30961,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="510"/>
+      <c r="A16" s="513"/>
       <c r="B16" s="65" t="s">
         <v>1129</v>
       </c>
@@ -30997,7 +30997,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="510"/>
+      <c r="A17" s="513"/>
       <c r="B17" s="85" t="s">
         <v>1139</v>
       </c>
@@ -31027,7 +31027,7 @@
       <c r="N17" s="66"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="510"/>
+      <c r="A18" s="513"/>
       <c r="B18" s="65"/>
       <c r="C18" s="66"/>
       <c r="D18" s="66"/>
@@ -31047,7 +31047,7 @@
       <c r="N18" s="66"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="510"/>
+      <c r="A19" s="513"/>
       <c r="B19" s="65"/>
       <c r="C19" s="66"/>
       <c r="D19" s="66"/>
@@ -31067,7 +31067,7 @@
       <c r="N19" s="66"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="510"/>
+      <c r="A20" s="513"/>
       <c r="B20" s="65"/>
       <c r="C20" s="66"/>
       <c r="D20" s="66"/>
@@ -31085,7 +31085,7 @@
       <c r="N20" s="66"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="510"/>
+      <c r="A21" s="513"/>
       <c r="B21" s="65"/>
       <c r="C21" s="66"/>
       <c r="D21" s="66"/>
@@ -31103,7 +31103,7 @@
       <c r="N21" s="66"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="510"/>
+      <c r="A22" s="513"/>
       <c r="B22" s="65"/>
       <c r="C22" s="66"/>
       <c r="D22" s="66"/>
@@ -31121,7 +31121,7 @@
       <c r="N22" s="66"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="510"/>
+      <c r="A23" s="513"/>
       <c r="B23" s="65"/>
       <c r="C23" s="66"/>
       <c r="D23" s="66"/>
@@ -31139,7 +31139,7 @@
       <c r="N23" s="66"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="511"/>
+      <c r="A24" s="514"/>
       <c r="B24" s="71"/>
       <c r="C24" s="72"/>
       <c r="D24" s="72"/>
@@ -31157,7 +31157,7 @@
       <c r="N24" s="72"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="512">
+      <c r="A25" s="509">
         <v>6</v>
       </c>
       <c r="B25" s="75" t="s">
@@ -31195,7 +31195,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="513"/>
+      <c r="A26" s="510"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66"/>
       <c r="D26" s="69" t="s">
@@ -31221,7 +31221,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="513"/>
+      <c r="A27" s="510"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
       <c r="D27" s="66" t="s">
@@ -31245,7 +31245,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="513"/>
+      <c r="A28" s="510"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
       <c r="D28" s="66"/>
@@ -31267,7 +31267,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="513"/>
+      <c r="A29" s="510"/>
       <c r="B29" s="66"/>
       <c r="C29" s="66"/>
       <c r="D29" s="66"/>
@@ -31289,7 +31289,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="513"/>
+      <c r="A30" s="510"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
       <c r="D30" s="66"/>
@@ -31307,7 +31307,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="514"/>
+      <c r="A31" s="511"/>
       <c r="B31" s="72"/>
       <c r="C31" s="72"/>
       <c r="D31" s="72"/>
@@ -31325,7 +31325,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="509" t="s">
+      <c r="A32" s="512" t="s">
         <v>2344</v>
       </c>
       <c r="B32" s="73" t="s">
@@ -31369,7 +31369,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="510"/>
+      <c r="A33" s="513"/>
       <c r="B33" s="65" t="s">
         <v>1188</v>
       </c>
@@ -31405,7 +31405,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="510"/>
+      <c r="A34" s="513"/>
       <c r="B34" s="74" t="s">
         <v>1197</v>
       </c>
@@ -31437,7 +31437,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="510"/>
+      <c r="A35" s="513"/>
       <c r="B35" s="90" t="s">
         <v>1204</v>
       </c>
@@ -31465,7 +31465,7 @@
       <c r="N35" s="66"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="510"/>
+      <c r="A36" s="513"/>
       <c r="B36" s="74"/>
       <c r="C36" s="66"/>
       <c r="D36" s="67" t="s">
@@ -31487,7 +31487,7 @@
       <c r="N36" s="66"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="510"/>
+      <c r="A37" s="513"/>
       <c r="B37" s="65"/>
       <c r="C37" s="66"/>
       <c r="D37" s="66"/>
@@ -31507,7 +31507,7 @@
       <c r="N37" s="66"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="510"/>
+      <c r="A38" s="513"/>
       <c r="B38" s="65"/>
       <c r="C38" s="66"/>
       <c r="D38" s="66"/>
@@ -31527,7 +31527,7 @@
       <c r="N38" s="66"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="510"/>
+      <c r="A39" s="513"/>
       <c r="B39" s="65"/>
       <c r="C39" s="66"/>
       <c r="D39" s="66"/>
@@ -31545,7 +31545,7 @@
       <c r="N39" s="66"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="511"/>
+      <c r="A40" s="514"/>
       <c r="B40" s="71"/>
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
@@ -31563,7 +31563,7 @@
       <c r="N40" s="72"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="509">
+      <c r="A41" s="512">
         <v>8</v>
       </c>
       <c r="B41" s="73" t="s">
@@ -31603,7 +31603,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="510"/>
+      <c r="A42" s="513"/>
       <c r="B42" s="65"/>
       <c r="C42" s="79" t="s">
         <v>1228</v>
@@ -31635,7 +31635,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="510"/>
+      <c r="A43" s="513"/>
       <c r="B43" s="65"/>
       <c r="C43" s="66" t="s">
         <v>1236</v>
@@ -31665,7 +31665,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="510"/>
+      <c r="A44" s="513"/>
       <c r="B44" s="65"/>
       <c r="C44" s="66"/>
       <c r="D44" s="66" t="s">
@@ -31689,7 +31689,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="511"/>
+      <c r="A45" s="514"/>
       <c r="B45" s="71"/>
       <c r="C45" s="92"/>
       <c r="D45" s="72" t="s">
@@ -31707,7 +31707,7 @@
       <c r="N45" s="72"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="509">
+      <c r="A46" s="512">
         <v>9</v>
       </c>
       <c r="B46" s="73" t="s">
@@ -31743,7 +31743,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="510"/>
+      <c r="A47" s="513"/>
       <c r="B47" s="74" t="s">
         <v>1255</v>
       </c>
@@ -31773,7 +31773,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="510"/>
+      <c r="A48" s="513"/>
       <c r="B48" s="65"/>
       <c r="C48" s="66"/>
       <c r="D48" s="66" t="s">
@@ -31801,7 +31801,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="510"/>
+      <c r="A49" s="513"/>
       <c r="B49" s="65"/>
       <c r="C49" s="66"/>
       <c r="D49" s="66" t="s">
@@ -31825,7 +31825,7 @@
       <c r="N49" s="66"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="510"/>
+      <c r="A50" s="513"/>
       <c r="B50" s="65"/>
       <c r="C50" s="66"/>
       <c r="D50" s="66" t="s">
@@ -31849,7 +31849,7 @@
       <c r="N50" s="66"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="510"/>
+      <c r="A51" s="513"/>
       <c r="B51" s="93"/>
       <c r="C51" s="76"/>
       <c r="D51" s="66" t="s">
@@ -31871,7 +31871,7 @@
       <c r="N51" s="76"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="510"/>
+      <c r="A52" s="513"/>
       <c r="B52" s="93"/>
       <c r="C52" s="76"/>
       <c r="D52" s="66"/>
@@ -31889,7 +31889,7 @@
       <c r="N52" s="76"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="510"/>
+      <c r="A53" s="513"/>
       <c r="B53" s="93"/>
       <c r="C53" s="76"/>
       <c r="D53" s="66"/>
@@ -31907,7 +31907,7 @@
       <c r="N53" s="76"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="511"/>
+      <c r="A54" s="514"/>
       <c r="B54" s="71"/>
       <c r="C54" s="72"/>
       <c r="D54" s="72"/>
@@ -31925,7 +31925,7 @@
       <c r="N54" s="72"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="509">
+      <c r="A55" s="512">
         <v>10</v>
       </c>
       <c r="B55" s="84" t="s">
@@ -31965,7 +31965,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="510"/>
+      <c r="A56" s="513"/>
       <c r="B56" s="65"/>
       <c r="C56" s="66" t="s">
         <v>1289</v>
@@ -31997,7 +31997,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="510"/>
+      <c r="A57" s="513"/>
       <c r="B57" s="65"/>
       <c r="C57" s="66"/>
       <c r="D57" s="66"/>
@@ -32025,7 +32025,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="510"/>
+      <c r="A58" s="513"/>
       <c r="B58" s="65"/>
       <c r="C58" s="66"/>
       <c r="D58" s="66"/>
@@ -32049,7 +32049,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="510"/>
+      <c r="A59" s="513"/>
       <c r="B59" s="93"/>
       <c r="C59" s="76"/>
       <c r="D59" s="76"/>
@@ -32069,7 +32069,7 @@
       <c r="N59" s="76"/>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="510"/>
+      <c r="A60" s="513"/>
       <c r="B60" s="93"/>
       <c r="C60" s="76"/>
       <c r="D60" s="76"/>
@@ -32089,7 +32089,7 @@
       <c r="N60" s="76"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="511"/>
+      <c r="A61" s="514"/>
       <c r="B61" s="71"/>
       <c r="C61" s="72"/>
       <c r="D61" s="72"/>
@@ -32111,7 +32111,7 @@
       <c r="N61" s="72"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="509">
+      <c r="A62" s="512">
         <v>11</v>
       </c>
       <c r="B62" s="73" t="s">
@@ -32151,7 +32151,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="510"/>
+      <c r="A63" s="513"/>
       <c r="B63" s="65" t="s">
         <v>1323</v>
       </c>
@@ -32185,7 +32185,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="510"/>
+      <c r="A64" s="513"/>
       <c r="B64" s="65" t="s">
         <v>1330</v>
       </c>
@@ -32215,7 +32215,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="510"/>
+      <c r="A65" s="513"/>
       <c r="B65" s="95" t="s">
         <v>1337</v>
       </c>
@@ -32241,7 +32241,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="511"/>
+      <c r="A66" s="514"/>
       <c r="B66" s="71"/>
       <c r="C66" s="72"/>
       <c r="D66" s="72"/>
@@ -32261,7 +32261,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="509">
+      <c r="A67" s="512">
         <v>12</v>
       </c>
       <c r="B67" s="73"/>
@@ -32299,7 +32299,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="510"/>
+      <c r="A68" s="513"/>
       <c r="B68" s="65"/>
       <c r="C68" s="66"/>
       <c r="D68" s="66" t="s">
@@ -32331,7 +32331,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="510"/>
+      <c r="A69" s="513"/>
       <c r="B69" s="65"/>
       <c r="C69" s="66"/>
       <c r="D69" s="66" t="s">
@@ -32361,7 +32361,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="510"/>
+      <c r="A70" s="513"/>
       <c r="B70" s="93"/>
       <c r="C70" s="76"/>
       <c r="D70" s="76"/>
@@ -32383,7 +32383,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="510"/>
+      <c r="A71" s="513"/>
       <c r="B71" s="93"/>
       <c r="C71" s="76"/>
       <c r="D71" s="76"/>
@@ -32403,7 +32403,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="511"/>
+      <c r="A72" s="514"/>
       <c r="B72" s="71"/>
       <c r="C72" s="72"/>
       <c r="D72" s="72"/>
@@ -32421,7 +32421,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="509">
+      <c r="A73" s="512">
         <v>13</v>
       </c>
       <c r="B73" s="73"/>
@@ -32459,7 +32459,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="510"/>
+      <c r="A74" s="513"/>
       <c r="B74" s="65"/>
       <c r="C74" s="66" t="s">
         <v>1378</v>
@@ -32491,7 +32491,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="510"/>
+      <c r="A75" s="513"/>
       <c r="B75" s="65"/>
       <c r="C75" s="66"/>
       <c r="D75" s="67" t="s">
@@ -32521,7 +32521,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="510"/>
+      <c r="A76" s="513"/>
       <c r="B76" s="65"/>
       <c r="C76" s="66"/>
       <c r="D76" s="66" t="s">
@@ -32549,7 +32549,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="510"/>
+      <c r="A77" s="513"/>
       <c r="B77" s="65"/>
       <c r="C77" s="66"/>
       <c r="D77" s="66"/>
@@ -32571,7 +32571,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="510"/>
+      <c r="A78" s="513"/>
       <c r="B78" s="65"/>
       <c r="C78" s="66"/>
       <c r="D78" s="66"/>
@@ -32589,7 +32589,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="511"/>
+      <c r="A79" s="514"/>
       <c r="B79" s="71"/>
       <c r="C79" s="72"/>
       <c r="D79" s="72"/>
@@ -32607,7 +32607,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="509">
+      <c r="A80" s="512">
         <v>14</v>
       </c>
       <c r="B80" s="73"/>
@@ -32643,7 +32643,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="510"/>
+      <c r="A81" s="513"/>
       <c r="B81" s="65"/>
       <c r="C81" s="66"/>
       <c r="D81" s="66" t="s">
@@ -32673,7 +32673,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="510"/>
+      <c r="A82" s="513"/>
       <c r="B82" s="65"/>
       <c r="C82" s="66"/>
       <c r="D82" s="66"/>
@@ -32697,7 +32697,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="510"/>
+      <c r="A83" s="513"/>
       <c r="B83" s="65"/>
       <c r="C83" s="66"/>
       <c r="D83" s="66"/>
@@ -32719,7 +32719,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="510"/>
+      <c r="A84" s="513"/>
       <c r="B84" s="65"/>
       <c r="C84" s="66"/>
       <c r="D84" s="66"/>
@@ -32739,7 +32739,7 @@
       <c r="N84" s="66"/>
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="510"/>
+      <c r="A85" s="513"/>
       <c r="B85" s="65"/>
       <c r="C85" s="66"/>
       <c r="D85" s="66"/>
@@ -32759,7 +32759,7 @@
       <c r="N85" s="66"/>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="510"/>
+      <c r="A86" s="513"/>
       <c r="B86" s="65"/>
       <c r="C86" s="66"/>
       <c r="D86" s="66"/>
@@ -32777,7 +32777,7 @@
       <c r="N86" s="66"/>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="511"/>
+      <c r="A87" s="514"/>
       <c r="B87" s="71"/>
       <c r="C87" s="72"/>
       <c r="D87" s="72"/>
@@ -32797,7 +32797,7 @@
       <c r="N87" s="72"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="509">
+      <c r="A88" s="512">
         <v>15</v>
       </c>
       <c r="B88" s="73" t="s">
@@ -32837,7 +32837,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="510"/>
+      <c r="A89" s="513"/>
       <c r="B89" s="65"/>
       <c r="C89" s="66"/>
       <c r="D89" s="66" t="s">
@@ -32869,7 +32869,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="510"/>
+      <c r="A90" s="513"/>
       <c r="B90" s="65"/>
       <c r="C90" s="66"/>
       <c r="D90" s="66" t="s">
@@ -32895,7 +32895,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="510"/>
+      <c r="A91" s="513"/>
       <c r="B91" s="65"/>
       <c r="C91" s="66"/>
       <c r="D91" s="66" t="s">
@@ -32921,7 +32921,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="511"/>
+      <c r="A92" s="514"/>
       <c r="B92" s="93"/>
       <c r="C92" s="76"/>
       <c r="D92" s="76"/>
@@ -32943,7 +32943,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="509">
+      <c r="A93" s="512">
         <v>16</v>
       </c>
       <c r="B93" s="104"/>
@@ -32981,7 +32981,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="510"/>
+      <c r="A94" s="513"/>
       <c r="B94" s="90"/>
       <c r="C94" s="66" t="s">
         <v>1467</v>
@@ -33015,7 +33015,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="510"/>
+      <c r="A95" s="513"/>
       <c r="B95" s="90"/>
       <c r="C95" s="66" t="s">
         <v>1476</v>
@@ -33049,7 +33049,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="510"/>
+      <c r="A96" s="513"/>
       <c r="B96" s="90"/>
       <c r="C96" s="66"/>
       <c r="D96" s="76" t="s">
@@ -33077,7 +33077,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="510"/>
+      <c r="A97" s="513"/>
       <c r="B97" s="90"/>
       <c r="C97" s="96"/>
       <c r="D97" s="66" t="s">
@@ -33101,7 +33101,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="511"/>
+      <c r="A98" s="514"/>
       <c r="B98" s="106"/>
       <c r="C98" s="72"/>
       <c r="D98" s="82"/>
@@ -33119,7 +33119,7 @@
       <c r="N98" s="83"/>
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="509">
+      <c r="A99" s="512">
         <v>17</v>
       </c>
       <c r="B99" s="73"/>
@@ -33159,7 +33159,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="510"/>
+      <c r="A100" s="513"/>
       <c r="B100" s="65"/>
       <c r="C100" s="66" t="s">
         <v>1504</v>
@@ -33193,7 +33193,7 @@
       </c>
     </row>
     <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="510"/>
+      <c r="A101" s="513"/>
       <c r="B101" s="65"/>
       <c r="C101" s="66"/>
       <c r="D101" s="66" t="s">
@@ -33225,7 +33225,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="510"/>
+      <c r="A102" s="513"/>
       <c r="B102" s="65"/>
       <c r="C102" s="66"/>
       <c r="D102" s="66" t="s">
@@ -33251,7 +33251,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="510"/>
+      <c r="A103" s="513"/>
       <c r="B103" s="65"/>
       <c r="C103" s="66"/>
       <c r="D103" s="66" t="s">
@@ -33275,7 +33275,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="510"/>
+      <c r="A104" s="513"/>
       <c r="B104" s="65"/>
       <c r="C104" s="66"/>
       <c r="D104" s="66" t="s">
@@ -33295,7 +33295,7 @@
       <c r="N104" s="66"/>
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="511"/>
+      <c r="A105" s="514"/>
       <c r="B105" s="71"/>
       <c r="C105" s="72"/>
       <c r="D105" s="82"/>
@@ -33313,7 +33313,7 @@
       <c r="N105" s="72"/>
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="509">
+      <c r="A106" s="512">
         <v>18</v>
       </c>
       <c r="B106" s="73"/>
@@ -33347,7 +33347,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="510"/>
+      <c r="A107" s="513"/>
       <c r="B107" s="65"/>
       <c r="C107" s="66"/>
       <c r="D107" s="66" t="s">
@@ -33375,7 +33375,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="510"/>
+      <c r="A108" s="513"/>
       <c r="B108" s="65"/>
       <c r="C108" s="66"/>
       <c r="D108" s="66" t="s">
@@ -33403,7 +33403,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="510"/>
+      <c r="A109" s="513"/>
       <c r="B109" s="65"/>
       <c r="C109" s="66"/>
       <c r="D109" s="66" t="s">
@@ -33429,7 +33429,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="510"/>
+      <c r="A110" s="513"/>
       <c r="B110" s="65"/>
       <c r="C110" s="66"/>
       <c r="D110" s="66" t="s">
@@ -33451,7 +33451,7 @@
       <c r="N110" s="66"/>
     </row>
     <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="510"/>
+      <c r="A111" s="513"/>
       <c r="B111" s="65"/>
       <c r="C111" s="66"/>
       <c r="D111" s="66" t="s">
@@ -33471,7 +33471,7 @@
       <c r="N111" s="66"/>
     </row>
     <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="510"/>
+      <c r="A112" s="513"/>
       <c r="B112" s="65"/>
       <c r="C112" s="66"/>
       <c r="D112" s="66" t="s">
@@ -33491,7 +33491,7 @@
       <c r="N112" s="66"/>
     </row>
     <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="510"/>
+      <c r="A113" s="513"/>
       <c r="B113" s="65"/>
       <c r="C113" s="66"/>
       <c r="D113" s="66" t="s">
@@ -33511,7 +33511,7 @@
       <c r="N113" s="66"/>
     </row>
     <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="511"/>
+      <c r="A114" s="514"/>
       <c r="B114" s="71"/>
       <c r="C114" s="72"/>
       <c r="D114" s="72" t="s">
@@ -33529,7 +33529,7 @@
       <c r="N114" s="72"/>
     </row>
     <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="509">
+      <c r="A115" s="512">
         <v>19</v>
       </c>
       <c r="B115" s="73"/>
@@ -33565,7 +33565,7 @@
       </c>
     </row>
     <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="510"/>
+      <c r="A116" s="513"/>
       <c r="B116" s="65"/>
       <c r="C116" s="69" t="s">
         <v>1571</v>
@@ -33595,7 +33595,7 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="510"/>
+      <c r="A117" s="513"/>
       <c r="B117" s="65"/>
       <c r="C117" s="66" t="s">
         <v>1577</v>
@@ -33625,7 +33625,7 @@
       </c>
     </row>
     <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="510"/>
+      <c r="A118" s="513"/>
       <c r="B118" s="65"/>
       <c r="C118" s="107" t="s">
         <v>1583</v>
@@ -33651,7 +33651,7 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="510"/>
+      <c r="A119" s="513"/>
       <c r="B119" s="108"/>
       <c r="C119" s="66" t="s">
         <v>1588</v>
@@ -33675,7 +33675,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="510"/>
+      <c r="A120" s="513"/>
       <c r="B120" s="65"/>
       <c r="C120" s="75"/>
       <c r="D120" s="66" t="s">
@@ -33693,7 +33693,7 @@
       <c r="N120" s="66"/>
     </row>
     <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="510"/>
+      <c r="A121" s="513"/>
       <c r="B121" s="65"/>
       <c r="C121" s="66"/>
       <c r="D121" s="67" t="s">
@@ -33711,7 +33711,7 @@
       <c r="N121" s="66"/>
     </row>
     <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="511"/>
+      <c r="A122" s="514"/>
       <c r="B122" s="71"/>
       <c r="C122" s="82"/>
       <c r="D122" s="72" t="s">
@@ -33729,7 +33729,7 @@
       <c r="N122" s="72"/>
     </row>
     <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="509">
+      <c r="A123" s="512">
         <v>20</v>
       </c>
       <c r="B123" s="73"/>
@@ -33767,7 +33767,7 @@
       </c>
     </row>
     <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="510"/>
+      <c r="A124" s="513"/>
       <c r="B124" s="65"/>
       <c r="C124" s="66"/>
       <c r="D124" s="66" t="s">
@@ -33795,7 +33795,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="510"/>
+      <c r="A125" s="513"/>
       <c r="B125" s="65"/>
       <c r="C125" s="66"/>
       <c r="D125" s="66" t="s">
@@ -33821,7 +33821,7 @@
       </c>
     </row>
     <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="510"/>
+      <c r="A126" s="513"/>
       <c r="B126" s="65"/>
       <c r="C126" s="66"/>
       <c r="D126" s="66"/>
@@ -33843,7 +33843,7 @@
       </c>
     </row>
     <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="510"/>
+      <c r="A127" s="513"/>
       <c r="B127" s="65"/>
       <c r="C127" s="66"/>
       <c r="D127" s="66"/>
@@ -33865,7 +33865,7 @@
       </c>
     </row>
     <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="510"/>
+      <c r="A128" s="513"/>
       <c r="B128" s="65"/>
       <c r="C128" s="66"/>
       <c r="D128" s="66"/>
@@ -33885,7 +33885,7 @@
       <c r="N128" s="66"/>
     </row>
     <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="510"/>
+      <c r="A129" s="513"/>
       <c r="B129" s="65"/>
       <c r="C129" s="66"/>
       <c r="D129" s="66"/>
@@ -33905,7 +33905,7 @@
       <c r="N129" s="66"/>
     </row>
     <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="511"/>
+      <c r="A130" s="514"/>
       <c r="B130" s="71"/>
       <c r="C130" s="72"/>
       <c r="D130" s="72"/>
@@ -33923,7 +33923,7 @@
       <c r="N130" s="72"/>
     </row>
     <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="509">
+      <c r="A131" s="512">
         <v>21</v>
       </c>
       <c r="B131" s="73" t="s">
@@ -33959,7 +33959,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="510"/>
+      <c r="A132" s="513"/>
       <c r="B132" s="65"/>
       <c r="C132" s="66"/>
       <c r="D132" s="66" t="s">
@@ -33987,7 +33987,7 @@
       </c>
     </row>
     <row r="133" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="510"/>
+      <c r="A133" s="513"/>
       <c r="B133" s="65"/>
       <c r="C133" s="66"/>
       <c r="D133" s="67" t="s">
@@ -34013,7 +34013,7 @@
       </c>
     </row>
     <row r="134" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="510"/>
+      <c r="A134" s="513"/>
       <c r="B134" s="65"/>
       <c r="C134" s="66"/>
       <c r="D134" s="66" t="s">
@@ -34039,7 +34039,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="510"/>
+      <c r="A135" s="513"/>
       <c r="B135" s="65"/>
       <c r="C135" s="66"/>
       <c r="D135" s="66" t="s">
@@ -34061,7 +34061,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="510"/>
+      <c r="A136" s="513"/>
       <c r="B136" s="65"/>
       <c r="C136" s="66"/>
       <c r="D136" s="66" t="s">
@@ -34083,7 +34083,7 @@
       </c>
     </row>
     <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="510"/>
+      <c r="A137" s="513"/>
       <c r="B137" s="65"/>
       <c r="C137" s="66"/>
       <c r="D137" s="66" t="s">
@@ -34105,7 +34105,7 @@
       </c>
     </row>
     <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="510"/>
+      <c r="A138" s="513"/>
       <c r="B138" s="65"/>
       <c r="C138" s="66"/>
       <c r="D138" s="66" t="s">
@@ -34123,7 +34123,7 @@
       <c r="N138" s="66"/>
     </row>
     <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="511"/>
+      <c r="A139" s="514"/>
       <c r="B139" s="71"/>
       <c r="C139" s="72"/>
       <c r="D139" s="72" t="s">
@@ -34143,7 +34143,7 @@
       <c r="N139" s="72"/>
     </row>
     <row r="140" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="509">
+      <c r="A140" s="512">
         <v>22</v>
       </c>
       <c r="B140" s="73" t="s">
@@ -34181,7 +34181,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="510"/>
+      <c r="A141" s="513"/>
       <c r="B141" s="65"/>
       <c r="C141" s="66" t="s">
         <v>1664</v>
@@ -34213,7 +34213,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="510"/>
+      <c r="A142" s="513"/>
       <c r="B142" s="65"/>
       <c r="C142" s="66"/>
       <c r="D142" s="66"/>
@@ -34239,7 +34239,7 @@
       </c>
     </row>
     <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="510"/>
+      <c r="A143" s="513"/>
       <c r="B143" s="65"/>
       <c r="C143" s="66"/>
       <c r="D143" s="66"/>
@@ -34261,7 +34261,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="510"/>
+      <c r="A144" s="513"/>
       <c r="B144" s="65"/>
       <c r="C144" s="66"/>
       <c r="D144" s="66"/>
@@ -34283,7 +34283,7 @@
       </c>
     </row>
     <row r="145" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="511"/>
+      <c r="A145" s="514"/>
       <c r="B145" s="71"/>
       <c r="C145" s="72"/>
       <c r="D145" s="72"/>
@@ -34301,7 +34301,7 @@
       <c r="N145" s="72"/>
     </row>
     <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="509">
+      <c r="A146" s="512">
         <v>23</v>
       </c>
       <c r="B146" s="73" t="s">
@@ -34335,7 +34335,7 @@
       </c>
     </row>
     <row r="147" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="510"/>
+      <c r="A147" s="513"/>
       <c r="B147" s="65"/>
       <c r="C147" s="66"/>
       <c r="D147" s="66" t="s">
@@ -34359,7 +34359,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="510"/>
+      <c r="A148" s="513"/>
       <c r="B148" s="65"/>
       <c r="C148" s="66"/>
       <c r="D148" s="67" t="s">
@@ -34383,7 +34383,7 @@
       </c>
     </row>
     <row r="149" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="510"/>
+      <c r="A149" s="513"/>
       <c r="B149" s="65"/>
       <c r="C149" s="66"/>
       <c r="D149" s="66"/>
@@ -34405,7 +34405,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="510"/>
+      <c r="A150" s="513"/>
       <c r="B150" s="65"/>
       <c r="C150" s="66"/>
       <c r="D150" s="66"/>
@@ -34425,7 +34425,7 @@
       </c>
     </row>
     <row r="151" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="510"/>
+      <c r="A151" s="513"/>
       <c r="B151" s="65"/>
       <c r="C151" s="66"/>
       <c r="D151" s="66" t="s">
@@ -34447,7 +34447,7 @@
       </c>
     </row>
     <row r="152" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="510"/>
+      <c r="A152" s="513"/>
       <c r="B152" s="65"/>
       <c r="C152" s="66"/>
       <c r="D152" s="66"/>
@@ -34467,7 +34467,7 @@
       </c>
     </row>
     <row r="153" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="510"/>
+      <c r="A153" s="513"/>
       <c r="B153" s="65"/>
       <c r="C153" s="66"/>
       <c r="D153" s="66"/>
@@ -34485,7 +34485,7 @@
       </c>
     </row>
     <row r="154" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="510"/>
+      <c r="A154" s="513"/>
       <c r="B154" s="65"/>
       <c r="C154" s="66"/>
       <c r="D154" s="66"/>
@@ -34503,7 +34503,7 @@
       </c>
     </row>
     <row r="155" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="510"/>
+      <c r="A155" s="513"/>
       <c r="B155" s="65"/>
       <c r="C155" s="66"/>
       <c r="D155" s="66"/>
@@ -34521,7 +34521,7 @@
       </c>
     </row>
     <row r="156" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="510"/>
+      <c r="A156" s="513"/>
       <c r="B156" s="65"/>
       <c r="C156" s="66"/>
       <c r="D156" s="66"/>
@@ -34539,7 +34539,7 @@
       </c>
     </row>
     <row r="157" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="511"/>
+      <c r="A157" s="514"/>
       <c r="B157" s="71"/>
       <c r="C157" s="72"/>
       <c r="D157" s="111" t="s">
@@ -34559,7 +34559,7 @@
       </c>
     </row>
     <row r="158" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="509">
+      <c r="A158" s="512">
         <v>24</v>
       </c>
       <c r="B158" s="73"/>
@@ -34597,7 +34597,7 @@
       </c>
     </row>
     <row r="159" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="510"/>
+      <c r="A159" s="513"/>
       <c r="B159" s="65"/>
       <c r="C159" s="66"/>
       <c r="D159" s="67" t="s">
@@ -34623,7 +34623,7 @@
       </c>
     </row>
     <row r="160" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="510"/>
+      <c r="A160" s="513"/>
       <c r="B160" s="65"/>
       <c r="C160" s="66"/>
       <c r="D160" s="66"/>
@@ -34645,7 +34645,7 @@
       </c>
     </row>
     <row r="161" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="510"/>
+      <c r="A161" s="513"/>
       <c r="B161" s="65"/>
       <c r="C161" s="66"/>
       <c r="D161" s="66"/>
@@ -34667,7 +34667,7 @@
       </c>
     </row>
     <row r="162" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="510"/>
+      <c r="A162" s="513"/>
       <c r="B162" s="65"/>
       <c r="C162" s="66"/>
       <c r="D162" s="66"/>
@@ -34687,7 +34687,7 @@
       </c>
     </row>
     <row r="163" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="511"/>
+      <c r="A163" s="514"/>
       <c r="B163" s="71"/>
       <c r="C163" s="72"/>
       <c r="D163" s="72"/>
@@ -34711,7 +34711,7 @@
       </c>
     </row>
     <row r="164" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="509">
+      <c r="A164" s="512">
         <v>25</v>
       </c>
       <c r="B164" s="73" t="s">
@@ -34751,7 +34751,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="510"/>
+      <c r="A165" s="513"/>
       <c r="B165" s="65"/>
       <c r="C165" s="66" t="s">
         <v>1747</v>
@@ -34777,7 +34777,7 @@
       </c>
     </row>
     <row r="166" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="510"/>
+      <c r="A166" s="513"/>
       <c r="B166" s="65"/>
       <c r="C166" s="66" t="s">
         <v>1752</v>
@@ -34803,7 +34803,7 @@
       </c>
     </row>
     <row r="167" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="510"/>
+      <c r="A167" s="513"/>
       <c r="B167" s="65"/>
       <c r="C167" s="66" t="s">
         <v>2464</v>
@@ -34827,7 +34827,7 @@
       </c>
     </row>
     <row r="168" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="510"/>
+      <c r="A168" s="513"/>
       <c r="B168" s="65"/>
       <c r="C168" s="66"/>
       <c r="D168" s="66"/>
@@ -34847,7 +34847,7 @@
       </c>
     </row>
     <row r="169" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="511"/>
+      <c r="A169" s="514"/>
       <c r="B169" s="71"/>
       <c r="C169" s="82"/>
       <c r="D169" s="72"/>
@@ -34868,16 +34868,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A73:A79"/>
     <mergeCell ref="A158:A163"/>
     <mergeCell ref="A164:A169"/>
     <mergeCell ref="A99:A105"/>
@@ -34891,6 +34881,16 @@
     <mergeCell ref="A123:A130"/>
     <mergeCell ref="A115:A122"/>
     <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A73:A79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35002,7 +35002,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="517">
+      <c r="A2" s="524">
         <v>1</v>
       </c>
       <c r="B2" s="31"/>
@@ -35029,7 +35029,7 @@
       <c r="M2" s="33"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="518"/>
+      <c r="A3" s="525"/>
       <c r="B3" s="37"/>
       <c r="C3" s="353" t="s">
         <v>536</v>
@@ -35048,7 +35048,7 @@
       <c r="M3" s="34"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="519">
+      <c r="A4" s="526">
         <v>2</v>
       </c>
       <c r="B4" s="40"/>
@@ -35071,7 +35071,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="520"/>
+      <c r="A5" s="527"/>
       <c r="B5" s="41"/>
       <c r="C5" s="42" t="s">
         <v>541</v>
@@ -35109,7 +35109,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="521">
+      <c r="A7" s="518">
         <v>4</v>
       </c>
       <c r="B7" s="47" t="s">
@@ -35138,7 +35138,7 @@
       <c r="M7" s="33"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="522"/>
+      <c r="A8" s="519"/>
       <c r="B8" s="37"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -35184,7 +35184,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="516"/>
+      <c r="A10" s="517"/>
       <c r="B10" s="37" t="s">
         <v>554</v>
       </c>
@@ -35253,7 +35253,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="523"/>
+      <c r="A13" s="516"/>
       <c r="B13" s="52"/>
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
@@ -35272,7 +35272,7 @@
       <c r="M13" s="53"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="516"/>
+      <c r="A14" s="517"/>
       <c r="B14" s="37"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
@@ -35289,7 +35289,7 @@
       <c r="M14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="521">
+      <c r="A15" s="518">
         <v>8</v>
       </c>
       <c r="B15" s="352" t="s">
@@ -35318,7 +35318,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="522"/>
+      <c r="A16" s="519"/>
       <c r="B16" s="37"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
@@ -35360,7 +35360,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="516"/>
+      <c r="A18" s="517"/>
       <c r="B18" s="41"/>
       <c r="C18" s="34" t="s">
         <v>563</v>
@@ -35377,7 +35377,7 @@
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="521">
+      <c r="A19" s="518">
         <v>10</v>
       </c>
       <c r="B19" s="31" t="s">
@@ -35404,7 +35404,7 @@
       <c r="M19" s="33"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="522"/>
+      <c r="A20" s="519"/>
       <c r="B20" s="37"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
@@ -35450,7 +35450,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="516"/>
+      <c r="A22" s="517"/>
       <c r="B22" s="37"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
@@ -35467,7 +35467,7 @@
       <c r="M22" s="34"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="521">
+      <c r="A23" s="518">
         <v>12</v>
       </c>
       <c r="B23" s="31"/>
@@ -35494,7 +35494,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="522"/>
+      <c r="A24" s="519"/>
       <c r="B24" s="37"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
@@ -35534,7 +35534,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="516"/>
+      <c r="A26" s="517"/>
       <c r="B26" s="37"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
@@ -35597,7 +35597,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="516"/>
+      <c r="A29" s="517"/>
       <c r="B29" s="37"/>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
@@ -35614,7 +35614,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="521">
+      <c r="A30" s="518">
         <v>16</v>
       </c>
       <c r="B30" s="31"/>
@@ -35641,7 +35641,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="522"/>
+      <c r="A31" s="519"/>
       <c r="B31" s="37"/>
       <c r="C31" s="34" t="s">
         <v>549</v>
@@ -35683,7 +35683,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="516"/>
+      <c r="A33" s="517"/>
       <c r="B33" s="37"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
@@ -35700,7 +35700,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="521">
+      <c r="A34" s="518">
         <v>18</v>
       </c>
       <c r="B34" s="352" t="s">
@@ -35729,7 +35729,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="522"/>
+      <c r="A35" s="519"/>
       <c r="B35" s="37"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
@@ -35775,7 +35775,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="516"/>
+      <c r="A37" s="517"/>
       <c r="B37" s="37"/>
       <c r="C37" s="34" t="s">
         <v>549</v>
@@ -35792,7 +35792,7 @@
       <c r="M37" s="34"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="521">
+      <c r="A38" s="518">
         <v>20</v>
       </c>
       <c r="B38" s="31"/>
@@ -35817,7 +35817,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="524"/>
+      <c r="A39" s="520"/>
       <c r="B39" s="52"/>
       <c r="C39" s="355" t="s">
         <v>610</v>
@@ -35838,7 +35838,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="522"/>
+      <c r="A40" s="519"/>
       <c r="B40" s="37"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -35878,7 +35878,7 @@
       <c r="M41" s="45"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="525">
+      <c r="A42" s="521">
         <v>22</v>
       </c>
       <c r="B42" s="31"/>
@@ -35905,7 +35905,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="526"/>
+      <c r="A43" s="522"/>
       <c r="B43" s="52"/>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
@@ -35922,7 +35922,7 @@
       <c r="M43" s="53"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="527"/>
+      <c r="A44" s="523"/>
       <c r="B44" s="37"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -35964,7 +35964,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="523"/>
+      <c r="A46" s="516"/>
       <c r="B46" s="52"/>
       <c r="C46" s="53" t="s">
         <v>624</v>
@@ -35983,7 +35983,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="516"/>
+      <c r="A47" s="517"/>
       <c r="B47" s="37"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -36028,13 +36028,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -36047,6 +36040,13 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36189,7 +36189,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="523"/>
+      <c r="A3" s="516"/>
       <c r="B3" s="120"/>
       <c r="C3" s="122" t="s">
         <v>1771</v>
@@ -36212,7 +36212,7 @@
       <c r="N3" s="149"/>
     </row>
     <row r="4" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="523"/>
+      <c r="A4" s="516"/>
       <c r="B4" s="120"/>
       <c r="C4" s="122"/>
       <c r="D4" s="122"/>
@@ -36232,7 +36232,7 @@
       <c r="N4" s="149"/>
     </row>
     <row r="5" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="523"/>
+      <c r="A5" s="516"/>
       <c r="B5" s="120"/>
       <c r="C5" s="122"/>
       <c r="D5" s="122"/>
@@ -36250,7 +36250,7 @@
       <c r="N5" s="149"/>
     </row>
     <row r="6" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="526">
+      <c r="A6" s="522">
         <v>2</v>
       </c>
       <c r="B6" s="135" t="s">
@@ -36290,7 +36290,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="526"/>
+      <c r="A7" s="522"/>
       <c r="B7" s="120"/>
       <c r="C7" s="122"/>
       <c r="D7" s="122" t="s">
@@ -36316,7 +36316,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="527"/>
+      <c r="A8" s="523"/>
       <c r="B8" s="124"/>
       <c r="C8" s="125"/>
       <c r="D8" s="125"/>
@@ -36372,7 +36372,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="523"/>
+      <c r="A10" s="516"/>
       <c r="B10" s="120"/>
       <c r="C10" s="121" t="s">
         <v>1797</v>
@@ -36402,7 +36402,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="523"/>
+      <c r="A11" s="516"/>
       <c r="B11" s="120"/>
       <c r="C11" s="122" t="s">
         <v>1802</v>
@@ -36424,7 +36424,7 @@
       <c r="N11" s="149"/>
     </row>
     <row r="12" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="516"/>
+      <c r="A12" s="517"/>
       <c r="B12" s="124"/>
       <c r="C12" s="125"/>
       <c r="D12" s="125"/>
@@ -36442,7 +36442,7 @@
       <c r="N12" s="152"/>
     </row>
     <row r="13" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="525">
+      <c r="A13" s="521">
         <v>4</v>
       </c>
       <c r="B13" s="117"/>
@@ -36480,7 +36480,7 @@
       <c r="N13" s="145"/>
     </row>
     <row r="14" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="526"/>
+      <c r="A14" s="522"/>
       <c r="B14" s="120"/>
       <c r="C14" s="122"/>
       <c r="D14" s="122" t="s">
@@ -36508,7 +36508,7 @@
       <c r="N14" s="149"/>
     </row>
     <row r="15" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="526"/>
+      <c r="A15" s="522"/>
       <c r="B15" s="120"/>
       <c r="C15" s="122"/>
       <c r="D15" s="122" t="s">
@@ -36528,7 +36528,7 @@
       <c r="N15" s="149"/>
     </row>
     <row r="16" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="526"/>
+      <c r="A16" s="522"/>
       <c r="B16" s="120"/>
       <c r="C16" s="122"/>
       <c r="D16" s="122"/>
@@ -36546,7 +36546,7 @@
       <c r="N16" s="149"/>
     </row>
     <row r="17" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="527"/>
+      <c r="A17" s="523"/>
       <c r="B17" s="124"/>
       <c r="C17" s="125"/>
       <c r="D17" s="125"/>
@@ -36598,7 +36598,7 @@
       <c r="N18" s="145"/>
     </row>
     <row r="19" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="523"/>
+      <c r="A19" s="516"/>
       <c r="B19" s="120"/>
       <c r="C19" s="121" t="s">
         <v>1797</v>
@@ -36624,7 +36624,7 @@
       <c r="N19" s="149"/>
     </row>
     <row r="20" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="523"/>
+      <c r="A20" s="516"/>
       <c r="B20" s="120"/>
       <c r="C20" s="122"/>
       <c r="D20" s="122"/>
@@ -36646,7 +36646,7 @@
       <c r="N20" s="149"/>
     </row>
     <row r="21" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="523"/>
+      <c r="A21" s="516"/>
       <c r="B21" s="120"/>
       <c r="C21" s="122"/>
       <c r="D21" s="122"/>
@@ -36666,7 +36666,7 @@
       <c r="N21" s="149"/>
     </row>
     <row r="22" spans="1:14" s="38" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="523"/>
+      <c r="A22" s="516"/>
       <c r="B22" s="124"/>
       <c r="C22" s="125"/>
       <c r="D22" s="125"/>

--- a/parser/public/data/TitulosYTemasSegunCatagorias.xlsx
+++ b/parser/public/data/TitulosYTemasSegunCatagorias.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/dev/lab/mujeres-de-prensa/parser/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4EE709D0-6929-DD45-B4D7-98E925F059A7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D60AFF94-364B-F84D-B974-0A3F6B0D9ABE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32180" yWindow="1200" windowWidth="31520" windowHeight="19860" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="24940" windowHeight="16840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mireya" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="2605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="2606">
   <si>
     <t>Trabajo</t>
   </si>
@@ -15856,6 +15856,9 @@
       </rPr>
       <t>(p. 4 y 20)</t>
     </r>
+  </si>
+  <si>
+    <t>galería de mujeres célebres - Concepción Arenal (p.9)</t>
   </si>
 </sst>
 </file>
@@ -19573,6 +19576,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -19585,28 +19598,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -19628,18 +19637,30 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -19652,80 +19673,62 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="147" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="146" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -20032,8 +20035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20095,7 +20098,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="514">
+      <c r="A2" s="518">
         <v>1</v>
       </c>
       <c r="B2" s="322" t="s">
@@ -20136,7 +20139,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="512"/>
+      <c r="A3" s="516"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -20163,7 +20166,7 @@
       <c r="M3" s="290"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="512"/>
+      <c r="A4" s="516"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -20186,7 +20189,7 @@
       <c r="M4" s="290"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="512"/>
+      <c r="A5" s="516"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -20205,7 +20208,7 @@
       <c r="M5" s="290"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="512"/>
+      <c r="A6" s="516"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -20224,7 +20227,7 @@
       <c r="M6" s="290"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="512"/>
+      <c r="A7" s="516"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -20241,7 +20244,7 @@
       <c r="M7" s="290"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="513"/>
+      <c r="A8" s="517"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -20258,7 +20261,7 @@
       <c r="M8" s="293"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="511">
+      <c r="A9" s="515">
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -20297,7 +20300,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="512"/>
+      <c r="A10" s="516"/>
       <c r="B10" s="320" t="s">
         <v>46</v>
       </c>
@@ -20330,7 +20333,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="512"/>
+      <c r="A11" s="516"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -20355,7 +20358,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="512"/>
+      <c r="A12" s="516"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -20378,7 +20381,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="512"/>
+      <c r="A13" s="516"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -20395,7 +20398,7 @@
       <c r="M13" s="290"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="512"/>
+      <c r="A14" s="516"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -20412,7 +20415,7 @@
       <c r="M14" s="290"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="512"/>
+      <c r="A15" s="516"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -20429,7 +20432,7 @@
       <c r="M15" s="298"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="512"/>
+      <c r="A16" s="516"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -20446,7 +20449,7 @@
       <c r="M16" s="293"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="511">
+      <c r="A17" s="515">
         <v>4</v>
       </c>
       <c r="B17" s="321" t="s">
@@ -20483,7 +20486,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="512"/>
+      <c r="A18" s="516"/>
       <c r="B18" s="320" t="s">
         <v>46</v>
       </c>
@@ -20508,7 +20511,7 @@
       <c r="M18" s="290"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="512"/>
+      <c r="A19" s="516"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -20531,7 +20534,7 @@
       <c r="M19" s="290"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="512"/>
+      <c r="A20" s="516"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -20554,7 +20557,7 @@
       <c r="M20" s="290"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="512"/>
+      <c r="A21" s="516"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -20575,7 +20578,7 @@
       <c r="M21" s="290"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="512"/>
+      <c r="A22" s="516"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -20596,7 +20599,7 @@
       <c r="M22" s="290"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="512"/>
+      <c r="A23" s="516"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -20615,7 +20618,7 @@
       <c r="M23" s="298"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="513"/>
+      <c r="A24" s="517"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -20634,7 +20637,7 @@
       <c r="M24" s="293"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="511">
+      <c r="A25" s="515">
         <v>5</v>
       </c>
       <c r="B25" s="10"/>
@@ -20673,7 +20676,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="512"/>
+      <c r="A26" s="516"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -20700,7 +20703,7 @@
       <c r="M26" s="290"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="512"/>
+      <c r="A27" s="516"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -20725,7 +20728,7 @@
       <c r="M27" s="290"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="512"/>
+      <c r="A28" s="516"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -20746,7 +20749,7 @@
       <c r="M28" s="298"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="512"/>
+      <c r="A29" s="516"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -20763,7 +20766,7 @@
       <c r="M29" s="298"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="513"/>
+      <c r="A30" s="517"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -20782,7 +20785,7 @@
       <c r="M30" s="293"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="511">
+      <c r="A31" s="515">
         <v>6</v>
       </c>
       <c r="B31" s="10"/>
@@ -20819,7 +20822,7 @@
       <c r="M31" s="295"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="512"/>
+      <c r="A32" s="516"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -20846,7 +20849,7 @@
       <c r="M32" s="290"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="512"/>
+      <c r="A33" s="516"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -20873,7 +20876,7 @@
       <c r="M33" s="290"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="512"/>
+      <c r="A34" s="516"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -20896,7 +20899,7 @@
       <c r="M34" s="290"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="512"/>
+      <c r="A35" s="516"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -20915,7 +20918,7 @@
       <c r="M35" s="290"/>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="512"/>
+      <c r="A36" s="516"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -20932,7 +20935,7 @@
       <c r="M36" s="298"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="513"/>
+      <c r="A37" s="517"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -20949,7 +20952,7 @@
       <c r="M37" s="293"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="511" t="s">
+      <c r="A38" s="515" t="s">
         <v>2277</v>
       </c>
       <c r="B38" s="15" t="s">
@@ -20980,7 +20983,7 @@
       <c r="M38" s="295"/>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="512"/>
+      <c r="A39" s="516"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
@@ -21009,7 +21012,7 @@
       <c r="M39" s="290"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="512"/>
+      <c r="A40" s="516"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
@@ -21038,7 +21041,7 @@
       <c r="M40" s="290"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="512"/>
+      <c r="A41" s="516"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -21055,7 +21058,7 @@
       <c r="M41" s="290"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="512"/>
+      <c r="A42" s="516"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
@@ -21080,7 +21083,7 @@
       <c r="M42" s="290"/>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="512"/>
+      <c r="A43" s="516"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -21099,7 +21102,7 @@
       <c r="M43" s="290"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="513"/>
+      <c r="A44" s="517"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -21118,7 +21121,7 @@
       <c r="M44" s="293"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="511" t="s">
+      <c r="A45" s="515" t="s">
         <v>2278</v>
       </c>
       <c r="B45" s="321" t="s">
@@ -21153,7 +21156,7 @@
       <c r="M45" s="295"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="512"/>
+      <c r="A46" s="516"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -21180,7 +21183,7 @@
       <c r="M46" s="290"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="512"/>
+      <c r="A47" s="516"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -21201,7 +21204,7 @@
       <c r="M47" s="290"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="512"/>
+      <c r="A48" s="516"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -21220,7 +21223,7 @@
       <c r="M48" s="290"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="512"/>
+      <c r="A49" s="516"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -21239,7 +21242,7 @@
       <c r="M49" s="290"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="512"/>
+      <c r="A50" s="516"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -21254,7 +21257,7 @@
       <c r="M50" s="290"/>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="513"/>
+      <c r="A51" s="517"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -21273,7 +21276,7 @@
       <c r="M51" s="293"/>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="511">
+      <c r="A52" s="515">
         <v>12</v>
       </c>
       <c r="B52" s="321" t="s">
@@ -21289,10 +21292,10 @@
       <c r="F52" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G52" s="515" t="s">
+      <c r="G52" s="513" t="s">
         <v>175</v>
       </c>
-      <c r="H52" s="516"/>
+      <c r="H52" s="514"/>
       <c r="I52" s="301" t="s">
         <v>176</v>
       </c>
@@ -21310,7 +21313,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="512"/>
+      <c r="A53" s="516"/>
       <c r="B53" s="4" t="s">
         <v>181</v>
       </c>
@@ -21341,7 +21344,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="512"/>
+      <c r="A54" s="516"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -21364,7 +21367,7 @@
       <c r="M54" s="290"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="512"/>
+      <c r="A55" s="516"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -21387,7 +21390,7 @@
       <c r="M55" s="290"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="512"/>
+      <c r="A56" s="516"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -21410,7 +21413,7 @@
       <c r="M56" s="290"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="512"/>
+      <c r="A57" s="516"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
@@ -21429,7 +21432,7 @@
       <c r="M57" s="293"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="514">
+      <c r="A58" s="518">
         <v>13</v>
       </c>
       <c r="B58" s="321" t="s">
@@ -21464,7 +21467,7 @@
       <c r="M58" s="295"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="512"/>
+      <c r="A59" s="516"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -21483,7 +21486,7 @@
       <c r="M59" s="295"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="512"/>
+      <c r="A60" s="516"/>
       <c r="B60" s="4" t="s">
         <v>2301</v>
       </c>
@@ -21508,7 +21511,7 @@
       <c r="M60" s="290"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="512"/>
+      <c r="A61" s="516"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
         <v>2516</v>
@@ -21533,7 +21536,7 @@
       <c r="M61" s="290"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="512"/>
+      <c r="A62" s="516"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -21554,7 +21557,7 @@
       <c r="M62" s="290"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="512"/>
+      <c r="A63" s="516"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -21571,7 +21574,7 @@
       <c r="M63" s="290"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="512"/>
+      <c r="A64" s="516"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -21588,7 +21591,7 @@
       <c r="M64" s="290"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="512"/>
+      <c r="A65" s="516"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -21605,7 +21608,7 @@
       <c r="M65" s="290"/>
     </row>
     <row r="66" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="513"/>
+      <c r="A66" s="517"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -21622,7 +21625,7 @@
       <c r="M66" s="293"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="511">
+      <c r="A67" s="515">
         <v>14</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -21657,7 +21660,7 @@
       <c r="M67" s="295"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="512"/>
+      <c r="A68" s="516"/>
       <c r="B68" s="320" t="s">
         <v>225</v>
       </c>
@@ -21684,7 +21687,7 @@
       <c r="M68" s="290"/>
     </row>
     <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="512"/>
+      <c r="A69" s="516"/>
       <c r="B69" s="4" t="s">
         <v>2300</v>
       </c>
@@ -21711,7 +21714,7 @@
       <c r="M69" s="290"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="512"/>
+      <c r="A70" s="516"/>
       <c r="B70" s="320" t="s">
         <v>234</v>
       </c>
@@ -21732,7 +21735,7 @@
       <c r="M70" s="290"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="512"/>
+      <c r="A71" s="516"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -21751,7 +21754,7 @@
       <c r="M71" s="290"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="512"/>
+      <c r="A72" s="516"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -21770,7 +21773,7 @@
       <c r="M72" s="290"/>
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="513"/>
+      <c r="A73" s="517"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
@@ -21789,7 +21792,7 @@
       <c r="M73" s="293"/>
     </row>
     <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="511">
+      <c r="A74" s="515">
         <v>15</v>
       </c>
       <c r="B74" s="321" t="s">
@@ -21828,7 +21831,7 @@
       <c r="M74" s="295"/>
     </row>
     <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="512"/>
+      <c r="A75" s="516"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
         <v>249</v>
@@ -21857,7 +21860,7 @@
       <c r="M75" s="290"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="512"/>
+      <c r="A76" s="516"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -21884,7 +21887,7 @@
       <c r="M76" s="290"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="512"/>
+      <c r="A77" s="516"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -21905,7 +21908,7 @@
       <c r="M77" s="290"/>
     </row>
     <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="512"/>
+      <c r="A78" s="516"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -21924,7 +21927,7 @@
       <c r="M78" s="290"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="512"/>
+      <c r="A79" s="516"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -21941,7 +21944,7 @@
       <c r="M79" s="290"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="512"/>
+      <c r="A80" s="516"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -21956,7 +21959,7 @@
       <c r="M80" s="298"/>
     </row>
     <row r="81" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="512"/>
+      <c r="A81" s="516"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -21975,7 +21978,7 @@
       <c r="M81" s="293"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="514">
+      <c r="A82" s="518">
         <v>16</v>
       </c>
       <c r="B82" s="10"/>
@@ -22006,7 +22009,7 @@
       <c r="M82" s="295"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="512"/>
+      <c r="A83" s="516"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -22031,7 +22034,7 @@
       <c r="M83" s="305"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="512"/>
+      <c r="A84" s="516"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -22056,7 +22059,7 @@
       <c r="M84" s="290"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="512"/>
+      <c r="A85" s="516"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -22079,7 +22082,7 @@
       <c r="M85" s="290"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="512"/>
+      <c r="A86" s="516"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -22098,7 +22101,7 @@
       <c r="M86" s="290"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="512"/>
+      <c r="A87" s="516"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -22117,7 +22120,7 @@
       <c r="M87" s="290"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="513"/>
+      <c r="A88" s="517"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -22132,7 +22135,7 @@
       <c r="M88" s="293"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="511">
+      <c r="A89" s="515">
         <v>17</v>
       </c>
       <c r="B89" s="323" t="s">
@@ -22165,7 +22168,7 @@
       <c r="M89" s="295"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="512"/>
+      <c r="A90" s="516"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
@@ -22196,7 +22199,7 @@
       <c r="M90" s="290"/>
     </row>
     <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="512"/>
+      <c r="A91" s="516"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -22225,7 +22228,7 @@
       <c r="M91" s="290"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="512"/>
+      <c r="A92" s="516"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -22250,7 +22253,7 @@
       <c r="M92" s="290"/>
     </row>
     <row r="93" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="513"/>
+      <c r="A93" s="517"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -22267,7 +22270,7 @@
       <c r="M93" s="293"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="511">
+      <c r="A94" s="515">
         <v>18</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -22302,7 +22305,7 @@
       <c r="M94" s="295"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="512"/>
+      <c r="A95" s="516"/>
       <c r="B95" s="4" t="s">
         <v>2298</v>
       </c>
@@ -22329,7 +22332,7 @@
       <c r="M95" s="290"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="512"/>
+      <c r="A96" s="516"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -22356,7 +22359,7 @@
       <c r="M96" s="290"/>
     </row>
     <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="512"/>
+      <c r="A97" s="516"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -22375,7 +22378,7 @@
       <c r="M97" s="290"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="512"/>
+      <c r="A98" s="516"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -22396,7 +22399,7 @@
       <c r="M98" s="290"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="512"/>
+      <c r="A99" s="516"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -22415,7 +22418,7 @@
       <c r="M99" s="290"/>
     </row>
     <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="512"/>
+      <c r="A100" s="516"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -22434,7 +22437,7 @@
       <c r="M100" s="290"/>
     </row>
     <row r="101" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="513"/>
+      <c r="A101" s="517"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -22451,7 +22454,7 @@
       <c r="M101" s="293"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="511">
+      <c r="A102" s="515">
         <v>19</v>
       </c>
       <c r="B102" s="10"/>
@@ -22486,7 +22489,7 @@
       <c r="M102" s="295"/>
     </row>
     <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="512"/>
+      <c r="A103" s="516"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4" t="s">
         <v>342</v>
@@ -22517,7 +22520,7 @@
       <c r="M103" s="290"/>
     </row>
     <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="512"/>
+      <c r="A104" s="516"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4" t="s">
         <v>349</v>
@@ -22544,7 +22547,7 @@
       <c r="M104" s="290"/>
     </row>
     <row r="105" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="513"/>
+      <c r="A105" s="517"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -22565,7 +22568,7 @@
       <c r="M105" s="293"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="511">
+      <c r="A106" s="515">
         <v>20</v>
       </c>
       <c r="B106" s="10"/>
@@ -22602,7 +22605,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="512"/>
+      <c r="A107" s="516"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4" t="s">
@@ -22631,7 +22634,7 @@
       <c r="M107" s="290"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="512"/>
+      <c r="A108" s="516"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4" t="s">
@@ -22660,7 +22663,7 @@
       <c r="M108" s="290"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="512"/>
+      <c r="A109" s="516"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4" t="s">
@@ -22683,7 +22686,7 @@
       <c r="M109" s="290"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="512"/>
+      <c r="A110" s="516"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -22700,7 +22703,7 @@
       <c r="M110" s="290"/>
     </row>
     <row r="111" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="513"/>
+      <c r="A111" s="517"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -22717,7 +22720,7 @@
       <c r="M111" s="293"/>
     </row>
     <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="511">
+      <c r="A112" s="515">
         <v>21</v>
       </c>
       <c r="B112" s="10" t="s">
@@ -22750,7 +22753,7 @@
       <c r="M112" s="295"/>
     </row>
     <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="512"/>
+      <c r="A113" s="516"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4" t="s">
@@ -22777,7 +22780,7 @@
       <c r="M113" s="290"/>
     </row>
     <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="512"/>
+      <c r="A114" s="516"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -22800,7 +22803,7 @@
       <c r="M114" s="290"/>
     </row>
     <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="512"/>
+      <c r="A115" s="516"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -22819,7 +22822,7 @@
       <c r="M115" s="290"/>
     </row>
     <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="512"/>
+      <c r="A116" s="516"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -22838,7 +22841,7 @@
       <c r="M116" s="290"/>
     </row>
     <row r="117" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="513"/>
+      <c r="A117" s="517"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -22853,7 +22856,7 @@
       <c r="M117" s="293"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="511">
+      <c r="A118" s="515">
         <v>22</v>
       </c>
       <c r="B118" s="10"/>
@@ -22888,7 +22891,7 @@
       <c r="M118" s="295"/>
     </row>
     <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="512"/>
+      <c r="A119" s="516"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
@@ -22915,7 +22918,7 @@
       <c r="M119" s="290"/>
     </row>
     <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="512"/>
+      <c r="A120" s="516"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -22942,7 +22945,7 @@
       <c r="M120" s="290"/>
     </row>
     <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="512"/>
+      <c r="A121" s="516"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -22959,7 +22962,7 @@
       <c r="M121" s="290"/>
     </row>
     <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="512"/>
+      <c r="A122" s="516"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -22982,7 +22985,7 @@
       <c r="M122" s="290"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="513"/>
+      <c r="A123" s="517"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -22999,7 +23002,7 @@
       <c r="M123" s="293"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="511" t="s">
+      <c r="A124" s="515" t="s">
         <v>2279</v>
       </c>
       <c r="B124" s="321" t="s">
@@ -23034,7 +23037,7 @@
       <c r="M124" s="295"/>
     </row>
     <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="512"/>
+      <c r="A125" s="516"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4" t="s">
         <v>431</v>
@@ -23067,7 +23070,7 @@
       <c r="M125" s="290"/>
     </row>
     <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="512"/>
+      <c r="A126" s="516"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4" t="s">
         <v>440</v>
@@ -23094,7 +23097,7 @@
       <c r="M126" s="290"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="512"/>
+      <c r="A127" s="516"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="10"/>
@@ -23111,7 +23114,7 @@
       <c r="M127" s="290"/>
     </row>
     <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="512"/>
+      <c r="A128" s="516"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4" t="s">
         <v>447</v>
@@ -23138,7 +23141,7 @@
       <c r="M128" s="290"/>
     </row>
     <row r="129" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="512"/>
+      <c r="A129" s="516"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -23157,7 +23160,7 @@
       <c r="M129" s="290"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="512"/>
+      <c r="A130" s="516"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -23174,7 +23177,7 @@
       <c r="M130" s="290"/>
     </row>
     <row r="131" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="513"/>
+      <c r="A131" s="517"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -23191,7 +23194,7 @@
       <c r="M131" s="293"/>
     </row>
     <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="511">
+      <c r="A132" s="515">
         <v>25</v>
       </c>
       <c r="B132" s="17" t="s">
@@ -23228,7 +23231,7 @@
       <c r="M132" s="295"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="512"/>
+      <c r="A133" s="516"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4" t="s">
         <v>464</v>
@@ -23259,7 +23262,7 @@
       <c r="M133" s="290"/>
     </row>
     <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="512"/>
+      <c r="A134" s="516"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4" t="s">
         <v>2517</v>
@@ -23284,7 +23287,7 @@
       <c r="M134" s="290"/>
     </row>
     <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="512"/>
+      <c r="A135" s="516"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -23303,7 +23306,7 @@
       <c r="M135" s="290"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="512"/>
+      <c r="A136" s="516"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -23322,7 +23325,7 @@
       <c r="M136" s="290"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="513"/>
+      <c r="A137" s="517"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -23337,7 +23340,7 @@
       <c r="M137" s="293"/>
     </row>
     <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="511">
+      <c r="A138" s="515">
         <v>26</v>
       </c>
       <c r="B138" s="10"/>
@@ -23374,7 +23377,7 @@
       </c>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="512"/>
+      <c r="A139" s="516"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -23401,7 +23404,7 @@
       </c>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="512"/>
+      <c r="A140" s="516"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -23424,7 +23427,7 @@
       <c r="M140" s="290"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="512"/>
+      <c r="A141" s="516"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -23445,7 +23448,7 @@
       <c r="M141" s="290"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="512"/>
+      <c r="A142" s="516"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -23464,7 +23467,7 @@
       <c r="M142" s="290"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="513"/>
+      <c r="A143" s="517"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -23483,7 +23486,7 @@
       <c r="M143" s="293"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="511">
+      <c r="A144" s="515">
         <v>27</v>
       </c>
       <c r="B144" s="10"/>
@@ -23516,7 +23519,7 @@
       <c r="M144" s="295"/>
     </row>
     <row r="145" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="512"/>
+      <c r="A145" s="516"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -23543,7 +23546,7 @@
       <c r="M145" s="290"/>
     </row>
     <row r="146" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="512"/>
+      <c r="A146" s="516"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -23568,7 +23571,7 @@
       <c r="M146" s="290"/>
     </row>
     <row r="147" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="512"/>
+      <c r="A147" s="516"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -23589,7 +23592,7 @@
       <c r="M147" s="290"/>
     </row>
     <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="512"/>
+      <c r="A148" s="516"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -23604,7 +23607,7 @@
       <c r="M148" s="290"/>
     </row>
     <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="512"/>
+      <c r="A149" s="516"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -23621,7 +23624,7 @@
       <c r="M149" s="290"/>
     </row>
     <row r="150" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="513"/>
+      <c r="A150" s="517"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -23639,15 +23642,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A58:A66"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="A74:A81"/>
     <mergeCell ref="A138:A143"/>
     <mergeCell ref="A144:A150"/>
     <mergeCell ref="A2:A8"/>
@@ -23662,9 +23656,19 @@
     <mergeCell ref="A124:A131"/>
     <mergeCell ref="A112:A117"/>
     <mergeCell ref="A38:A44"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A58:A66"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="A74:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23703,6 +23707,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23763,7 +23768,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="546">
+      <c r="A2" s="547">
         <v>1</v>
       </c>
       <c r="B2" s="349"/>
@@ -23800,7 +23805,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="544"/>
+      <c r="A3" s="545"/>
       <c r="B3" s="353"/>
       <c r="C3" s="350" t="s">
         <v>2429</v>
@@ -23827,7 +23832,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="544"/>
+      <c r="A4" s="545"/>
       <c r="B4" s="353"/>
       <c r="C4" s="351"/>
       <c r="D4" s="351"/>
@@ -23850,7 +23855,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="544"/>
+      <c r="A5" s="545"/>
       <c r="B5" s="353"/>
       <c r="C5" s="351"/>
       <c r="D5" s="351"/>
@@ -23871,7 +23876,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="544"/>
+      <c r="A6" s="545"/>
       <c r="B6" s="358"/>
       <c r="C6" s="354"/>
       <c r="D6" s="354"/>
@@ -23888,7 +23893,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="556"/>
+      <c r="A7" s="546"/>
       <c r="B7" s="362"/>
       <c r="C7" s="363"/>
       <c r="D7" s="363"/>
@@ -23907,7 +23912,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="542">
+      <c r="A8" s="544">
         <v>2</v>
       </c>
       <c r="B8" s="349" t="s">
@@ -23940,7 +23945,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="544"/>
+      <c r="A9" s="545"/>
       <c r="B9" s="353"/>
       <c r="C9" s="501" t="s">
         <v>2586</v>
@@ -23967,7 +23972,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="544"/>
+      <c r="A10" s="545"/>
       <c r="B10" s="353"/>
       <c r="C10" s="351"/>
       <c r="D10" s="351"/>
@@ -23984,7 +23989,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="544"/>
+      <c r="A11" s="545"/>
       <c r="B11" s="353"/>
       <c r="C11" s="501" t="s">
         <v>2587</v>
@@ -24005,7 +24010,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="556"/>
+      <c r="A12" s="546"/>
       <c r="B12" s="358"/>
       <c r="C12" s="354"/>
       <c r="D12" s="354"/>
@@ -24022,7 +24027,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="553">
+      <c r="A13" s="548">
         <v>3</v>
       </c>
       <c r="B13" s="349"/>
@@ -24051,7 +24056,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="554"/>
+      <c r="A14" s="549"/>
       <c r="B14" s="353"/>
       <c r="C14" s="351"/>
       <c r="D14" s="351"/>
@@ -24078,7 +24083,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="554"/>
+      <c r="A15" s="549"/>
       <c r="B15" s="353"/>
       <c r="C15" s="351"/>
       <c r="D15" s="351"/>
@@ -24099,7 +24104,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="560"/>
+      <c r="A16" s="550"/>
       <c r="B16" s="358"/>
       <c r="C16" s="354"/>
       <c r="D16" s="354"/>
@@ -24116,7 +24121,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="548">
+      <c r="A17" s="551">
         <v>4</v>
       </c>
       <c r="B17" s="370" t="s">
@@ -24151,7 +24156,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="549"/>
+      <c r="A18" s="552"/>
       <c r="B18" s="376" t="s">
         <v>1840</v>
       </c>
@@ -24178,7 +24183,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="549"/>
+      <c r="A19" s="552"/>
       <c r="B19" s="353"/>
       <c r="C19" s="351"/>
       <c r="D19" s="351"/>
@@ -24197,7 +24202,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="550"/>
+      <c r="A20" s="553"/>
       <c r="B20" s="381"/>
       <c r="C20" s="382"/>
       <c r="D20" s="382"/>
@@ -24214,7 +24219,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="546">
+      <c r="A21" s="547">
         <v>5</v>
       </c>
       <c r="B21" s="376"/>
@@ -24249,7 +24254,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="544"/>
+      <c r="A22" s="545"/>
       <c r="B22" s="376"/>
       <c r="C22" s="369"/>
       <c r="D22" s="369"/>
@@ -24272,7 +24277,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="544"/>
+      <c r="A23" s="545"/>
       <c r="B23" s="353"/>
       <c r="C23" s="351"/>
       <c r="D23" s="351"/>
@@ -24293,7 +24298,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="544"/>
+      <c r="A24" s="545"/>
       <c r="B24" s="358"/>
       <c r="C24" s="354"/>
       <c r="D24" s="354"/>
@@ -24312,7 +24317,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="544"/>
+      <c r="A25" s="545"/>
       <c r="B25" s="358"/>
       <c r="C25" s="354"/>
       <c r="D25" s="354"/>
@@ -24331,7 +24336,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="556"/>
+      <c r="A26" s="546"/>
       <c r="B26" s="362"/>
       <c r="C26" s="363"/>
       <c r="D26" s="363"/>
@@ -24348,7 +24353,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="542">
+      <c r="A27" s="544">
         <v>6</v>
       </c>
       <c r="B27" s="349"/>
@@ -24381,7 +24386,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="544"/>
+      <c r="A28" s="545"/>
       <c r="B28" s="353"/>
       <c r="C28" s="351"/>
       <c r="D28" s="390"/>
@@ -24406,7 +24411,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="544"/>
+      <c r="A29" s="545"/>
       <c r="B29" s="353"/>
       <c r="C29" s="351"/>
       <c r="D29" s="390"/>
@@ -24427,7 +24432,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="544"/>
+      <c r="A30" s="545"/>
       <c r="B30" s="353"/>
       <c r="C30" s="351"/>
       <c r="D30" s="390"/>
@@ -24448,7 +24453,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="556"/>
+      <c r="A31" s="546"/>
       <c r="B31" s="358"/>
       <c r="C31" s="354"/>
       <c r="D31" s="394"/>
@@ -24467,7 +24472,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="553">
+      <c r="A32" s="548">
         <v>7</v>
       </c>
       <c r="B32" s="350" t="s">
@@ -24504,7 +24509,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="554"/>
+      <c r="A33" s="549"/>
       <c r="B33" s="353"/>
       <c r="C33" s="351"/>
       <c r="D33" s="351" t="s">
@@ -24533,7 +24538,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="554"/>
+      <c r="A34" s="549"/>
       <c r="B34" s="358"/>
       <c r="C34" s="354"/>
       <c r="D34" s="354"/>
@@ -24552,7 +24557,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="554"/>
+      <c r="A35" s="549"/>
       <c r="B35" s="358"/>
       <c r="C35" s="354"/>
       <c r="D35" s="354" t="s">
@@ -24575,7 +24580,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="554"/>
+      <c r="A36" s="549"/>
       <c r="B36" s="358"/>
       <c r="C36" s="354"/>
       <c r="D36" s="354"/>
@@ -24594,7 +24599,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="555"/>
+      <c r="A37" s="554"/>
       <c r="B37" s="358"/>
       <c r="C37" s="354"/>
       <c r="D37" s="354" t="s">
@@ -24615,7 +24620,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="542">
+      <c r="A38" s="544">
         <v>8</v>
       </c>
       <c r="B38" s="349"/>
@@ -24646,7 +24651,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="544"/>
+      <c r="A39" s="545"/>
       <c r="B39" s="353"/>
       <c r="C39" s="351"/>
       <c r="D39" s="351" t="s">
@@ -24673,7 +24678,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="544"/>
+      <c r="A40" s="545"/>
       <c r="B40" s="353"/>
       <c r="C40" s="351"/>
       <c r="D40" s="351"/>
@@ -24694,7 +24699,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="544"/>
+      <c r="A41" s="545"/>
       <c r="B41" s="358"/>
       <c r="C41" s="354"/>
       <c r="D41" s="354"/>
@@ -24715,7 +24720,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="556"/>
+      <c r="A42" s="546"/>
       <c r="B42" s="362"/>
       <c r="C42" s="363"/>
       <c r="D42" s="363"/>
@@ -24734,7 +24739,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="542">
+      <c r="A43" s="544">
         <v>9</v>
       </c>
       <c r="B43" s="349"/>
@@ -24767,7 +24772,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="544"/>
+      <c r="A44" s="545"/>
       <c r="B44" s="353"/>
       <c r="D44" s="506" t="s">
         <v>2592</v>
@@ -24793,7 +24798,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="544"/>
+      <c r="A45" s="545"/>
       <c r="B45" s="358"/>
       <c r="C45" s="354"/>
       <c r="D45" s="354"/>
@@ -24810,7 +24815,7 @@
       <c r="M45" s="354"/>
     </row>
     <row r="46" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="544"/>
+      <c r="A46" s="545"/>
       <c r="B46" s="358"/>
       <c r="C46" s="354"/>
       <c r="D46" s="354"/>
@@ -24827,7 +24832,7 @@
       <c r="M46" s="354"/>
     </row>
     <row r="47" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="556"/>
+      <c r="A47" s="546"/>
       <c r="B47" s="362"/>
       <c r="C47" s="363"/>
       <c r="D47" s="363"/>
@@ -24844,7 +24849,7 @@
       <c r="M47" s="363"/>
     </row>
     <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="542">
+      <c r="A48" s="544">
         <v>10</v>
       </c>
       <c r="B48" s="349" t="s">
@@ -24875,7 +24880,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="544"/>
+      <c r="A49" s="545"/>
       <c r="B49" s="353"/>
       <c r="C49" s="351"/>
       <c r="D49" s="351"/>
@@ -24898,7 +24903,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="544"/>
+      <c r="A50" s="545"/>
       <c r="B50" s="358"/>
       <c r="C50" s="354"/>
       <c r="D50" s="354"/>
@@ -24919,7 +24924,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="544"/>
+      <c r="A51" s="545"/>
       <c r="B51" s="358"/>
       <c r="C51" s="354"/>
       <c r="D51" s="354"/>
@@ -24936,7 +24941,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="544"/>
+      <c r="A52" s="545"/>
       <c r="B52" s="358"/>
       <c r="C52" s="354"/>
       <c r="D52" s="354"/>
@@ -24957,7 +24962,7 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="556"/>
+      <c r="A53" s="546"/>
       <c r="B53" s="362"/>
       <c r="C53" s="363"/>
       <c r="D53" s="363"/>
@@ -24978,7 +24983,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="542">
+      <c r="A54" s="544">
         <v>11</v>
       </c>
       <c r="B54" s="349"/>
@@ -25013,7 +25018,7 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="544"/>
+      <c r="A55" s="545"/>
       <c r="B55" s="353"/>
       <c r="C55" s="351"/>
       <c r="D55" s="351" t="s">
@@ -25036,7 +25041,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="544"/>
+      <c r="A56" s="545"/>
       <c r="B56" s="353"/>
       <c r="C56" s="351"/>
       <c r="D56" s="351"/>
@@ -25057,7 +25062,7 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="544"/>
+      <c r="A57" s="545"/>
       <c r="B57" s="353"/>
       <c r="C57" s="351"/>
       <c r="D57" s="351"/>
@@ -25076,7 +25081,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="556"/>
+      <c r="A58" s="546"/>
       <c r="B58" s="362"/>
       <c r="C58" s="363"/>
       <c r="D58" s="363"/>
@@ -25093,7 +25098,7 @@
       <c r="M58" s="363"/>
     </row>
     <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="542">
+      <c r="A59" s="544">
         <v>12</v>
       </c>
       <c r="B59" s="349" t="s">
@@ -25126,7 +25131,7 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="544"/>
+      <c r="A60" s="545"/>
       <c r="B60" s="353"/>
       <c r="C60" s="351"/>
       <c r="D60" s="351"/>
@@ -25153,7 +25158,7 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="544"/>
+      <c r="A61" s="545"/>
       <c r="B61" s="353"/>
       <c r="C61" s="351"/>
       <c r="D61" s="351"/>
@@ -25178,7 +25183,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="544"/>
+      <c r="A62" s="545"/>
       <c r="B62" s="353"/>
       <c r="C62" s="351"/>
       <c r="D62" s="351"/>
@@ -25197,7 +25202,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="544"/>
+      <c r="A63" s="545"/>
       <c r="B63" s="353"/>
       <c r="C63" s="351"/>
       <c r="D63" s="351"/>
@@ -25216,7 +25221,7 @@
       <c r="M63" s="351"/>
     </row>
     <row r="64" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="556"/>
+      <c r="A64" s="546"/>
       <c r="B64" s="362"/>
       <c r="C64" s="363"/>
       <c r="D64" s="363"/>
@@ -25233,7 +25238,7 @@
       <c r="M64" s="363"/>
     </row>
     <row r="65" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="542">
+      <c r="A65" s="544">
         <v>14</v>
       </c>
       <c r="B65" s="349"/>
@@ -25266,7 +25271,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="544"/>
+      <c r="A66" s="545"/>
       <c r="B66" s="353"/>
       <c r="C66" s="355" t="s">
         <v>1936</v>
@@ -25289,7 +25294,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="544"/>
+      <c r="A67" s="545"/>
       <c r="B67" s="353"/>
       <c r="C67" s="351"/>
       <c r="D67" s="351"/>
@@ -25308,7 +25313,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="544"/>
+      <c r="A68" s="545"/>
       <c r="B68" s="358"/>
       <c r="C68" s="354"/>
       <c r="D68" s="354"/>
@@ -25325,7 +25330,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="547"/>
+      <c r="A69" s="555"/>
       <c r="B69" s="362"/>
       <c r="C69" s="363"/>
       <c r="D69" s="363"/>
@@ -25342,7 +25347,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="557">
+      <c r="A70" s="556">
         <v>17</v>
       </c>
       <c r="B70" s="375"/>
@@ -25375,7 +25380,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="558"/>
+      <c r="A71" s="557"/>
       <c r="B71" s="380"/>
       <c r="C71" s="351"/>
       <c r="D71" s="351"/>
@@ -25400,7 +25405,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="558"/>
+      <c r="A72" s="557"/>
       <c r="B72" s="380"/>
       <c r="C72" s="351"/>
       <c r="D72" s="351"/>
@@ -25419,7 +25424,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="558"/>
+      <c r="A73" s="557"/>
       <c r="B73" s="385"/>
       <c r="C73" s="354"/>
       <c r="D73" s="354"/>
@@ -25436,7 +25441,7 @@
       <c r="M73" s="354"/>
     </row>
     <row r="74" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="558"/>
+      <c r="A74" s="557"/>
       <c r="B74" s="385"/>
       <c r="C74" s="354"/>
       <c r="D74" s="354"/>
@@ -25453,7 +25458,7 @@
       <c r="M74" s="354"/>
     </row>
     <row r="75" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="559"/>
+      <c r="A75" s="558"/>
       <c r="B75" s="406"/>
       <c r="C75" s="363"/>
       <c r="D75" s="363"/>
@@ -25470,7 +25475,7 @@
       <c r="M75" s="363"/>
     </row>
     <row r="76" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="546">
+      <c r="A76" s="547">
         <v>18</v>
       </c>
       <c r="B76" s="349"/>
@@ -25503,7 +25508,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="544"/>
+      <c r="A77" s="545"/>
       <c r="B77" s="353"/>
       <c r="C77" s="350" t="s">
         <v>1953</v>
@@ -25528,7 +25533,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="544"/>
+      <c r="A78" s="545"/>
       <c r="B78" s="353"/>
       <c r="C78" s="351"/>
       <c r="D78" s="351"/>
@@ -25549,7 +25554,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="544"/>
+      <c r="A79" s="545"/>
       <c r="B79" s="353"/>
       <c r="C79" s="351"/>
       <c r="D79" s="351"/>
@@ -25568,7 +25573,7 @@
       <c r="M79" s="351"/>
     </row>
     <row r="80" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="544"/>
+      <c r="A80" s="545"/>
       <c r="B80" s="358"/>
       <c r="C80" s="354"/>
       <c r="D80" s="354"/>
@@ -25585,7 +25590,7 @@
       <c r="M80" s="354"/>
     </row>
     <row r="81" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="556"/>
+      <c r="A81" s="546"/>
       <c r="B81" s="362"/>
       <c r="C81" s="363"/>
       <c r="D81" s="363"/>
@@ -25604,7 +25609,7 @@
       <c r="M81" s="363"/>
     </row>
     <row r="82" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="542">
+      <c r="A82" s="544">
         <v>20</v>
       </c>
       <c r="B82" s="349"/>
@@ -25637,7 +25642,7 @@
       </c>
     </row>
     <row r="83" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="544"/>
+      <c r="A83" s="545"/>
       <c r="B83" s="353"/>
       <c r="C83" s="351"/>
       <c r="D83" s="351" t="s">
@@ -25664,7 +25669,7 @@
       </c>
     </row>
     <row r="84" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="544"/>
+      <c r="A84" s="545"/>
       <c r="B84" s="353"/>
       <c r="C84" s="351"/>
       <c r="D84" s="351" t="s">
@@ -25689,7 +25694,7 @@
       </c>
     </row>
     <row r="85" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="544"/>
+      <c r="A85" s="545"/>
       <c r="B85" s="353"/>
       <c r="C85" s="351"/>
       <c r="D85" s="351" t="s">
@@ -25710,7 +25715,7 @@
       <c r="M85" s="351"/>
     </row>
     <row r="86" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="544"/>
+      <c r="A86" s="545"/>
       <c r="B86" s="358"/>
       <c r="C86" s="354"/>
       <c r="D86" s="354" t="s">
@@ -25729,7 +25734,7 @@
       <c r="M86" s="354"/>
     </row>
     <row r="87" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="556"/>
+      <c r="A87" s="546"/>
       <c r="B87" s="362"/>
       <c r="C87" s="363"/>
       <c r="D87" s="363" t="s">
@@ -25746,7 +25751,7 @@
       <c r="M87" s="363"/>
     </row>
     <row r="88" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="542">
+      <c r="A88" s="544">
         <v>21</v>
       </c>
       <c r="B88" s="349"/>
@@ -25781,7 +25786,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="544"/>
+      <c r="A89" s="545"/>
       <c r="B89" s="353"/>
       <c r="C89" s="351"/>
       <c r="D89" s="351"/>
@@ -25806,7 +25811,7 @@
       </c>
     </row>
     <row r="90" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="544"/>
+      <c r="A90" s="545"/>
       <c r="B90" s="353"/>
       <c r="C90" s="351"/>
       <c r="D90" s="351"/>
@@ -25825,7 +25830,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="544"/>
+      <c r="A91" s="545"/>
       <c r="B91" s="353"/>
       <c r="C91" s="351"/>
       <c r="D91" s="351"/>
@@ -25842,7 +25847,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="544"/>
+      <c r="A92" s="545"/>
       <c r="B92" s="353"/>
       <c r="C92" s="351"/>
       <c r="D92" s="351"/>
@@ -25861,7 +25866,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="544"/>
+      <c r="A93" s="545"/>
       <c r="B93" s="358"/>
       <c r="C93" s="354"/>
       <c r="D93" s="354"/>
@@ -25878,7 +25883,7 @@
       </c>
     </row>
     <row r="94" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="547"/>
+      <c r="A94" s="555"/>
       <c r="B94" s="358"/>
       <c r="C94" s="354"/>
       <c r="D94" s="354"/>
@@ -25897,7 +25902,7 @@
       </c>
     </row>
     <row r="95" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="548">
+      <c r="A95" s="551">
         <v>22</v>
       </c>
       <c r="B95" s="370"/>
@@ -25932,7 +25937,7 @@
       </c>
     </row>
     <row r="96" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="549"/>
+      <c r="A96" s="552"/>
       <c r="B96" s="353"/>
       <c r="C96" s="351"/>
       <c r="D96" s="351"/>
@@ -25959,7 +25964,7 @@
       </c>
     </row>
     <row r="97" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="549"/>
+      <c r="A97" s="552"/>
       <c r="B97" s="353"/>
       <c r="C97" s="351"/>
       <c r="D97" s="351"/>
@@ -25986,7 +25991,7 @@
       </c>
     </row>
     <row r="98" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="549"/>
+      <c r="A98" s="552"/>
       <c r="B98" s="353"/>
       <c r="C98" s="351"/>
       <c r="D98" s="351"/>
@@ -26009,7 +26014,7 @@
       </c>
     </row>
     <row r="99" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="550"/>
+      <c r="A99" s="553"/>
       <c r="B99" s="381"/>
       <c r="C99" s="382"/>
       <c r="D99" s="382"/>
@@ -26028,7 +26033,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="546">
+      <c r="A100" s="547">
         <v>23</v>
       </c>
       <c r="B100" s="376"/>
@@ -26063,7 +26068,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="544"/>
+      <c r="A101" s="545"/>
       <c r="B101" s="353"/>
       <c r="C101" s="355" t="s">
         <v>1997</v>
@@ -26088,7 +26093,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="544"/>
+      <c r="A102" s="545"/>
       <c r="B102" s="353"/>
       <c r="C102" s="351"/>
       <c r="D102" s="351"/>
@@ -26111,7 +26116,7 @@
       </c>
     </row>
     <row r="103" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="544"/>
+      <c r="A103" s="545"/>
       <c r="B103" s="353"/>
       <c r="C103" s="351"/>
       <c r="D103" s="351"/>
@@ -26130,7 +26135,7 @@
       </c>
     </row>
     <row r="104" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="547"/>
+      <c r="A104" s="555"/>
       <c r="B104" s="358"/>
       <c r="C104" s="354"/>
       <c r="D104" s="354"/>
@@ -26147,7 +26152,7 @@
       </c>
     </row>
     <row r="105" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="548">
+      <c r="A105" s="551">
         <v>28</v>
       </c>
       <c r="B105" s="370"/>
@@ -26178,7 +26183,7 @@
       </c>
     </row>
     <row r="106" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="549"/>
+      <c r="A106" s="552"/>
       <c r="B106" s="376"/>
       <c r="C106" s="369"/>
       <c r="D106" s="369"/>
@@ -26203,7 +26208,7 @@
       </c>
     </row>
     <row r="107" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="549"/>
+      <c r="A107" s="552"/>
       <c r="B107" s="376"/>
       <c r="C107" s="369"/>
       <c r="D107" s="369"/>
@@ -26224,7 +26229,7 @@
       </c>
     </row>
     <row r="108" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="549"/>
+      <c r="A108" s="552"/>
       <c r="B108" s="353"/>
       <c r="C108" s="351"/>
       <c r="D108" s="351"/>
@@ -26241,7 +26246,7 @@
       </c>
     </row>
     <row r="109" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="550"/>
+      <c r="A109" s="553"/>
       <c r="B109" s="381"/>
       <c r="C109" s="382"/>
       <c r="D109" s="382"/>
@@ -26256,7 +26261,7 @@
       <c r="M109" s="354"/>
     </row>
     <row r="110" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="548">
+      <c r="A110" s="551">
         <v>29</v>
       </c>
       <c r="B110" s="409" t="s">
@@ -26287,7 +26292,7 @@
       </c>
     </row>
     <row r="111" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="551"/>
+      <c r="A111" s="560"/>
       <c r="B111" s="414" t="s">
         <v>2495</v>
       </c>
@@ -26312,7 +26317,7 @@
       </c>
     </row>
     <row r="112" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="552"/>
+      <c r="A112" s="561"/>
       <c r="B112" s="415"/>
       <c r="C112" s="382"/>
       <c r="D112" s="416" t="s">
@@ -26331,7 +26336,7 @@
       </c>
     </row>
     <row r="113" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="548">
+      <c r="A113" s="551">
         <v>30</v>
       </c>
       <c r="B113" s="418"/>
@@ -26362,7 +26367,7 @@
       </c>
     </row>
     <row r="114" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="551"/>
+      <c r="A114" s="560"/>
       <c r="B114" s="380"/>
       <c r="C114" s="454" t="s">
         <v>2036</v>
@@ -26383,7 +26388,7 @@
       </c>
     </row>
     <row r="115" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="552"/>
+      <c r="A115" s="561"/>
       <c r="B115" s="415"/>
       <c r="C115" s="382"/>
       <c r="D115" s="382"/>
@@ -26440,7 +26445,7 @@
       <c r="M117" s="424"/>
     </row>
     <row r="118" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="542">
+      <c r="A118" s="544">
         <v>42</v>
       </c>
       <c r="B118" s="455" t="s">
@@ -26473,7 +26478,7 @@
       </c>
     </row>
     <row r="119" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="543"/>
+      <c r="A119" s="559"/>
       <c r="B119" s="380"/>
       <c r="C119" s="351"/>
       <c r="D119" s="351"/>
@@ -26492,7 +26497,7 @@
       </c>
     </row>
     <row r="120" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="543"/>
+      <c r="A120" s="559"/>
       <c r="B120" s="380"/>
       <c r="C120" s="351"/>
       <c r="D120" s="351"/>
@@ -26509,7 +26514,7 @@
       </c>
     </row>
     <row r="121" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="545"/>
+      <c r="A121" s="562"/>
       <c r="B121" s="406"/>
       <c r="C121" s="363"/>
       <c r="D121" s="363"/>
@@ -26526,7 +26531,7 @@
       </c>
     </row>
     <row r="122" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="542">
+      <c r="A122" s="544">
         <v>43</v>
       </c>
       <c r="B122" s="378"/>
@@ -26555,7 +26560,7 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="543"/>
+      <c r="A123" s="559"/>
       <c r="B123" s="380"/>
       <c r="C123" s="351"/>
       <c r="D123" s="463" t="s">
@@ -26576,7 +26581,7 @@
       <c r="M123" s="351"/>
     </row>
     <row r="124" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="543"/>
+      <c r="A124" s="559"/>
       <c r="B124" s="380"/>
       <c r="C124" s="351"/>
       <c r="D124" s="351"/>
@@ -26593,7 +26598,7 @@
       <c r="M124" s="351"/>
     </row>
     <row r="125" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="543"/>
+      <c r="A125" s="559"/>
       <c r="B125" s="380"/>
       <c r="C125" s="351"/>
       <c r="D125" s="351"/>
@@ -26610,7 +26615,7 @@
       <c r="M125" s="351"/>
     </row>
     <row r="126" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="543"/>
+      <c r="A126" s="559"/>
       <c r="B126" s="380"/>
       <c r="C126" s="351"/>
       <c r="D126" s="351"/>
@@ -26627,7 +26632,7 @@
       <c r="M126" s="351"/>
     </row>
     <row r="127" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="545"/>
+      <c r="A127" s="562"/>
       <c r="B127" s="406"/>
       <c r="C127" s="363"/>
       <c r="D127" s="363"/>
@@ -26663,7 +26668,7 @@
       <c r="M128" s="424"/>
     </row>
     <row r="129" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="542">
+      <c r="A129" s="544">
         <v>50</v>
       </c>
       <c r="B129" s="378"/>
@@ -26690,7 +26695,7 @@
       <c r="M129" s="369"/>
     </row>
     <row r="130" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="545"/>
+      <c r="A130" s="562"/>
       <c r="B130" s="406"/>
       <c r="C130" s="363"/>
       <c r="D130" s="363"/>
@@ -26726,7 +26731,7 @@
       <c r="M131" s="435"/>
     </row>
     <row r="132" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="542">
+      <c r="A132" s="544">
         <v>52</v>
       </c>
       <c r="B132" s="378"/>
@@ -26749,7 +26754,7 @@
       </c>
     </row>
     <row r="133" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="543"/>
+      <c r="A133" s="559"/>
       <c r="B133" s="380"/>
       <c r="C133" s="351"/>
       <c r="D133" s="351"/>
@@ -26766,7 +26771,7 @@
       </c>
     </row>
     <row r="134" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="543"/>
+      <c r="A134" s="559"/>
       <c r="B134" s="380"/>
       <c r="C134" s="351"/>
       <c r="D134" s="351"/>
@@ -26783,7 +26788,7 @@
       </c>
     </row>
     <row r="135" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="545"/>
+      <c r="A135" s="562"/>
       <c r="B135" s="406"/>
       <c r="C135" s="363"/>
       <c r="D135" s="363"/>
@@ -26905,7 +26910,7 @@
       </c>
     </row>
     <row r="141" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="542">
+      <c r="A141" s="544">
         <v>63</v>
       </c>
       <c r="B141" s="412" t="s">
@@ -26936,7 +26941,7 @@
       </c>
     </row>
     <row r="142" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="545"/>
+      <c r="A142" s="562"/>
       <c r="B142" s="406"/>
       <c r="C142" s="363"/>
       <c r="D142" s="427" t="s">
@@ -26978,7 +26983,7 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="542">
+      <c r="A144" s="544">
         <v>65</v>
       </c>
       <c r="B144" s="378"/>
@@ -27005,7 +27010,7 @@
       </c>
     </row>
     <row r="145" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="543"/>
+      <c r="A145" s="559"/>
       <c r="B145" s="380"/>
       <c r="C145" s="351"/>
       <c r="D145" s="351"/>
@@ -27024,7 +27029,7 @@
       </c>
     </row>
     <row r="146" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="543"/>
+      <c r="A146" s="559"/>
       <c r="B146" s="380"/>
       <c r="C146" s="351"/>
       <c r="D146" s="351"/>
@@ -27043,7 +27048,7 @@
       </c>
     </row>
     <row r="147" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="543"/>
+      <c r="A147" s="559"/>
       <c r="B147" s="380"/>
       <c r="C147" s="351"/>
       <c r="D147" s="351"/>
@@ -27062,7 +27067,7 @@
       </c>
     </row>
     <row r="148" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="543"/>
+      <c r="A148" s="559"/>
       <c r="B148" s="380"/>
       <c r="C148" s="351"/>
       <c r="D148" s="351"/>
@@ -27081,7 +27086,7 @@
       </c>
     </row>
     <row r="149" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="543"/>
+      <c r="A149" s="559"/>
       <c r="B149" s="380"/>
       <c r="C149" s="351"/>
       <c r="D149" s="351"/>
@@ -27098,7 +27103,7 @@
       </c>
     </row>
     <row r="150" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="545"/>
+      <c r="A150" s="562"/>
       <c r="B150" s="406"/>
       <c r="C150" s="363"/>
       <c r="D150" s="363"/>
@@ -27136,7 +27141,7 @@
       </c>
     </row>
     <row r="152" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="542">
+      <c r="A152" s="544">
         <v>68</v>
       </c>
       <c r="B152" s="378"/>
@@ -27169,7 +27174,7 @@
       </c>
     </row>
     <row r="153" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="543"/>
+      <c r="A153" s="559"/>
       <c r="B153" s="380"/>
       <c r="C153" s="351"/>
       <c r="D153" s="157" t="s">
@@ -27192,7 +27197,7 @@
       </c>
     </row>
     <row r="154" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="545"/>
+      <c r="A154" s="562"/>
       <c r="B154" s="406"/>
       <c r="C154" s="363"/>
       <c r="D154" s="443" t="s">
@@ -27251,7 +27256,7 @@
       <c r="M156" s="424"/>
     </row>
     <row r="157" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="542">
+      <c r="A157" s="544">
         <v>75</v>
       </c>
       <c r="B157" s="378"/>
@@ -27274,7 +27279,7 @@
       </c>
     </row>
     <row r="158" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="543"/>
+      <c r="A158" s="559"/>
       <c r="B158" s="380"/>
       <c r="C158" s="351"/>
       <c r="D158" s="351"/>
@@ -27295,7 +27300,7 @@
       </c>
     </row>
     <row r="159" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="543"/>
+      <c r="A159" s="559"/>
       <c r="B159" s="380"/>
       <c r="C159" s="351"/>
       <c r="D159" s="351"/>
@@ -27314,7 +27319,7 @@
       </c>
     </row>
     <row r="160" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="543"/>
+      <c r="A160" s="559"/>
       <c r="B160" s="380"/>
       <c r="C160" s="351"/>
       <c r="D160" s="351"/>
@@ -27331,7 +27336,7 @@
       </c>
     </row>
     <row r="161" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="543"/>
+      <c r="A161" s="559"/>
       <c r="B161" s="380"/>
       <c r="C161" s="351"/>
       <c r="D161" s="351"/>
@@ -27348,7 +27353,7 @@
       </c>
     </row>
     <row r="162" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="543"/>
+      <c r="A162" s="559"/>
       <c r="B162" s="380"/>
       <c r="C162" s="351"/>
       <c r="D162" s="351"/>
@@ -27365,7 +27370,7 @@
       </c>
     </row>
     <row r="163" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="543"/>
+      <c r="A163" s="559"/>
       <c r="B163" s="406"/>
       <c r="C163" s="363"/>
       <c r="D163" s="363"/>
@@ -27382,7 +27387,7 @@
       </c>
     </row>
     <row r="164" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="542">
+      <c r="A164" s="544">
         <v>80</v>
       </c>
       <c r="B164" s="157" t="s">
@@ -27413,7 +27418,7 @@
       </c>
     </row>
     <row r="165" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="543"/>
+      <c r="A165" s="559"/>
       <c r="B165" s="444" t="s">
         <v>2148</v>
       </c>
@@ -27438,7 +27443,7 @@
       </c>
     </row>
     <row r="166" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="543"/>
+      <c r="A166" s="559"/>
       <c r="B166" s="380"/>
       <c r="C166" s="351"/>
       <c r="D166" s="351"/>
@@ -27459,7 +27464,7 @@
       </c>
     </row>
     <row r="167" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="543"/>
+      <c r="A167" s="559"/>
       <c r="B167" s="380"/>
       <c r="C167" s="351"/>
       <c r="D167" s="351"/>
@@ -27478,7 +27483,7 @@
       </c>
     </row>
     <row r="168" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="543"/>
+      <c r="A168" s="559"/>
       <c r="B168" s="380"/>
       <c r="C168" s="351"/>
       <c r="D168" s="351"/>
@@ -27518,7 +27523,7 @@
       <c r="M169" s="435"/>
     </row>
     <row r="170" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="544">
+      <c r="A170" s="545">
         <v>82</v>
       </c>
       <c r="B170" s="378"/>
@@ -27545,7 +27550,7 @@
       <c r="M170" s="369"/>
     </row>
     <row r="171" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="543"/>
+      <c r="A171" s="559"/>
       <c r="B171" s="380"/>
       <c r="C171" s="351"/>
       <c r="D171" s="351"/>
@@ -27564,7 +27569,7 @@
       <c r="M171" s="351"/>
     </row>
     <row r="172" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="543"/>
+      <c r="A172" s="559"/>
       <c r="B172" s="380"/>
       <c r="C172" s="351"/>
       <c r="D172" s="351"/>
@@ -27644,7 +27649,7 @@
       <c r="M175" s="424"/>
     </row>
     <row r="176" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="542">
+      <c r="A176" s="544">
         <v>91</v>
       </c>
       <c r="B176" s="413" t="s">
@@ -27665,7 +27670,7 @@
       <c r="M176" s="369"/>
     </row>
     <row r="177" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="543"/>
+      <c r="A177" s="559"/>
       <c r="B177" s="443" t="s">
         <v>2175</v>
       </c>
@@ -27682,7 +27687,7 @@
       <c r="M177" s="363"/>
     </row>
     <row r="178" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="542">
+      <c r="A178" s="544">
         <v>92</v>
       </c>
       <c r="B178" s="378"/>
@@ -27715,7 +27720,7 @@
       </c>
     </row>
     <row r="179" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="543"/>
+      <c r="A179" s="559"/>
       <c r="B179" s="380"/>
       <c r="C179" s="351"/>
       <c r="D179" s="351"/>
@@ -27736,7 +27741,7 @@
       </c>
     </row>
     <row r="180" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="543"/>
+      <c r="A180" s="559"/>
       <c r="B180" s="380"/>
       <c r="C180" s="351"/>
       <c r="D180" s="351"/>
@@ -27755,7 +27760,7 @@
       </c>
     </row>
     <row r="181" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="543"/>
+      <c r="A181" s="559"/>
       <c r="B181" s="380"/>
       <c r="C181" s="351"/>
       <c r="D181" s="351"/>
@@ -27772,7 +27777,7 @@
       <c r="M181" s="351"/>
     </row>
     <row r="182" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="543"/>
+      <c r="A182" s="559"/>
       <c r="B182" s="380"/>
       <c r="C182" s="351"/>
       <c r="D182" s="351"/>
@@ -27789,7 +27794,7 @@
       <c r="M182" s="351"/>
     </row>
     <row r="183" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="543"/>
+      <c r="A183" s="559"/>
       <c r="B183" s="380"/>
       <c r="C183" s="351"/>
       <c r="D183" s="351"/>
@@ -27806,7 +27811,7 @@
       <c r="M183" s="351"/>
     </row>
     <row r="184" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="545"/>
+      <c r="A184" s="562"/>
       <c r="B184" s="380"/>
       <c r="C184" s="351"/>
       <c r="D184" s="351"/>
@@ -27846,7 +27851,7 @@
       <c r="M185" s="435"/>
     </row>
     <row r="186" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="544">
+      <c r="A186" s="545">
         <v>94</v>
       </c>
       <c r="B186" s="378"/>
@@ -27865,7 +27870,7 @@
       <c r="M186" s="369"/>
     </row>
     <row r="187" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="545"/>
+      <c r="A187" s="562"/>
       <c r="B187" s="406"/>
       <c r="C187" s="363"/>
       <c r="D187" s="363"/>
@@ -27882,7 +27887,7 @@
       <c r="M187" s="363"/>
     </row>
     <row r="188" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="542">
+      <c r="A188" s="544">
         <v>95</v>
       </c>
       <c r="B188" s="445" t="s">
@@ -27905,7 +27910,7 @@
       <c r="M188" s="369"/>
     </row>
     <row r="189" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="545"/>
+      <c r="A189" s="562"/>
       <c r="B189" s="446" t="s">
         <v>2198</v>
       </c>
@@ -27941,7 +27946,7 @@
       <c r="M190" s="435"/>
     </row>
     <row r="191" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="542">
+      <c r="A191" s="544">
         <v>97</v>
       </c>
       <c r="B191" s="157" t="s">
@@ -27972,7 +27977,7 @@
       </c>
     </row>
     <row r="192" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="543"/>
+      <c r="A192" s="559"/>
       <c r="B192" s="380"/>
       <c r="C192" s="351"/>
       <c r="D192" s="351"/>
@@ -27995,7 +28000,7 @@
       </c>
     </row>
     <row r="193" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="543"/>
+      <c r="A193" s="559"/>
       <c r="B193" s="380"/>
       <c r="C193" s="351"/>
       <c r="D193" s="351"/>
@@ -28012,7 +28017,7 @@
       <c r="M193" s="351"/>
     </row>
     <row r="194" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="543"/>
+      <c r="A194" s="559"/>
       <c r="B194" s="380"/>
       <c r="C194" s="351"/>
       <c r="D194" s="351"/>
@@ -28069,7 +28074,7 @@
       <c r="M196" s="435"/>
     </row>
     <row r="197" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="542">
+      <c r="A197" s="544">
         <v>102</v>
       </c>
       <c r="B197" s="378"/>
@@ -28100,7 +28105,7 @@
       </c>
     </row>
     <row r="198" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="543"/>
+      <c r="A198" s="559"/>
       <c r="B198" s="380"/>
       <c r="C198" s="351"/>
       <c r="D198" s="468" t="s">
@@ -28199,7 +28204,7 @@
       <c r="M202" s="435"/>
     </row>
     <row r="203" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="542">
+      <c r="A203" s="544">
         <v>110</v>
       </c>
       <c r="B203" s="378"/>
@@ -28226,7 +28231,7 @@
       </c>
     </row>
     <row r="204" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="543"/>
+      <c r="A204" s="559"/>
       <c r="B204" s="380"/>
       <c r="C204" s="351"/>
       <c r="D204" s="351"/>
@@ -28245,7 +28250,7 @@
       </c>
     </row>
     <row r="205" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="543"/>
+      <c r="A205" s="559"/>
       <c r="B205" s="380"/>
       <c r="C205" s="351"/>
       <c r="D205" s="351"/>
@@ -28262,7 +28267,7 @@
       <c r="M205" s="351"/>
     </row>
     <row r="206" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="543"/>
+      <c r="A206" s="559"/>
       <c r="B206" s="380"/>
       <c r="C206" s="351"/>
       <c r="D206" s="351"/>
@@ -28279,7 +28284,7 @@
       <c r="M206" s="351"/>
     </row>
     <row r="207" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="543"/>
+      <c r="A207" s="559"/>
       <c r="B207" s="380"/>
       <c r="C207" s="351"/>
       <c r="D207" s="351"/>
@@ -28296,7 +28301,7 @@
       <c r="M207" s="351"/>
     </row>
     <row r="208" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="543"/>
+      <c r="A208" s="559"/>
       <c r="B208" s="380"/>
       <c r="C208" s="351"/>
       <c r="D208" s="351"/>
@@ -28313,7 +28318,7 @@
       <c r="M208" s="351"/>
     </row>
     <row r="209" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="543"/>
+      <c r="A209" s="559"/>
       <c r="B209" s="380"/>
       <c r="C209" s="351"/>
       <c r="D209" s="351"/>
@@ -28330,7 +28335,7 @@
       <c r="M209" s="351"/>
     </row>
     <row r="210" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="543"/>
+      <c r="A210" s="559"/>
       <c r="B210" s="406"/>
       <c r="C210" s="363"/>
       <c r="D210" s="363"/>
@@ -28347,7 +28352,7 @@
       <c r="M210" s="363"/>
     </row>
     <row r="211" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="542">
+      <c r="A211" s="544">
         <v>112</v>
       </c>
       <c r="B211" s="157" t="s">
@@ -28378,7 +28383,7 @@
       </c>
     </row>
     <row r="212" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="543"/>
+      <c r="A212" s="559"/>
       <c r="B212" s="380"/>
       <c r="C212" s="351"/>
       <c r="D212" s="351"/>
@@ -28401,7 +28406,7 @@
       </c>
     </row>
     <row r="213" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="543"/>
+      <c r="A213" s="559"/>
       <c r="B213" s="380"/>
       <c r="C213" s="351"/>
       <c r="D213" s="351"/>
@@ -28422,7 +28427,7 @@
       </c>
     </row>
     <row r="214" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="543"/>
+      <c r="A214" s="559"/>
       <c r="B214" s="380"/>
       <c r="C214" s="351"/>
       <c r="D214" s="351"/>
@@ -28497,12 +28502,28 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A191:A194"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A203:A210"/>
+    <mergeCell ref="A211:A214"/>
+    <mergeCell ref="A164:A168"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A178:A184"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A157:A163"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A127"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A132:A135"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A144:A150"/>
+    <mergeCell ref="A152:A154"/>
     <mergeCell ref="A95:A99"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A38:A42"/>
@@ -28515,30 +28536,15 @@
     <mergeCell ref="A76:A81"/>
     <mergeCell ref="A82:A87"/>
     <mergeCell ref="A88:A94"/>
-    <mergeCell ref="A157:A163"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="A122:A127"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A132:A135"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A144:A150"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="A191:A194"/>
-    <mergeCell ref="A197:A198"/>
-    <mergeCell ref="A203:A210"/>
-    <mergeCell ref="A211:A214"/>
-    <mergeCell ref="A164:A168"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A178:A184"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28592,6 +28598,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28640,6 +28647,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -28647,11 +28655,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
+      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28709,7 +28717,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="520">
+      <c r="A2" s="519">
         <v>1</v>
       </c>
       <c r="B2" s="166" t="s">
@@ -28746,7 +28754,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="521"/>
+      <c r="A3" s="522"/>
       <c r="B3" s="173" t="s">
         <v>2603</v>
       </c>
@@ -28775,7 +28783,7 @@
       <c r="M3" s="153"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="521"/>
+      <c r="A4" s="522"/>
       <c r="B4" s="178" t="s">
         <v>2541</v>
       </c>
@@ -28798,8 +28806,8 @@
       <c r="M4" s="153"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="521"/>
-      <c r="B5" s="561"/>
+      <c r="A5" s="522"/>
+      <c r="B5" s="511"/>
       <c r="C5" s="156"/>
       <c r="D5" s="156"/>
       <c r="E5" s="180" t="s">
@@ -28815,7 +28823,7 @@
       <c r="M5" s="156"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="521"/>
+      <c r="A6" s="522"/>
       <c r="B6" s="181" t="s">
         <v>635</v>
       </c>
@@ -28832,7 +28840,7 @@
       <c r="M6" s="156"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="521"/>
+      <c r="A7" s="522"/>
       <c r="B7" s="178" t="s">
         <v>2544</v>
       </c>
@@ -28849,7 +28857,7 @@
       <c r="M7" s="156"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="522"/>
+      <c r="A8" s="523"/>
       <c r="B8" s="182" t="s">
         <v>2542</v>
       </c>
@@ -28866,7 +28874,7 @@
       <c r="M8" s="183"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="520">
+      <c r="A9" s="519">
         <v>2</v>
       </c>
       <c r="B9" s="485" t="s">
@@ -28903,7 +28911,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="518"/>
+      <c r="A10" s="520"/>
       <c r="B10" s="173" t="s">
         <v>643</v>
       </c>
@@ -28930,7 +28938,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="518"/>
+      <c r="A11" s="520"/>
       <c r="B11" s="173" t="s">
         <v>648</v>
       </c>
@@ -28955,7 +28963,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="518"/>
+      <c r="A12" s="520"/>
       <c r="B12" s="178" t="s">
         <v>2543</v>
       </c>
@@ -28976,7 +28984,7 @@
       <c r="M12" s="156"/>
     </row>
     <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="518"/>
+      <c r="A13" s="520"/>
       <c r="B13" s="181" t="s">
         <v>655</v>
       </c>
@@ -28995,7 +29003,7 @@
       <c r="M13" s="156"/>
     </row>
     <row r="14" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="518"/>
+      <c r="A14" s="520"/>
       <c r="B14" s="181"/>
       <c r="C14" s="156"/>
       <c r="D14" s="156"/>
@@ -29012,7 +29020,7 @@
       <c r="M14" s="156"/>
     </row>
     <row r="15" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="519"/>
+      <c r="A15" s="521"/>
       <c r="B15" s="192"/>
       <c r="C15" s="193"/>
       <c r="D15" s="193"/>
@@ -29031,7 +29039,7 @@
       <c r="M15" s="193"/>
     </row>
     <row r="16" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="520">
+      <c r="A16" s="519">
         <v>3</v>
       </c>
       <c r="B16" s="173" t="s">
@@ -29064,7 +29072,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="518"/>
+      <c r="A17" s="520"/>
       <c r="B17" s="173" t="s">
         <v>667</v>
       </c>
@@ -29093,7 +29101,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="518"/>
+      <c r="A18" s="520"/>
       <c r="B18" s="178" t="s">
         <v>674</v>
       </c>
@@ -29118,7 +29126,7 @@
       <c r="M18" s="156"/>
     </row>
     <row r="19" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="518"/>
+      <c r="A19" s="520"/>
       <c r="B19" s="200" t="s">
         <v>679</v>
       </c>
@@ -29143,7 +29151,7 @@
       <c r="M19" s="156"/>
     </row>
     <row r="20" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="518"/>
+      <c r="A20" s="520"/>
       <c r="B20" s="201"/>
       <c r="C20" s="202" t="s">
         <v>684</v>
@@ -29162,7 +29170,7 @@
       <c r="M20" s="156"/>
     </row>
     <row r="21" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="518"/>
+      <c r="A21" s="520"/>
       <c r="B21" s="203"/>
       <c r="C21" s="156"/>
       <c r="D21" s="156"/>
@@ -29179,7 +29187,7 @@
       <c r="M21" s="156"/>
     </row>
     <row r="22" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="518"/>
+      <c r="A22" s="520"/>
       <c r="B22" s="203"/>
       <c r="C22" s="156"/>
       <c r="D22" s="156"/>
@@ -29196,7 +29204,7 @@
       <c r="M22" s="156"/>
     </row>
     <row r="23" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="518"/>
+      <c r="A23" s="520"/>
       <c r="B23" s="203"/>
       <c r="C23" s="156"/>
       <c r="D23" s="156"/>
@@ -29213,7 +29221,7 @@
       <c r="M23" s="156"/>
     </row>
     <row r="24" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="518"/>
+      <c r="A24" s="520"/>
       <c r="B24" s="203"/>
       <c r="C24" s="156"/>
       <c r="D24" s="156"/>
@@ -29230,7 +29238,7 @@
       <c r="M24" s="156"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="518"/>
+      <c r="A25" s="520"/>
       <c r="B25" s="203"/>
       <c r="C25" s="156"/>
       <c r="D25" s="156"/>
@@ -29247,7 +29255,7 @@
       <c r="M25" s="156"/>
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="519"/>
+      <c r="A26" s="521"/>
       <c r="B26" s="205"/>
       <c r="C26" s="206"/>
       <c r="D26" s="206"/>
@@ -29264,7 +29272,7 @@
       <c r="M26" s="206"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="520">
+      <c r="A27" s="519">
         <v>4</v>
       </c>
       <c r="B27" s="209" t="s">
@@ -29299,7 +29307,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="518"/>
+      <c r="A28" s="520"/>
       <c r="B28" s="181" t="s">
         <v>701</v>
       </c>
@@ -29332,7 +29340,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="518"/>
+      <c r="A29" s="520"/>
       <c r="B29" s="181" t="s">
         <v>709</v>
       </c>
@@ -29355,7 +29363,7 @@
       <c r="M29" s="156"/>
     </row>
     <row r="30" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="518"/>
+      <c r="A30" s="520"/>
       <c r="B30" s="210" t="s">
         <v>713</v>
       </c>
@@ -29374,7 +29382,7 @@
       <c r="M30" s="156"/>
     </row>
     <row r="31" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="519"/>
+      <c r="A31" s="521"/>
       <c r="B31" s="203"/>
       <c r="C31" s="211" t="s">
         <v>715</v>
@@ -29391,7 +29399,7 @@
       <c r="M31" s="156"/>
     </row>
     <row r="32" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="520">
+      <c r="A32" s="519">
         <v>5</v>
       </c>
       <c r="B32" s="212" t="s">
@@ -29430,7 +29438,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="518"/>
+      <c r="A33" s="520"/>
       <c r="B33" s="181" t="s">
         <v>727</v>
       </c>
@@ -29461,7 +29469,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="518"/>
+      <c r="A34" s="520"/>
       <c r="B34" s="203"/>
       <c r="C34" s="156" t="s">
         <v>734</v>
@@ -29484,7 +29492,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="518"/>
+      <c r="A35" s="520"/>
       <c r="B35" s="220"/>
       <c r="C35" s="176" t="s">
         <v>738</v>
@@ -29505,7 +29513,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="518"/>
+      <c r="A36" s="520"/>
       <c r="B36" s="220"/>
       <c r="C36" s="189"/>
       <c r="D36" s="222"/>
@@ -29522,7 +29530,7 @@
       <c r="M36" s="221"/>
     </row>
     <row r="37" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="519"/>
+      <c r="A37" s="521"/>
       <c r="B37" s="205"/>
       <c r="C37" s="206"/>
       <c r="D37" s="206"/>
@@ -29541,7 +29549,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="520">
+      <c r="A38" s="519">
         <v>6</v>
       </c>
       <c r="B38" s="224" t="s">
@@ -29576,7 +29584,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="518"/>
+      <c r="A39" s="520"/>
       <c r="B39" s="173" t="s">
         <v>753</v>
       </c>
@@ -29607,7 +29615,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="518"/>
+      <c r="A40" s="520"/>
       <c r="B40" s="181" t="s">
         <v>761</v>
       </c>
@@ -29628,7 +29636,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="518"/>
+      <c r="A41" s="520"/>
       <c r="B41" s="203"/>
       <c r="C41" s="156"/>
       <c r="D41" s="156"/>
@@ -29645,7 +29653,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="519"/>
+      <c r="A42" s="521"/>
       <c r="B42" s="205"/>
       <c r="C42" s="206"/>
       <c r="D42" s="206"/>
@@ -29662,7 +29670,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="520">
+      <c r="A43" s="519">
         <v>7</v>
       </c>
       <c r="B43" s="230" t="s">
@@ -29701,7 +29709,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="518"/>
+      <c r="A44" s="520"/>
       <c r="B44" s="181" t="s">
         <v>776</v>
       </c>
@@ -29734,7 +29742,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="518"/>
+      <c r="A45" s="520"/>
       <c r="B45" s="173" t="s">
         <v>783</v>
       </c>
@@ -29759,7 +29767,7 @@
       <c r="M45" s="156"/>
     </row>
     <row r="46" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="518"/>
+      <c r="A46" s="520"/>
       <c r="B46" s="235" t="s">
         <v>788</v>
       </c>
@@ -29780,7 +29788,7 @@
       <c r="M46" s="221"/>
     </row>
     <row r="47" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="519"/>
+      <c r="A47" s="521"/>
       <c r="B47" s="183" t="s">
         <v>791</v>
       </c>
@@ -29799,7 +29807,7 @@
       <c r="M47" s="206"/>
     </row>
     <row r="48" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="520">
+      <c r="A48" s="519">
         <v>8</v>
       </c>
       <c r="B48" s="212" t="s">
@@ -29832,7 +29840,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="518"/>
+      <c r="A49" s="520"/>
       <c r="B49" s="336" t="s">
         <v>800</v>
       </c>
@@ -29861,7 +29869,7 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="518"/>
+      <c r="A50" s="520"/>
       <c r="B50" s="181" t="s">
         <v>807</v>
       </c>
@@ -29886,7 +29894,7 @@
       <c r="M50" s="156"/>
     </row>
     <row r="51" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="518"/>
+      <c r="A51" s="520"/>
       <c r="B51" s="242"/>
       <c r="C51" s="189" t="s">
         <v>812</v>
@@ -29905,7 +29913,7 @@
       <c r="M51" s="221"/>
     </row>
     <row r="52" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="519"/>
+      <c r="A52" s="521"/>
       <c r="B52" s="243"/>
       <c r="C52" s="244" t="s">
         <v>814</v>
@@ -29922,7 +29930,7 @@
       <c r="M52" s="245"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="520">
+      <c r="A53" s="519">
         <v>9</v>
       </c>
       <c r="B53" s="247" t="s">
@@ -29959,7 +29967,7 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="518"/>
+      <c r="A54" s="520"/>
       <c r="B54" s="252" t="s">
         <v>823</v>
       </c>
@@ -29986,7 +29994,7 @@
       <c r="M54" s="156"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="518"/>
+      <c r="A55" s="520"/>
       <c r="B55" s="201"/>
       <c r="C55" s="176" t="s">
         <v>2555</v>
@@ -30007,7 +30015,7 @@
       <c r="M55" s="156"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="519"/>
+      <c r="A56" s="521"/>
       <c r="B56" s="207"/>
       <c r="C56" s="207"/>
       <c r="D56" s="207"/>
@@ -30026,7 +30034,7 @@
       <c r="M56" s="206"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="520">
+      <c r="A57" s="519">
         <v>10</v>
       </c>
       <c r="B57" s="173" t="s">
@@ -30065,7 +30073,7 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="518"/>
+      <c r="A58" s="520"/>
       <c r="B58" s="181" t="s">
         <v>841</v>
       </c>
@@ -30092,7 +30100,7 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="518"/>
+      <c r="A59" s="520"/>
       <c r="B59" s="181" t="s">
         <v>847</v>
       </c>
@@ -30113,7 +30121,7 @@
       <c r="M59" s="156"/>
     </row>
     <row r="60" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="519"/>
+      <c r="A60" s="521"/>
       <c r="B60" s="205"/>
       <c r="C60" s="207" t="s">
         <v>2361</v>
@@ -30132,7 +30140,7 @@
       <c r="M60" s="206"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="520">
+      <c r="A61" s="519">
         <v>11</v>
       </c>
       <c r="B61" s="255" t="s">
@@ -30171,7 +30179,7 @@
       </c>
     </row>
     <row r="62" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="518"/>
+      <c r="A62" s="520"/>
       <c r="B62" s="257" t="s">
         <v>2545</v>
       </c>
@@ -30200,7 +30208,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="518"/>
+      <c r="A63" s="520"/>
       <c r="B63" s="481" t="s">
         <v>2549</v>
       </c>
@@ -30227,7 +30235,7 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="518"/>
+      <c r="A64" s="520"/>
       <c r="B64" s="181" t="s">
         <v>867</v>
       </c>
@@ -30246,7 +30254,7 @@
       <c r="M64" s="156"/>
     </row>
     <row r="65" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="519"/>
+      <c r="A65" s="521"/>
       <c r="B65" s="183" t="s">
         <v>2366</v>
       </c>
@@ -30263,7 +30271,7 @@
       <c r="M65" s="206"/>
     </row>
     <row r="66" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="517">
+      <c r="A66" s="524">
         <v>12</v>
       </c>
       <c r="B66" s="260" t="s">
@@ -30300,7 +30308,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="518"/>
+      <c r="A67" s="520"/>
       <c r="B67" s="181" t="s">
         <v>876</v>
       </c>
@@ -30331,7 +30339,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="518"/>
+      <c r="A68" s="520"/>
       <c r="B68" s="203" t="s">
         <v>884</v>
       </c>
@@ -30356,7 +30364,7 @@
       <c r="M68" s="156"/>
     </row>
     <row r="69" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="519"/>
+      <c r="A69" s="521"/>
       <c r="B69" s="205"/>
       <c r="C69" s="206"/>
       <c r="D69" s="207" t="s">
@@ -30375,7 +30383,7 @@
       <c r="M69" s="206"/>
     </row>
     <row r="70" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="517">
+      <c r="A70" s="524">
         <v>13</v>
       </c>
       <c r="B70" s="263" t="s">
@@ -30408,7 +30416,7 @@
       </c>
     </row>
     <row r="71" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="518"/>
+      <c r="A71" s="520"/>
       <c r="B71" s="181" t="s">
         <v>898</v>
       </c>
@@ -30437,7 +30445,7 @@
       </c>
     </row>
     <row r="72" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="518"/>
+      <c r="A72" s="520"/>
       <c r="B72" s="203"/>
       <c r="C72" s="241" t="s">
         <v>905</v>
@@ -30462,7 +30470,7 @@
       </c>
     </row>
     <row r="73" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="518"/>
+      <c r="A73" s="520"/>
       <c r="B73" s="203"/>
       <c r="C73" s="201"/>
       <c r="D73" s="156"/>
@@ -30483,7 +30491,7 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="518"/>
+      <c r="A74" s="520"/>
       <c r="B74" s="203"/>
       <c r="C74" s="156"/>
       <c r="D74" s="156"/>
@@ -30504,7 +30512,7 @@
       </c>
     </row>
     <row r="75" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="519"/>
+      <c r="A75" s="521"/>
       <c r="B75" s="205"/>
       <c r="C75" s="206"/>
       <c r="D75" s="206"/>
@@ -30521,7 +30529,7 @@
       <c r="M75" s="206"/>
     </row>
     <row r="76" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="517">
+      <c r="A76" s="524">
         <v>14</v>
       </c>
       <c r="B76" s="166" t="s">
@@ -30560,7 +30568,7 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="518"/>
+      <c r="A77" s="520"/>
       <c r="B77" s="181" t="s">
         <v>927</v>
       </c>
@@ -30591,7 +30599,7 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="518"/>
+      <c r="A78" s="520"/>
       <c r="B78" s="252" t="s">
         <v>2546</v>
       </c>
@@ -30620,7 +30628,7 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="518"/>
+      <c r="A79" s="520"/>
       <c r="B79" s="242"/>
       <c r="C79" s="189"/>
       <c r="D79" s="189"/>
@@ -30637,7 +30645,7 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="519"/>
+      <c r="A80" s="521"/>
       <c r="B80" s="205"/>
       <c r="C80" s="206"/>
       <c r="D80" s="207" t="s">
@@ -30656,7 +30664,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="517">
+      <c r="A81" s="524">
         <v>15</v>
       </c>
       <c r="B81" s="265" t="s">
@@ -30695,7 +30703,7 @@
       </c>
     </row>
     <row r="82" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="518"/>
+      <c r="A82" s="520"/>
       <c r="B82" s="178" t="s">
         <v>2550</v>
       </c>
@@ -30722,12 +30730,12 @@
       <c r="M82" s="156"/>
     </row>
     <row r="83" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="518"/>
+      <c r="A83" s="520"/>
       <c r="B83" s="203"/>
       <c r="C83" s="180" t="s">
         <v>956</v>
       </c>
-      <c r="D83" s="562"/>
+      <c r="D83" s="512"/>
       <c r="E83" s="156"/>
       <c r="F83" s="176" t="s">
         <v>957</v>
@@ -30741,7 +30749,7 @@
       <c r="M83" s="156"/>
     </row>
     <row r="84" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="519"/>
+      <c r="A84" s="521"/>
       <c r="B84" s="205"/>
       <c r="C84" s="183"/>
       <c r="D84" s="266" t="s">
@@ -30758,7 +30766,7 @@
       <c r="M84" s="205"/>
     </row>
     <row r="85" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="517">
+      <c r="A85" s="524">
         <v>16</v>
       </c>
       <c r="B85" s="267"/>
@@ -30791,7 +30799,7 @@
       </c>
     </row>
     <row r="86" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="518"/>
+      <c r="A86" s="520"/>
       <c r="B86" s="203"/>
       <c r="C86" s="180" t="s">
         <v>966</v>
@@ -30818,7 +30826,7 @@
       </c>
     </row>
     <row r="87" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="518"/>
+      <c r="A87" s="520"/>
       <c r="B87" s="203"/>
       <c r="C87" s="180" t="s">
         <v>971</v>
@@ -30837,7 +30845,7 @@
       <c r="M87" s="156"/>
     </row>
     <row r="88" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="518"/>
+      <c r="A88" s="520"/>
       <c r="B88" s="220"/>
       <c r="C88" s="242" t="s">
         <v>973</v>
@@ -30854,7 +30862,7 @@
       <c r="M88" s="221"/>
     </row>
     <row r="89" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="519"/>
+      <c r="A89" s="521"/>
       <c r="B89" s="205"/>
       <c r="C89" s="183" t="s">
         <v>974</v>
@@ -30871,7 +30879,7 @@
       <c r="M89" s="206"/>
     </row>
     <row r="90" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="517">
+      <c r="A90" s="524">
         <v>17</v>
       </c>
       <c r="B90" s="483" t="s">
@@ -30906,7 +30914,7 @@
       </c>
     </row>
     <row r="91" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="518"/>
+      <c r="A91" s="520"/>
       <c r="B91" s="203"/>
       <c r="C91" s="170" t="s">
         <v>983</v>
@@ -30933,7 +30941,7 @@
       </c>
     </row>
     <row r="92" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="518"/>
+      <c r="A92" s="520"/>
       <c r="B92" s="269"/>
       <c r="C92" s="270" t="s">
         <v>989</v>
@@ -30952,7 +30960,7 @@
       <c r="M92" s="221"/>
     </row>
     <row r="93" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="519"/>
+      <c r="A93" s="521"/>
       <c r="B93" s="271"/>
       <c r="C93" s="211" t="s">
         <v>991</v>
@@ -30969,7 +30977,7 @@
       <c r="M93" s="206"/>
     </row>
     <row r="94" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="517">
+      <c r="A94" s="524">
         <v>18</v>
       </c>
       <c r="B94" s="265" t="s">
@@ -31002,7 +31010,7 @@
       <c r="M94" s="184"/>
     </row>
     <row r="95" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="518"/>
+      <c r="A95" s="520"/>
       <c r="B95" s="181" t="s">
         <v>1000</v>
       </c>
@@ -31029,7 +31037,7 @@
       <c r="M95" s="156"/>
     </row>
     <row r="96" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="518"/>
+      <c r="A96" s="520"/>
       <c r="B96" s="235" t="s">
         <v>1006</v>
       </c>
@@ -31048,7 +31056,7 @@
       <c r="M96" s="221"/>
     </row>
     <row r="97" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="518"/>
+      <c r="A97" s="520"/>
       <c r="B97" s="273" t="s">
         <v>1008</v>
       </c>
@@ -31067,7 +31075,7 @@
       <c r="M97" s="156"/>
     </row>
     <row r="98" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="519"/>
+      <c r="A98" s="521"/>
       <c r="B98" s="183"/>
       <c r="C98" s="207" t="s">
         <v>1010</v>
@@ -31084,7 +31092,7 @@
       <c r="M98" s="206"/>
     </row>
     <row r="99" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="517">
+      <c r="A99" s="524">
         <v>19</v>
       </c>
       <c r="B99" s="265" t="s">
@@ -31121,7 +31129,7 @@
       </c>
     </row>
     <row r="100" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="518"/>
+      <c r="A100" s="520"/>
       <c r="B100" s="273" t="s">
         <v>1020</v>
       </c>
@@ -31148,7 +31156,7 @@
       </c>
     </row>
     <row r="101" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="518"/>
+      <c r="A101" s="520"/>
       <c r="B101" s="276"/>
       <c r="C101" s="180" t="s">
         <v>1025</v>
@@ -31171,7 +31179,7 @@
       </c>
     </row>
     <row r="102" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="518"/>
+      <c r="A102" s="520"/>
       <c r="B102" s="183"/>
       <c r="C102" s="207"/>
       <c r="D102" s="206"/>
@@ -31193,11 +31201,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A26"/>
-    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A85:A89"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="A90:A93"/>
     <mergeCell ref="A43:A47"/>
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A76:A80"/>
@@ -31207,14 +31215,15 @@
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="A61:A65"/>
     <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A85:A89"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="A32:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31273,6 +31282,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31281,8 +31291,8 @@
   <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31348,7 +31358,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="523">
+      <c r="A2" s="525">
         <v>3</v>
       </c>
       <c r="B2" s="60" t="s">
@@ -31390,7 +31400,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="524"/>
+      <c r="A3" s="526"/>
       <c r="B3" s="60" t="s">
         <v>1043</v>
       </c>
@@ -31428,7 +31438,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="524"/>
+      <c r="A4" s="526"/>
       <c r="B4" s="60"/>
       <c r="C4" s="61"/>
       <c r="D4" s="61" t="s">
@@ -31456,7 +31466,7 @@
       <c r="N4" s="61"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="524"/>
+      <c r="A5" s="526"/>
       <c r="B5" s="60"/>
       <c r="C5" s="61"/>
       <c r="D5" s="61"/>
@@ -31476,7 +31486,7 @@
       <c r="N5" s="61"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="524"/>
+      <c r="A6" s="526"/>
       <c r="B6" s="60"/>
       <c r="C6" s="61"/>
       <c r="D6" s="61"/>
@@ -31496,7 +31506,7 @@
       <c r="N6" s="61"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="525"/>
+      <c r="A7" s="527"/>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
       <c r="D7" s="67"/>
@@ -31514,7 +31524,7 @@
       <c r="N7" s="67"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="523">
+      <c r="A8" s="525">
         <v>4</v>
       </c>
       <c r="B8" s="68" t="s">
@@ -31532,7 +31542,9 @@
       <c r="F8" s="71" t="s">
         <v>1067</v>
       </c>
-      <c r="G8" s="70"/>
+      <c r="G8" s="70" t="s">
+        <v>2605</v>
+      </c>
       <c r="H8" s="70"/>
       <c r="I8" s="72" t="s">
         <v>1068</v>
@@ -31548,7 +31560,7 @@
       <c r="N8" s="70"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="524"/>
+      <c r="A9" s="526"/>
       <c r="B9" s="73" t="s">
         <v>1071</v>
       </c>
@@ -31578,7 +31590,7 @@
       <c r="N9" s="61"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="524"/>
+      <c r="A10" s="526"/>
       <c r="B10" s="60" t="s">
         <v>1078</v>
       </c>
@@ -31600,7 +31612,7 @@
       <c r="N10" s="71"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="524"/>
+      <c r="A11" s="526"/>
       <c r="B11" s="60"/>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
@@ -31618,7 +31630,7 @@
       <c r="N11" s="61"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="524"/>
+      <c r="A12" s="526"/>
       <c r="B12" s="60"/>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
@@ -31636,7 +31648,7 @@
       <c r="N12" s="61"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="524"/>
+      <c r="A13" s="526"/>
       <c r="B13" s="65"/>
       <c r="C13" s="76"/>
       <c r="D13" s="61"/>
@@ -31654,7 +31666,7 @@
       <c r="N13" s="61"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="525"/>
+      <c r="A14" s="527"/>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
@@ -31672,7 +31684,7 @@
       <c r="N14" s="67"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="523">
+      <c r="A15" s="525">
         <v>5</v>
       </c>
       <c r="B15" s="79" t="s">
@@ -31712,7 +31724,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="524"/>
+      <c r="A16" s="526"/>
       <c r="B16" s="60" t="s">
         <v>1095</v>
       </c>
@@ -31748,7 +31760,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="524"/>
+      <c r="A17" s="526"/>
       <c r="B17" s="80" t="s">
         <v>1105</v>
       </c>
@@ -31778,7 +31790,7 @@
       <c r="N17" s="61"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="524"/>
+      <c r="A18" s="526"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
@@ -31798,7 +31810,7 @@
       <c r="N18" s="61"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="524"/>
+      <c r="A19" s="526"/>
       <c r="B19" s="60"/>
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
@@ -31818,7 +31830,7 @@
       <c r="N19" s="61"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="524"/>
+      <c r="A20" s="526"/>
       <c r="B20" s="60"/>
       <c r="C20" s="61"/>
       <c r="D20" s="61"/>
@@ -31836,7 +31848,7 @@
       <c r="N20" s="61"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="524"/>
+      <c r="A21" s="526"/>
       <c r="B21" s="60"/>
       <c r="C21" s="61"/>
       <c r="D21" s="61"/>
@@ -31854,7 +31866,7 @@
       <c r="N21" s="61"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="524"/>
+      <c r="A22" s="526"/>
       <c r="B22" s="60"/>
       <c r="C22" s="61"/>
       <c r="D22" s="61"/>
@@ -31872,7 +31884,7 @@
       <c r="N22" s="61"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="524"/>
+      <c r="A23" s="526"/>
       <c r="B23" s="60"/>
       <c r="C23" s="61"/>
       <c r="D23" s="61"/>
@@ -31890,7 +31902,7 @@
       <c r="N23" s="61"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="525"/>
+      <c r="A24" s="527"/>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
       <c r="D24" s="67"/>
@@ -31908,7 +31920,7 @@
       <c r="N24" s="67"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="526">
+      <c r="A25" s="528">
         <v>6</v>
       </c>
       <c r="B25" s="70" t="s">
@@ -31946,7 +31958,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="527"/>
+      <c r="A26" s="529"/>
       <c r="B26" s="61"/>
       <c r="C26" s="61"/>
       <c r="D26" s="64" t="s">
@@ -31972,7 +31984,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="527"/>
+      <c r="A27" s="529"/>
       <c r="B27" s="61"/>
       <c r="C27" s="61"/>
       <c r="D27" s="61" t="s">
@@ -31996,7 +32008,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="527"/>
+      <c r="A28" s="529"/>
       <c r="B28" s="61"/>
       <c r="C28" s="61"/>
       <c r="D28" s="61"/>
@@ -32018,7 +32030,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="527"/>
+      <c r="A29" s="529"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
       <c r="D29" s="61"/>
@@ -32040,7 +32052,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="527"/>
+      <c r="A30" s="529"/>
       <c r="B30" s="61"/>
       <c r="C30" s="61"/>
       <c r="D30" s="61"/>
@@ -32058,7 +32070,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="528"/>
+      <c r="A31" s="530"/>
       <c r="B31" s="67"/>
       <c r="C31" s="67"/>
       <c r="D31" s="67"/>
@@ -32076,7 +32088,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="523" t="s">
+      <c r="A32" s="525" t="s">
         <v>2280</v>
       </c>
       <c r="B32" s="68" t="s">
@@ -32120,7 +32132,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="524"/>
+      <c r="A33" s="526"/>
       <c r="B33" s="60" t="s">
         <v>1153</v>
       </c>
@@ -32156,7 +32168,7 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="524"/>
+      <c r="A34" s="526"/>
       <c r="B34" s="69" t="s">
         <v>1162</v>
       </c>
@@ -32188,7 +32200,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="524"/>
+      <c r="A35" s="526"/>
       <c r="B35" s="85" t="s">
         <v>1169</v>
       </c>
@@ -32216,7 +32228,7 @@
       <c r="N35" s="61"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="524"/>
+      <c r="A36" s="526"/>
       <c r="B36" s="69"/>
       <c r="C36" s="61"/>
       <c r="D36" s="62" t="s">
@@ -32238,7 +32250,7 @@
       <c r="N36" s="61"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="524"/>
+      <c r="A37" s="526"/>
       <c r="B37" s="60"/>
       <c r="C37" s="61"/>
       <c r="D37" s="61"/>
@@ -32258,7 +32270,7 @@
       <c r="N37" s="61"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="524"/>
+      <c r="A38" s="526"/>
       <c r="B38" s="60"/>
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
@@ -32278,7 +32290,7 @@
       <c r="N38" s="61"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="524"/>
+      <c r="A39" s="526"/>
       <c r="B39" s="60"/>
       <c r="C39" s="61"/>
       <c r="D39" s="61"/>
@@ -32296,7 +32308,7 @@
       <c r="N39" s="61"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="525"/>
+      <c r="A40" s="527"/>
       <c r="B40" s="66"/>
       <c r="C40" s="67"/>
       <c r="D40" s="67"/>
@@ -32314,7 +32326,7 @@
       <c r="N40" s="67"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="523">
+      <c r="A41" s="525">
         <v>8</v>
       </c>
       <c r="B41" s="68" t="s">
@@ -32354,7 +32366,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="524"/>
+      <c r="A42" s="526"/>
       <c r="B42" s="60"/>
       <c r="C42" s="74" t="s">
         <v>1193</v>
@@ -32386,7 +32398,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="524"/>
+      <c r="A43" s="526"/>
       <c r="B43" s="60"/>
       <c r="C43" s="61" t="s">
         <v>1201</v>
@@ -32416,7 +32428,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="524"/>
+      <c r="A44" s="526"/>
       <c r="B44" s="60"/>
       <c r="C44" s="61"/>
       <c r="D44" s="61" t="s">
@@ -32440,7 +32452,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="525"/>
+      <c r="A45" s="527"/>
       <c r="B45" s="66"/>
       <c r="C45" s="87"/>
       <c r="D45" s="67" t="s">
@@ -32458,7 +32470,7 @@
       <c r="N45" s="67"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="523">
+      <c r="A46" s="525">
         <v>9</v>
       </c>
       <c r="B46" s="68" t="s">
@@ -32494,7 +32506,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="524"/>
+      <c r="A47" s="526"/>
       <c r="B47" s="69" t="s">
         <v>1220</v>
       </c>
@@ -32524,7 +32536,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="524"/>
+      <c r="A48" s="526"/>
       <c r="B48" s="60"/>
       <c r="C48" s="61"/>
       <c r="D48" s="61" t="s">
@@ -32552,7 +32564,7 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="524"/>
+      <c r="A49" s="526"/>
       <c r="B49" s="60"/>
       <c r="C49" s="61"/>
       <c r="D49" s="61" t="s">
@@ -32576,7 +32588,7 @@
       <c r="N49" s="61"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="524"/>
+      <c r="A50" s="526"/>
       <c r="B50" s="60"/>
       <c r="C50" s="61"/>
       <c r="D50" s="61" t="s">
@@ -32600,7 +32612,7 @@
       <c r="N50" s="61"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="524"/>
+      <c r="A51" s="526"/>
       <c r="B51" s="88"/>
       <c r="C51" s="71"/>
       <c r="D51" s="61" t="s">
@@ -32622,7 +32634,7 @@
       <c r="N51" s="71"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="524"/>
+      <c r="A52" s="526"/>
       <c r="B52" s="88"/>
       <c r="C52" s="71"/>
       <c r="D52" s="61"/>
@@ -32640,7 +32652,7 @@
       <c r="N52" s="71"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="524"/>
+      <c r="A53" s="526"/>
       <c r="B53" s="88"/>
       <c r="C53" s="71"/>
       <c r="D53" s="61"/>
@@ -32658,7 +32670,7 @@
       <c r="N53" s="71"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="525"/>
+      <c r="A54" s="527"/>
       <c r="B54" s="66"/>
       <c r="C54" s="67"/>
       <c r="D54" s="67"/>
@@ -32676,7 +32688,7 @@
       <c r="N54" s="67"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="523">
+      <c r="A55" s="525">
         <v>10</v>
       </c>
       <c r="B55" s="79" t="s">
@@ -32716,7 +32728,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="524"/>
+      <c r="A56" s="526"/>
       <c r="B56" s="60"/>
       <c r="C56" s="61" t="s">
         <v>1253</v>
@@ -32748,7 +32760,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="524"/>
+      <c r="A57" s="526"/>
       <c r="B57" s="60"/>
       <c r="C57" s="61"/>
       <c r="D57" s="61"/>
@@ -32776,7 +32788,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="524"/>
+      <c r="A58" s="526"/>
       <c r="B58" s="60"/>
       <c r="C58" s="61"/>
       <c r="D58" s="61"/>
@@ -32800,7 +32812,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="524"/>
+      <c r="A59" s="526"/>
       <c r="B59" s="88"/>
       <c r="C59" s="71"/>
       <c r="D59" s="71"/>
@@ -32820,7 +32832,7 @@
       <c r="N59" s="71"/>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="524"/>
+      <c r="A60" s="526"/>
       <c r="B60" s="88"/>
       <c r="C60" s="71"/>
       <c r="D60" s="71"/>
@@ -32840,7 +32852,7 @@
       <c r="N60" s="71"/>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="525"/>
+      <c r="A61" s="527"/>
       <c r="B61" s="66"/>
       <c r="C61" s="67"/>
       <c r="D61" s="67"/>
@@ -32862,7 +32874,7 @@
       <c r="N61" s="67"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="523">
+      <c r="A62" s="525">
         <v>11</v>
       </c>
       <c r="B62" s="68" t="s">
@@ -32902,7 +32914,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="524"/>
+      <c r="A63" s="526"/>
       <c r="B63" s="60" t="s">
         <v>1286</v>
       </c>
@@ -32936,7 +32948,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="524"/>
+      <c r="A64" s="526"/>
       <c r="B64" s="60" t="s">
         <v>2566</v>
       </c>
@@ -32966,7 +32978,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="524"/>
+      <c r="A65" s="526"/>
       <c r="B65" s="90" t="s">
         <v>1299</v>
       </c>
@@ -32992,7 +33004,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="525"/>
+      <c r="A66" s="527"/>
       <c r="B66" s="66"/>
       <c r="C66" s="67"/>
       <c r="D66" s="67"/>
@@ -33012,7 +33024,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="523">
+      <c r="A67" s="525">
         <v>12</v>
       </c>
       <c r="B67" s="68"/>
@@ -33050,7 +33062,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="524"/>
+      <c r="A68" s="526"/>
       <c r="B68" s="60"/>
       <c r="C68" s="61"/>
       <c r="D68" s="61" t="s">
@@ -33082,7 +33094,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="524"/>
+      <c r="A69" s="526"/>
       <c r="B69" s="60"/>
       <c r="C69" s="61"/>
       <c r="D69" s="61" t="s">
@@ -33112,7 +33124,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="524"/>
+      <c r="A70" s="526"/>
       <c r="B70" s="88"/>
       <c r="C70" s="71"/>
       <c r="D70" s="71"/>
@@ -33134,7 +33146,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="524"/>
+      <c r="A71" s="526"/>
       <c r="B71" s="88"/>
       <c r="C71" s="71"/>
       <c r="D71" s="71"/>
@@ -33154,7 +33166,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="525"/>
+      <c r="A72" s="527"/>
       <c r="B72" s="66"/>
       <c r="C72" s="67"/>
       <c r="D72" s="67"/>
@@ -33172,7 +33184,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="523">
+      <c r="A73" s="525">
         <v>13</v>
       </c>
       <c r="B73" s="68"/>
@@ -33210,7 +33222,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="524"/>
+      <c r="A74" s="526"/>
       <c r="B74" s="60"/>
       <c r="C74" s="61" t="s">
         <v>1340</v>
@@ -33242,7 +33254,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="524"/>
+      <c r="A75" s="526"/>
       <c r="B75" s="60"/>
       <c r="C75" s="61"/>
       <c r="D75" s="62" t="s">
@@ -33272,7 +33284,7 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="524"/>
+      <c r="A76" s="526"/>
       <c r="B76" s="60"/>
       <c r="C76" s="61"/>
       <c r="D76" s="61" t="s">
@@ -33300,7 +33312,7 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="524"/>
+      <c r="A77" s="526"/>
       <c r="B77" s="60"/>
       <c r="C77" s="61"/>
       <c r="D77" s="61"/>
@@ -33322,7 +33334,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="524"/>
+      <c r="A78" s="526"/>
       <c r="B78" s="60"/>
       <c r="C78" s="61"/>
       <c r="D78" s="61"/>
@@ -33340,7 +33352,7 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="525"/>
+      <c r="A79" s="527"/>
       <c r="B79" s="66"/>
       <c r="C79" s="67"/>
       <c r="D79" s="67"/>
@@ -33358,7 +33370,7 @@
       </c>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="523">
+      <c r="A80" s="525">
         <v>14</v>
       </c>
       <c r="B80" s="68"/>
@@ -33394,7 +33406,7 @@
       </c>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="524"/>
+      <c r="A81" s="526"/>
       <c r="B81" s="60"/>
       <c r="C81" s="61"/>
       <c r="D81" s="61" t="s">
@@ -33424,7 +33436,7 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="524"/>
+      <c r="A82" s="526"/>
       <c r="B82" s="60"/>
       <c r="C82" s="61"/>
       <c r="D82" s="61"/>
@@ -33448,7 +33460,7 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="524"/>
+      <c r="A83" s="526"/>
       <c r="B83" s="60"/>
       <c r="C83" s="61"/>
       <c r="D83" s="61"/>
@@ -33470,7 +33482,7 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="524"/>
+      <c r="A84" s="526"/>
       <c r="B84" s="60"/>
       <c r="C84" s="61"/>
       <c r="D84" s="61"/>
@@ -33490,7 +33502,7 @@
       <c r="N84" s="61"/>
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="524"/>
+      <c r="A85" s="526"/>
       <c r="B85" s="60"/>
       <c r="C85" s="61"/>
       <c r="D85" s="61"/>
@@ -33510,7 +33522,7 @@
       <c r="N85" s="61"/>
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="524"/>
+      <c r="A86" s="526"/>
       <c r="B86" s="60"/>
       <c r="C86" s="61"/>
       <c r="D86" s="61"/>
@@ -33528,7 +33540,7 @@
       <c r="N86" s="61"/>
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="525"/>
+      <c r="A87" s="527"/>
       <c r="B87" s="66"/>
       <c r="C87" s="67"/>
       <c r="D87" s="67"/>
@@ -33548,7 +33560,7 @@
       <c r="N87" s="67"/>
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="523">
+      <c r="A88" s="525">
         <v>15</v>
       </c>
       <c r="B88" s="68" t="s">
@@ -33588,7 +33600,7 @@
       </c>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="524"/>
+      <c r="A89" s="526"/>
       <c r="B89" s="60"/>
       <c r="C89" s="61"/>
       <c r="D89" s="61" t="s">
@@ -33620,7 +33632,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="524"/>
+      <c r="A90" s="526"/>
       <c r="B90" s="60"/>
       <c r="C90" s="61"/>
       <c r="D90" s="61" t="s">
@@ -33646,7 +33658,7 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="524"/>
+      <c r="A91" s="526"/>
       <c r="B91" s="60"/>
       <c r="C91" s="61"/>
       <c r="D91" s="61" t="s">
@@ -33672,7 +33684,7 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="525"/>
+      <c r="A92" s="527"/>
       <c r="B92" s="88"/>
       <c r="C92" s="71"/>
       <c r="D92" s="71"/>
@@ -33694,7 +33706,7 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="523">
+      <c r="A93" s="525">
         <v>16</v>
       </c>
       <c r="B93" s="99"/>
@@ -33732,7 +33744,7 @@
       </c>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="524"/>
+      <c r="A94" s="526"/>
       <c r="B94" s="85"/>
       <c r="C94" s="61" t="s">
         <v>1428</v>
@@ -33766,7 +33778,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="524"/>
+      <c r="A95" s="526"/>
       <c r="B95" s="85"/>
       <c r="C95" s="61" t="s">
         <v>2563</v>
@@ -33800,7 +33812,7 @@
       </c>
     </row>
     <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="524"/>
+      <c r="A96" s="526"/>
       <c r="B96" s="85"/>
       <c r="C96" s="61"/>
       <c r="D96" s="71" t="s">
@@ -33828,7 +33840,7 @@
       </c>
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="524"/>
+      <c r="A97" s="526"/>
       <c r="B97" s="85"/>
       <c r="C97" s="91"/>
       <c r="D97" s="61" t="s">
@@ -33852,7 +33864,7 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="525"/>
+      <c r="A98" s="527"/>
       <c r="B98" s="101"/>
       <c r="C98" s="67"/>
       <c r="D98" s="77"/>
@@ -33870,7 +33882,7 @@
       <c r="N98" s="78"/>
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="523">
+      <c r="A99" s="525">
         <v>17</v>
       </c>
       <c r="B99" s="68"/>
@@ -33910,7 +33922,7 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="524"/>
+      <c r="A100" s="526"/>
       <c r="B100" s="60"/>
       <c r="C100" s="61" t="s">
         <v>1464</v>
@@ -33944,7 +33956,7 @@
       </c>
     </row>
     <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="524"/>
+      <c r="A101" s="526"/>
       <c r="B101" s="60"/>
       <c r="C101" s="61"/>
       <c r="D101" s="61" t="s">
@@ -33976,7 +33988,7 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="524"/>
+      <c r="A102" s="526"/>
       <c r="B102" s="60"/>
       <c r="C102" s="61"/>
       <c r="D102" s="61" t="s">
@@ -34002,7 +34014,7 @@
       </c>
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="524"/>
+      <c r="A103" s="526"/>
       <c r="B103" s="60"/>
       <c r="C103" s="61"/>
       <c r="D103" s="61" t="s">
@@ -34026,7 +34038,7 @@
       </c>
     </row>
     <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="524"/>
+      <c r="A104" s="526"/>
       <c r="B104" s="60"/>
       <c r="C104" s="61"/>
       <c r="D104" s="61" t="s">
@@ -34046,7 +34058,7 @@
       <c r="N104" s="61"/>
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="525"/>
+      <c r="A105" s="527"/>
       <c r="B105" s="66"/>
       <c r="C105" s="67"/>
       <c r="D105" s="77"/>
@@ -34064,7 +34076,7 @@
       <c r="N105" s="67"/>
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="523">
+      <c r="A106" s="525">
         <v>18</v>
       </c>
       <c r="B106" s="68"/>
@@ -34098,7 +34110,7 @@
       </c>
     </row>
     <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="524"/>
+      <c r="A107" s="526"/>
       <c r="B107" s="60"/>
       <c r="C107" s="61"/>
       <c r="D107" s="61" t="s">
@@ -34126,7 +34138,7 @@
       </c>
     </row>
     <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="524"/>
+      <c r="A108" s="526"/>
       <c r="B108" s="60"/>
       <c r="C108" s="61"/>
       <c r="D108" s="61" t="s">
@@ -34154,7 +34166,7 @@
       </c>
     </row>
     <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="524"/>
+      <c r="A109" s="526"/>
       <c r="B109" s="60"/>
       <c r="C109" s="61"/>
       <c r="D109" s="61" t="s">
@@ -34180,7 +34192,7 @@
       </c>
     </row>
     <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="524"/>
+      <c r="A110" s="526"/>
       <c r="B110" s="60"/>
       <c r="C110" s="61"/>
       <c r="D110" s="61" t="s">
@@ -34202,7 +34214,7 @@
       <c r="N110" s="61"/>
     </row>
     <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="524"/>
+      <c r="A111" s="526"/>
       <c r="B111" s="60"/>
       <c r="C111" s="61"/>
       <c r="D111" s="61" t="s">
@@ -34222,7 +34234,7 @@
       <c r="N111" s="61"/>
     </row>
     <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="524"/>
+      <c r="A112" s="526"/>
       <c r="B112" s="60"/>
       <c r="C112" s="61"/>
       <c r="D112" s="61" t="s">
@@ -34242,7 +34254,7 @@
       <c r="N112" s="61"/>
     </row>
     <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="524"/>
+      <c r="A113" s="526"/>
       <c r="B113" s="60"/>
       <c r="C113" s="61"/>
       <c r="D113" s="61" t="s">
@@ -34262,7 +34274,7 @@
       <c r="N113" s="61"/>
     </row>
     <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="525"/>
+      <c r="A114" s="527"/>
       <c r="B114" s="66"/>
       <c r="C114" s="67"/>
       <c r="D114" s="67" t="s">
@@ -34280,7 +34292,7 @@
       <c r="N114" s="67"/>
     </row>
     <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="523">
+      <c r="A115" s="525">
         <v>19</v>
       </c>
       <c r="B115" s="68"/>
@@ -34316,7 +34328,7 @@
       </c>
     </row>
     <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="524"/>
+      <c r="A116" s="526"/>
       <c r="B116" s="60"/>
       <c r="C116" s="64" t="s">
         <v>1530</v>
@@ -34346,7 +34358,7 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="524"/>
+      <c r="A117" s="526"/>
       <c r="B117" s="60"/>
       <c r="C117" s="61" t="s">
         <v>1536</v>
@@ -34376,7 +34388,7 @@
       </c>
     </row>
     <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="524"/>
+      <c r="A118" s="526"/>
       <c r="B118" s="60"/>
       <c r="C118" s="102" t="s">
         <v>1542</v>
@@ -34402,7 +34414,7 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="524"/>
+      <c r="A119" s="526"/>
       <c r="B119" s="103"/>
       <c r="C119" s="61" t="s">
         <v>1547</v>
@@ -34426,7 +34438,7 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="524"/>
+      <c r="A120" s="526"/>
       <c r="B120" s="60"/>
       <c r="C120" s="70"/>
       <c r="D120" s="61" t="s">
@@ -34444,7 +34456,7 @@
       <c r="N120" s="61"/>
     </row>
     <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="524"/>
+      <c r="A121" s="526"/>
       <c r="B121" s="60"/>
       <c r="C121" s="61"/>
       <c r="D121" s="62" t="s">
@@ -34462,7 +34474,7 @@
       <c r="N121" s="61"/>
     </row>
     <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="525"/>
+      <c r="A122" s="527"/>
       <c r="B122" s="66"/>
       <c r="C122" s="77"/>
       <c r="D122" s="67" t="s">
@@ -34480,7 +34492,7 @@
       <c r="N122" s="67"/>
     </row>
     <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="523">
+      <c r="A123" s="525">
         <v>20</v>
       </c>
       <c r="B123" s="68"/>
@@ -34518,7 +34530,7 @@
       </c>
     </row>
     <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="524"/>
+      <c r="A124" s="526"/>
       <c r="B124" s="60"/>
       <c r="C124" s="61"/>
       <c r="D124" s="61" t="s">
@@ -34546,7 +34558,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="524"/>
+      <c r="A125" s="526"/>
       <c r="B125" s="60"/>
       <c r="C125" s="61"/>
       <c r="D125" s="61" t="s">
@@ -34572,7 +34584,7 @@
       </c>
     </row>
     <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="524"/>
+      <c r="A126" s="526"/>
       <c r="B126" s="60"/>
       <c r="C126" s="61"/>
       <c r="D126" s="61"/>
@@ -34594,7 +34606,7 @@
       </c>
     </row>
     <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="524"/>
+      <c r="A127" s="526"/>
       <c r="B127" s="60"/>
       <c r="C127" s="61"/>
       <c r="D127" s="61"/>
@@ -34616,7 +34628,7 @@
       </c>
     </row>
     <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="524"/>
+      <c r="A128" s="526"/>
       <c r="B128" s="60"/>
       <c r="C128" s="61"/>
       <c r="D128" s="61"/>
@@ -34636,7 +34648,7 @@
       <c r="N128" s="61"/>
     </row>
     <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="524"/>
+      <c r="A129" s="526"/>
       <c r="B129" s="60"/>
       <c r="C129" s="61"/>
       <c r="D129" s="61"/>
@@ -34656,7 +34668,7 @@
       <c r="N129" s="61"/>
     </row>
     <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="525"/>
+      <c r="A130" s="527"/>
       <c r="B130" s="66"/>
       <c r="C130" s="67"/>
       <c r="D130" s="67"/>
@@ -34674,7 +34686,7 @@
       <c r="N130" s="67"/>
     </row>
     <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="523">
+      <c r="A131" s="525">
         <v>21</v>
       </c>
       <c r="B131" s="68" t="s">
@@ -34710,7 +34722,7 @@
       </c>
     </row>
     <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="524"/>
+      <c r="A132" s="526"/>
       <c r="B132" s="60"/>
       <c r="C132" s="61"/>
       <c r="D132" s="61" t="s">
@@ -34738,7 +34750,7 @@
       </c>
     </row>
     <row r="133" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="524"/>
+      <c r="A133" s="526"/>
       <c r="B133" s="60"/>
       <c r="C133" s="61"/>
       <c r="D133" s="62" t="s">
@@ -34764,7 +34776,7 @@
       </c>
     </row>
     <row r="134" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="524"/>
+      <c r="A134" s="526"/>
       <c r="B134" s="60"/>
       <c r="C134" s="61"/>
       <c r="D134" s="61" t="s">
@@ -34790,7 +34802,7 @@
       </c>
     </row>
     <row r="135" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="524"/>
+      <c r="A135" s="526"/>
       <c r="B135" s="60"/>
       <c r="C135" s="61"/>
       <c r="D135" s="61" t="s">
@@ -34812,7 +34824,7 @@
       </c>
     </row>
     <row r="136" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="524"/>
+      <c r="A136" s="526"/>
       <c r="B136" s="60"/>
       <c r="C136" s="61"/>
       <c r="D136" s="61" t="s">
@@ -34834,7 +34846,7 @@
       </c>
     </row>
     <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="524"/>
+      <c r="A137" s="526"/>
       <c r="B137" s="60"/>
       <c r="C137" s="61"/>
       <c r="D137" s="61" t="s">
@@ -34856,7 +34868,7 @@
       </c>
     </row>
     <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="524"/>
+      <c r="A138" s="526"/>
       <c r="B138" s="60"/>
       <c r="C138" s="61"/>
       <c r="D138" s="61" t="s">
@@ -34874,7 +34886,7 @@
       <c r="N138" s="61"/>
     </row>
     <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="525"/>
+      <c r="A139" s="527"/>
       <c r="B139" s="66"/>
       <c r="C139" s="67"/>
       <c r="D139" s="67" t="s">
@@ -34894,7 +34906,7 @@
       <c r="N139" s="67"/>
     </row>
     <row r="140" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="523">
+      <c r="A140" s="525">
         <v>22</v>
       </c>
       <c r="B140" s="68" t="s">
@@ -34932,7 +34944,7 @@
       </c>
     </row>
     <row r="141" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="524"/>
+      <c r="A141" s="526"/>
       <c r="B141" s="60"/>
       <c r="C141" s="61" t="s">
         <v>1622</v>
@@ -34964,7 +34976,7 @@
       </c>
     </row>
     <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="524"/>
+      <c r="A142" s="526"/>
       <c r="B142" s="60"/>
       <c r="C142" s="61"/>
       <c r="D142" s="61"/>
@@ -34990,7 +35002,7 @@
       </c>
     </row>
     <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="524"/>
+      <c r="A143" s="526"/>
       <c r="B143" s="60"/>
       <c r="C143" s="61"/>
       <c r="D143" s="61"/>
@@ -35012,7 +35024,7 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="524"/>
+      <c r="A144" s="526"/>
       <c r="B144" s="60"/>
       <c r="C144" s="61"/>
       <c r="D144" s="61"/>
@@ -35034,7 +35046,7 @@
       </c>
     </row>
     <row r="145" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="525"/>
+      <c r="A145" s="527"/>
       <c r="B145" s="66"/>
       <c r="C145" s="67"/>
       <c r="D145" s="67"/>
@@ -35052,7 +35064,7 @@
       <c r="N145" s="67"/>
     </row>
     <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="523">
+      <c r="A146" s="525">
         <v>23</v>
       </c>
       <c r="B146" s="68" t="s">
@@ -35086,7 +35098,7 @@
       </c>
     </row>
     <row r="147" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="524"/>
+      <c r="A147" s="526"/>
       <c r="B147" s="60"/>
       <c r="C147" s="61"/>
       <c r="D147" s="61" t="s">
@@ -35110,7 +35122,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="524"/>
+      <c r="A148" s="526"/>
       <c r="B148" s="60"/>
       <c r="C148" s="61"/>
       <c r="D148" s="62" t="s">
@@ -35134,7 +35146,7 @@
       </c>
     </row>
     <row r="149" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="524"/>
+      <c r="A149" s="526"/>
       <c r="B149" s="60"/>
       <c r="C149" s="61"/>
       <c r="D149" s="61"/>
@@ -35156,7 +35168,7 @@
       </c>
     </row>
     <row r="150" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="524"/>
+      <c r="A150" s="526"/>
       <c r="B150" s="60"/>
       <c r="C150" s="61"/>
       <c r="D150" s="61"/>
@@ -35176,7 +35188,7 @@
       </c>
     </row>
     <row r="151" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="524"/>
+      <c r="A151" s="526"/>
       <c r="B151" s="60"/>
       <c r="C151" s="61"/>
       <c r="D151" s="61" t="s">
@@ -35198,7 +35210,7 @@
       </c>
     </row>
     <row r="152" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="524"/>
+      <c r="A152" s="526"/>
       <c r="B152" s="60"/>
       <c r="C152" s="61"/>
       <c r="D152" s="61"/>
@@ -35218,7 +35230,7 @@
       </c>
     </row>
     <row r="153" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="524"/>
+      <c r="A153" s="526"/>
       <c r="B153" s="60"/>
       <c r="C153" s="61"/>
       <c r="D153" s="61"/>
@@ -35236,7 +35248,7 @@
       </c>
     </row>
     <row r="154" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="524"/>
+      <c r="A154" s="526"/>
       <c r="B154" s="60"/>
       <c r="C154" s="61"/>
       <c r="D154" s="61"/>
@@ -35254,7 +35266,7 @@
       </c>
     </row>
     <row r="155" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="524"/>
+      <c r="A155" s="526"/>
       <c r="B155" s="60"/>
       <c r="C155" s="61"/>
       <c r="D155" s="61"/>
@@ -35272,7 +35284,7 @@
       </c>
     </row>
     <row r="156" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="524"/>
+      <c r="A156" s="526"/>
       <c r="B156" s="60"/>
       <c r="C156" s="61"/>
       <c r="D156" s="61"/>
@@ -35290,7 +35302,7 @@
       </c>
     </row>
     <row r="157" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="525"/>
+      <c r="A157" s="527"/>
       <c r="B157" s="66"/>
       <c r="C157" s="67"/>
       <c r="D157" s="106" t="s">
@@ -35310,7 +35322,7 @@
       </c>
     </row>
     <row r="158" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="523">
+      <c r="A158" s="525">
         <v>24</v>
       </c>
       <c r="B158" s="68"/>
@@ -35348,7 +35360,7 @@
       </c>
     </row>
     <row r="159" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="524"/>
+      <c r="A159" s="526"/>
       <c r="B159" s="60"/>
       <c r="C159" s="61"/>
       <c r="D159" s="62" t="s">
@@ -35374,7 +35386,7 @@
       </c>
     </row>
     <row r="160" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="524"/>
+      <c r="A160" s="526"/>
       <c r="B160" s="60"/>
       <c r="C160" s="61"/>
       <c r="D160" s="61"/>
@@ -35396,7 +35408,7 @@
       </c>
     </row>
     <row r="161" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="524"/>
+      <c r="A161" s="526"/>
       <c r="B161" s="60"/>
       <c r="C161" s="61"/>
       <c r="D161" s="61"/>
@@ -35418,7 +35430,7 @@
       </c>
     </row>
     <row r="162" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="524"/>
+      <c r="A162" s="526"/>
       <c r="B162" s="60"/>
       <c r="C162" s="61"/>
       <c r="D162" s="61"/>
@@ -35438,7 +35450,7 @@
       </c>
     </row>
     <row r="163" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="525"/>
+      <c r="A163" s="527"/>
       <c r="B163" s="66"/>
       <c r="C163" s="67"/>
       <c r="D163" s="67"/>
@@ -35462,7 +35474,7 @@
       </c>
     </row>
     <row r="164" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="523">
+      <c r="A164" s="525">
         <v>25</v>
       </c>
       <c r="B164" s="68" t="s">
@@ -35502,7 +35514,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="524"/>
+      <c r="A165" s="526"/>
       <c r="B165" s="60"/>
       <c r="C165" s="61" t="s">
         <v>1705</v>
@@ -35528,7 +35540,7 @@
       </c>
     </row>
     <row r="166" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="524"/>
+      <c r="A166" s="526"/>
       <c r="B166" s="60"/>
       <c r="C166" s="61" t="s">
         <v>1710</v>
@@ -35554,7 +35566,7 @@
       </c>
     </row>
     <row r="167" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="524"/>
+      <c r="A167" s="526"/>
       <c r="B167" s="60"/>
       <c r="C167" s="61" t="s">
         <v>2399</v>
@@ -35578,7 +35590,7 @@
       </c>
     </row>
     <row r="168" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="524"/>
+      <c r="A168" s="526"/>
       <c r="B168" s="60"/>
       <c r="C168" s="61"/>
       <c r="D168" s="61"/>
@@ -35598,7 +35610,7 @@
       </c>
     </row>
     <row r="169" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="525"/>
+      <c r="A169" s="527"/>
       <c r="B169" s="66"/>
       <c r="C169" s="77"/>
       <c r="D169" s="67"/>
@@ -35619,6 +35631,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A41:A45"/>
     <mergeCell ref="A158:A163"/>
     <mergeCell ref="A164:A169"/>
     <mergeCell ref="A99:A105"/>
@@ -35632,19 +35654,10 @@
     <mergeCell ref="A123:A130"/>
     <mergeCell ref="A115:A122"/>
     <mergeCell ref="A146:A157"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A73:A79"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A41:A45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -35685,6 +35698,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -35754,7 +35768,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="538">
+      <c r="A2" s="533">
         <v>1</v>
       </c>
       <c r="B2" s="29"/>
@@ -35781,7 +35795,7 @@
       <c r="M2" s="31"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="539"/>
+      <c r="A3" s="534"/>
       <c r="B3" s="35"/>
       <c r="C3" s="339" t="s">
         <v>536</v>
@@ -35800,7 +35814,7 @@
       <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="540">
+      <c r="A4" s="535">
         <v>2</v>
       </c>
       <c r="B4" s="38"/>
@@ -35823,7 +35837,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="541"/>
+      <c r="A5" s="536"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40" t="s">
         <v>540</v>
@@ -35861,7 +35875,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="532">
+      <c r="A7" s="537">
         <v>4</v>
       </c>
       <c r="B7" s="45" t="s">
@@ -35890,7 +35904,7 @@
       <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="533"/>
+      <c r="A8" s="538"/>
       <c r="B8" s="35"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -35907,7 +35921,7 @@
       <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="529">
+      <c r="A9" s="531">
         <v>5</v>
       </c>
       <c r="B9" s="29" t="s">
@@ -35936,7 +35950,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="531"/>
+      <c r="A10" s="532"/>
       <c r="B10" s="35" t="s">
         <v>551</v>
       </c>
@@ -35978,7 +35992,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="529">
+      <c r="A12" s="531">
         <v>7</v>
       </c>
       <c r="B12" s="29"/>
@@ -36005,7 +36019,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="530"/>
+      <c r="A13" s="539"/>
       <c r="B13" s="50"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
@@ -36024,7 +36038,7 @@
       <c r="M13" s="51"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="531"/>
+      <c r="A14" s="532"/>
       <c r="B14" s="35"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
@@ -36041,7 +36055,7 @@
       <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="532">
+      <c r="A15" s="537">
         <v>8</v>
       </c>
       <c r="B15" s="338" t="s">
@@ -36070,7 +36084,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="533"/>
+      <c r="A16" s="538"/>
       <c r="B16" s="35"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -36087,7 +36101,7 @@
       <c r="M16" s="32"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="529">
+      <c r="A17" s="531">
         <v>9</v>
       </c>
       <c r="B17" s="38"/>
@@ -36112,7 +36126,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="531"/>
+      <c r="A18" s="532"/>
       <c r="B18" s="39"/>
       <c r="C18" s="32" t="s">
         <v>559</v>
@@ -36129,7 +36143,7 @@
       <c r="M18" s="32"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="532">
+      <c r="A19" s="537">
         <v>10</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -36156,7 +36170,7 @@
       <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="533"/>
+      <c r="A20" s="538"/>
       <c r="B20" s="35"/>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
@@ -36173,7 +36187,7 @@
       <c r="M20" s="32"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="529">
+      <c r="A21" s="531">
         <v>11</v>
       </c>
       <c r="B21" s="343" t="s">
@@ -36202,7 +36216,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="531"/>
+      <c r="A22" s="532"/>
       <c r="B22" s="35"/>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -36219,7 +36233,7 @@
       <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="532">
+      <c r="A23" s="537">
         <v>12</v>
       </c>
       <c r="B23" s="29"/>
@@ -36246,7 +36260,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="533"/>
+      <c r="A24" s="538"/>
       <c r="B24" s="35"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -36263,7 +36277,7 @@
       <c r="M24" s="32"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="529">
+      <c r="A25" s="531">
         <v>13</v>
       </c>
       <c r="B25" s="494" t="s">
@@ -36286,7 +36300,7 @@
       <c r="M25" s="31"/>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="531"/>
+      <c r="A26" s="532"/>
       <c r="B26" s="35"/>
       <c r="C26" s="32"/>
       <c r="D26" s="32"/>
@@ -36324,7 +36338,7 @@
       <c r="M27" s="43"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="529">
+      <c r="A28" s="531">
         <v>15</v>
       </c>
       <c r="B28" s="29"/>
@@ -36349,7 +36363,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="531"/>
+      <c r="A29" s="532"/>
       <c r="B29" s="35"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
@@ -36366,7 +36380,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="532">
+      <c r="A30" s="537">
         <v>16</v>
       </c>
       <c r="B30" s="29"/>
@@ -36393,7 +36407,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="533"/>
+      <c r="A31" s="538"/>
       <c r="B31" s="35"/>
       <c r="C31" s="32" t="s">
         <v>548</v>
@@ -36410,7 +36424,7 @@
       <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="529">
+      <c r="A32" s="531">
         <v>17</v>
       </c>
       <c r="B32" s="29" t="s">
@@ -36435,7 +36449,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="531"/>
+      <c r="A33" s="532"/>
       <c r="B33" s="35"/>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
@@ -36452,7 +36466,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="532">
+      <c r="A34" s="537">
         <v>18</v>
       </c>
       <c r="B34" s="338" t="s">
@@ -36481,7 +36495,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="533"/>
+      <c r="A35" s="538"/>
       <c r="B35" s="35"/>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
@@ -36498,7 +36512,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="529">
+      <c r="A36" s="531">
         <v>19</v>
       </c>
       <c r="B36" s="29"/>
@@ -36527,7 +36541,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="531"/>
+      <c r="A37" s="532"/>
       <c r="B37" s="35"/>
       <c r="C37" s="32" t="s">
         <v>548</v>
@@ -36544,7 +36558,7 @@
       <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="532">
+      <c r="A38" s="537">
         <v>20</v>
       </c>
       <c r="B38" s="29"/>
@@ -36569,7 +36583,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="534"/>
+      <c r="A39" s="540"/>
       <c r="B39" s="50"/>
       <c r="C39" s="341" t="s">
         <v>598</v>
@@ -36590,7 +36604,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="533"/>
+      <c r="A40" s="538"/>
       <c r="B40" s="35"/>
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
@@ -36630,7 +36644,7 @@
       <c r="M41" s="43"/>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="535">
+      <c r="A42" s="541">
         <v>22</v>
       </c>
       <c r="B42" s="29"/>
@@ -36657,7 +36671,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="536"/>
+      <c r="A43" s="542"/>
       <c r="B43" s="50"/>
       <c r="C43" s="51"/>
       <c r="D43" s="51"/>
@@ -36674,7 +36688,7 @@
       <c r="M43" s="51"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="537"/>
+      <c r="A44" s="543"/>
       <c r="B44" s="35"/>
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
@@ -36691,7 +36705,7 @@
       <c r="M44" s="32"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="529">
+      <c r="A45" s="531">
         <v>23</v>
       </c>
       <c r="B45" s="29"/>
@@ -36716,7 +36730,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="530"/>
+      <c r="A46" s="539"/>
       <c r="B46" s="50"/>
       <c r="C46" s="51" t="s">
         <v>609</v>
@@ -36735,7 +36749,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="531"/>
+      <c r="A47" s="532"/>
       <c r="B47" s="35"/>
       <c r="C47" s="32"/>
       <c r="D47" s="32"/>
@@ -36780,6 +36794,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A42:A44"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -36792,15 +36813,9 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36842,6 +36857,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -36903,7 +36919,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="529">
+      <c r="A2" s="531">
         <v>1</v>
       </c>
       <c r="B2" s="112" t="s">
@@ -36941,7 +36957,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="530"/>
+      <c r="A3" s="539"/>
       <c r="B3" s="115"/>
       <c r="C3" s="117" t="s">
         <v>1729</v>
@@ -36964,7 +36980,7 @@
       <c r="N3" s="139"/>
     </row>
     <row r="4" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="530"/>
+      <c r="A4" s="539"/>
       <c r="B4" s="115"/>
       <c r="C4" s="117"/>
       <c r="D4" s="117"/>
@@ -36984,7 +37000,7 @@
       <c r="N4" s="139"/>
     </row>
     <row r="5" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="530"/>
+      <c r="A5" s="539"/>
       <c r="B5" s="115"/>
       <c r="C5" s="117"/>
       <c r="D5" s="117"/>
@@ -37002,7 +37018,7 @@
       <c r="N5" s="139"/>
     </row>
     <row r="6" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="536">
+      <c r="A6" s="542">
         <v>2</v>
       </c>
       <c r="B6" s="126" t="s">
@@ -37042,7 +37058,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="536"/>
+      <c r="A7" s="542"/>
       <c r="B7" s="115"/>
       <c r="C7" s="117"/>
       <c r="D7" s="117" t="s">
@@ -37068,7 +37084,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="537"/>
+      <c r="A8" s="543"/>
       <c r="B8" s="119"/>
       <c r="C8" s="120"/>
       <c r="D8" s="120"/>
@@ -37088,7 +37104,7 @@
       <c r="N8" s="142"/>
     </row>
     <row r="9" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="529">
+      <c r="A9" s="531">
         <v>3</v>
       </c>
       <c r="B9" s="112"/>
@@ -37124,7 +37140,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="530"/>
+      <c r="A10" s="539"/>
       <c r="B10" s="115"/>
       <c r="C10" s="116" t="s">
         <v>1754</v>
@@ -37154,7 +37170,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="530"/>
+      <c r="A11" s="539"/>
       <c r="B11" s="115"/>
       <c r="C11" s="117" t="s">
         <v>1759</v>
@@ -37176,7 +37192,7 @@
       <c r="N11" s="139"/>
     </row>
     <row r="12" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="531"/>
+      <c r="A12" s="532"/>
       <c r="B12" s="119"/>
       <c r="C12" s="120"/>
       <c r="D12" s="120"/>
@@ -37194,7 +37210,7 @@
       <c r="N12" s="142"/>
     </row>
     <row r="13" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="535">
+      <c r="A13" s="541">
         <v>4</v>
       </c>
       <c r="B13" s="112"/>
@@ -37232,7 +37248,7 @@
       <c r="N13" s="135"/>
     </row>
     <row r="14" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="536"/>
+      <c r="A14" s="542"/>
       <c r="B14" s="115"/>
       <c r="C14" s="117"/>
       <c r="D14" s="117" t="s">
@@ -37260,7 +37276,7 @@
       <c r="N14" s="139"/>
     </row>
     <row r="15" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="536"/>
+      <c r="A15" s="542"/>
       <c r="B15" s="115"/>
       <c r="C15" s="117"/>
       <c r="D15" s="117" t="s">
@@ -37280,7 +37296,7 @@
       <c r="N15" s="139"/>
     </row>
     <row r="16" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="536"/>
+      <c r="A16" s="542"/>
       <c r="B16" s="115"/>
       <c r="C16" s="117"/>
       <c r="D16" s="117"/>
@@ -37298,7 +37314,7 @@
       <c r="N16" s="139"/>
     </row>
     <row r="17" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="537"/>
+      <c r="A17" s="543"/>
       <c r="B17" s="119"/>
       <c r="C17" s="120"/>
       <c r="D17" s="120"/>
@@ -37316,7 +37332,7 @@
       <c r="N17" s="142"/>
     </row>
     <row r="18" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="529">
+      <c r="A18" s="531">
         <v>5</v>
       </c>
       <c r="B18" s="112"/>
@@ -37350,7 +37366,7 @@
       <c r="N18" s="135"/>
     </row>
     <row r="19" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="530"/>
+      <c r="A19" s="539"/>
       <c r="B19" s="115"/>
       <c r="C19" s="116" t="s">
         <v>1754</v>
@@ -37376,7 +37392,7 @@
       <c r="N19" s="139"/>
     </row>
     <row r="20" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="530"/>
+      <c r="A20" s="539"/>
       <c r="B20" s="115"/>
       <c r="C20" s="117"/>
       <c r="D20" s="117"/>
@@ -37398,7 +37414,7 @@
       <c r="N20" s="139"/>
     </row>
     <row r="21" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="530"/>
+      <c r="A21" s="539"/>
       <c r="B21" s="115"/>
       <c r="C21" s="117"/>
       <c r="D21" s="117"/>
@@ -37418,7 +37434,7 @@
       <c r="N21" s="139"/>
     </row>
     <row r="22" spans="1:14" s="36" customFormat="1" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="530"/>
+      <c r="A22" s="539"/>
       <c r="B22" s="119"/>
       <c r="C22" s="120"/>
       <c r="D22" s="120"/>
@@ -37445,5 +37461,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <picture r:id="rId1"/>
 </worksheet>
 </file>